--- a/数值设定/生产方式效率显示表.xlsx
+++ b/数值设定/生产方式效率显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="15240" windowWidth="31447" windowHeight="14445"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
@@ -41,11 +41,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,13 +62,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -77,8 +70,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -86,6 +80,20 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,17 +113,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,10 +136,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,16 +169,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,31 +192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,7 +206,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -240,7 +233,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,19 +299,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,13 +329,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,133 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,21 +425,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -479,35 +439,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,8 +472,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,151 +512,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1789,9 +1764,67 @@
             <v>水管锅炉</v>
           </cell>
         </row>
+        <row r="32">
+          <cell r="P32" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="Q32">
+            <v>2</v>
+          </cell>
+          <cell r="R32" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="S32">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AE32">
+            <v>-750</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AG32">
+            <v>250</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="AI32">
+            <v>150</v>
+          </cell>
+        </row>
         <row r="33">
           <cell r="C33" t="str">
             <v>旋转阀蒸汽机</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="P33" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="Q33">
+            <v>5</v>
+          </cell>
+          <cell r="R33" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="S33">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AE33">
+            <v>-1250</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AG33">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="AI33">
+            <v>200</v>
           </cell>
         </row>
         <row r="34">
@@ -1799,9 +1832,397 @@
             <v>流水线</v>
           </cell>
         </row>
+        <row r="34">
+          <cell r="P34" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="Q34">
+            <v>10</v>
+          </cell>
+          <cell r="R34" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="S34">
+            <v>10</v>
+          </cell>
+          <cell r="T34" t="str">
+            <v>树胶</v>
+          </cell>
+          <cell r="U34">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AE34">
+            <v>-2000</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AG34">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="AI34">
+            <v>250</v>
+          </cell>
+        </row>
         <row r="35">
           <cell r="C35" t="str">
             <v>魔偶流水线</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="P35" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="Q35">
+            <v>10</v>
+          </cell>
+          <cell r="R35" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="S35">
+            <v>10</v>
+          </cell>
+          <cell r="T35" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="U35">
+            <v>2</v>
+          </cell>
+          <cell r="V35" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="W35">
+            <v>2</v>
+          </cell>
+          <cell r="X35" t="str">
+            <v>树胶</v>
+          </cell>
+          <cell r="Y35">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AE35">
+            <v>-3900</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AG35">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="AI35">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36" t="str">
+            <v>基础魔偶生产</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="P36" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q36">
+            <v>5</v>
+          </cell>
+          <cell r="R36" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S36">
+            <v>5</v>
+          </cell>
+          <cell r="T36" t="str">
+            <v>钢</v>
+          </cell>
+          <cell r="U36">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="Z36" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="AA36">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AE36">
+            <v>1100</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AG36">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="AI36">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37" t="str">
+            <v>智能魔偶生产</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="P37" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q37">
+            <v>10</v>
+          </cell>
+          <cell r="R37" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S37">
+            <v>10</v>
+          </cell>
+          <cell r="T37" t="str">
+            <v>钢</v>
+          </cell>
+          <cell r="U37">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="Z37" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="AA37">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AE37">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AG37">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="AI37">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38" t="str">
+            <v>超智能魔偶生产</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="P38" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q38">
+            <v>10</v>
+          </cell>
+          <cell r="R38" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S38">
+            <v>10</v>
+          </cell>
+          <cell r="T38" t="str">
+            <v>钢</v>
+          </cell>
+          <cell r="U38">
+            <v>10</v>
+          </cell>
+          <cell r="V38" t="str">
+            <v>秘银</v>
+          </cell>
+          <cell r="W38">
+            <v>5</v>
+          </cell>
+          <cell r="X38" t="str">
+            <v>树胶</v>
+          </cell>
+          <cell r="Y38">
+            <v>5</v>
+          </cell>
+          <cell r="Z38" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="AA38">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AE38">
+            <v>800</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AG38">
+            <v>650</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="AI38">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39" t="str">
+            <v>无自动化</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40" t="str">
+            <v>基础魔偶</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="R40" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S40">
+            <v>1</v>
+          </cell>
+          <cell r="T40" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="U40">
+            <v>1</v>
+          </cell>
+          <cell r="V40" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="W40">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AE40">
+            <v>-200</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41" t="str">
+            <v>智能魔偶</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="R41" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S41">
+            <v>2</v>
+          </cell>
+          <cell r="T41" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="U41">
+            <v>2</v>
+          </cell>
+          <cell r="V41" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="W41">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AE41">
+            <v>-300</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AG41">
+            <v>-50</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42" t="str">
+            <v>超智能魔偶</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="R42" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S42">
+            <v>3</v>
+          </cell>
+          <cell r="T42" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="U42">
+            <v>3</v>
+          </cell>
+          <cell r="V42" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="W42">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AE42">
+            <v>-500</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AG42">
+            <v>-100</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43" t="str">
+            <v>魔偶流水线</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="P43" t="str">
+            <v>树胶</v>
+          </cell>
+          <cell r="Q43">
+            <v>1</v>
+          </cell>
+          <cell r="R43" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S43">
+            <v>2</v>
+          </cell>
+          <cell r="T43" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="U43">
+            <v>2</v>
+          </cell>
+          <cell r="V43" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="W43">
+            <v>2</v>
+          </cell>
+          <cell r="X43" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="Y43">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="AE43">
+            <v>-800</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="AG43">
+            <v>-150</v>
           </cell>
         </row>
       </sheetData>
@@ -1819,7 +2240,7 @@
         </row>
         <row r="2">
           <cell r="B2" t="str">
-            <v>伍德</v>
+            <v>木头</v>
           </cell>
           <cell r="C2">
             <v>20</v>
@@ -2523,14 +2944,16 @@
   <sheetPr/>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.5575221238938" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.88495575221239" style="2"/>
+    <col min="2" max="4" width="8.88495575221239" style="2"/>
+    <col min="5" max="6" width="12.7964601769912" style="2"/>
+    <col min="7" max="16384" width="8.88495575221239" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:6">
@@ -3341,7 +3764,7 @@
       </c>
       <c r="B32" s="2">
         <f>([1]生产方式!$Q32*数据!A31)+([1]生产方式!$S32*数据!B31)+([1]生产方式!$U32*数据!C31)+([1]生产方式!$W32*数据!D31)+([1]生产方式!$Y32*数据!E31)</f>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2">
         <f>([1]生产方式!$AA32*数据!F31)+([1]生产方式!$AC32*数据!G31)</f>
@@ -3349,15 +3772,15 @@
       </c>
       <c r="D32" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="2" t="e">
+        <v>-140</v>
+      </c>
+      <c r="E32" s="2">
         <f>D32*1000/([1]生产方式!$AE32+[1]生产方式!$AG32+[1]生产方式!$AI32)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="2" t="e">
+        <v>400</v>
+      </c>
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3367,7 +3790,7 @@
       </c>
       <c r="B33" s="2">
         <f>([1]生产方式!$Q33*数据!A32)+([1]生产方式!$S33*数据!B32)+([1]生产方式!$U33*数据!C32)+([1]生产方式!$W33*数据!D32)+([1]生产方式!$Y33*数据!E32)</f>
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="C33" s="2">
         <f>([1]生产方式!$AA33*数据!F32)+([1]生产方式!$AC33*数据!G32)</f>
@@ -3375,15 +3798,15 @@
       </c>
       <c r="D33" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="2" t="e">
+        <v>-350</v>
+      </c>
+      <c r="E33" s="2">
         <f>D33*1000/([1]生产方式!$AE33+[1]生产方式!$AG33+[1]生产方式!$AI33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="2" t="e">
+        <v>411.764705882353</v>
+      </c>
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3393,7 +3816,7 @@
       </c>
       <c r="B34" s="2">
         <f>([1]生产方式!$Q34*数据!A33)+([1]生产方式!$S34*数据!B33)+([1]生产方式!$U34*数据!C33)+([1]生产方式!$W34*数据!D33)+([1]生产方式!$Y34*数据!E33)</f>
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="C34" s="2">
         <f>([1]生产方式!$AA34*数据!F33)+([1]生产方式!$AC34*数据!G33)</f>
@@ -3401,15 +3824,15 @@
       </c>
       <c r="D34" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="2" t="e">
+        <v>-740</v>
+      </c>
+      <c r="E34" s="2">
         <f>D34*1000/([1]生产方式!$AE34+[1]生产方式!$AG34+[1]生产方式!$AI34)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="2" t="e">
+        <v>462.5</v>
+      </c>
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3419,7 +3842,7 @@
       </c>
       <c r="B35" s="2">
         <f>([1]生产方式!$Q35*数据!A34)+([1]生产方式!$S35*数据!B34)+([1]生产方式!$U35*数据!C34)+([1]生产方式!$W35*数据!D34)+([1]生产方式!$Y35*数据!E34)</f>
-        <v>0</v>
+        <v>1280</v>
       </c>
       <c r="C35" s="2">
         <f>([1]生产方式!$AA35*数据!F34)+([1]生产方式!$AC35*数据!G34)</f>
@@ -3427,99 +3850,99 @@
       </c>
       <c r="D35" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="2" t="e">
+        <v>-1280</v>
+      </c>
+      <c r="E35" s="2">
         <f>D35*1000/([1]生产方式!$AE35+[1]生产方式!$AG35+[1]生产方式!$AI35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="2" t="e">
+        <v>441.379310344828</v>
+      </c>
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3">
+      <c r="A36" s="3" t="str">
         <f>[1]生产方式!C36</f>
-        <v>0</v>
+        <v>基础魔偶生产</v>
       </c>
       <c r="B36" s="2">
         <f>([1]生产方式!$Q36*数据!A35)+([1]生产方式!$S36*数据!B35)+([1]生产方式!$U36*数据!C35)+([1]生产方式!$W36*数据!D35)+([1]生产方式!$Y36*数据!E35)</f>
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="C36" s="2">
         <f>([1]生产方式!$AA36*数据!F35)+([1]生产方式!$AC36*数据!G35)</f>
-        <v>0</v>
+        <v>6750</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="2" t="e">
+        <v>5100</v>
+      </c>
+      <c r="E36" s="2">
         <f>D36*1000/([1]生产方式!$AE36+[1]生产方式!$AG36+[1]生产方式!$AI36)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F36" s="2" t="e">
+        <v>3400</v>
+      </c>
+      <c r="F36" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>4.09090909090909</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3">
+      <c r="A37" s="3" t="str">
         <f>[1]生产方式!C37</f>
-        <v>0</v>
+        <v>智能魔偶生产</v>
       </c>
       <c r="B37" s="2">
         <f>([1]生产方式!$Q37*数据!A36)+([1]生产方式!$S37*数据!B36)+([1]生产方式!$U37*数据!C36)+([1]生产方式!$W37*数据!D36)+([1]生产方式!$Y37*数据!E36)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C37" s="2">
         <f>([1]生产方式!$AA37*数据!F36)+([1]生产方式!$AC37*数据!G36)</f>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="2" t="e">
+        <v>6000</v>
+      </c>
+      <c r="E37" s="2">
         <f>D37*1000/([1]生产方式!$AE37+[1]生产方式!$AG37+[1]生产方式!$AI37)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F37" s="2" t="e">
+        <v>4000</v>
+      </c>
+      <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3">
+      <c r="A38" s="3" t="str">
         <f>[1]生产方式!C38</f>
-        <v>0</v>
+        <v>超智能魔偶生产</v>
       </c>
       <c r="B38" s="2">
         <f>([1]生产方式!$Q38*数据!A37)+([1]生产方式!$S38*数据!B37)+([1]生产方式!$U38*数据!C37)+([1]生产方式!$W38*数据!D37)+([1]生产方式!$Y38*数据!E37)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="C38" s="2">
         <f>([1]生产方式!$AA38*数据!F37)+([1]生产方式!$AC38*数据!G37)</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="2" t="e">
+        <v>8000</v>
+      </c>
+      <c r="E38" s="2">
         <f>D38*1000/([1]生产方式!$AE38+[1]生产方式!$AG38+[1]生产方式!$AI38)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F38" s="2" t="e">
+        <v>5161.29032258064</v>
+      </c>
+      <c r="F38" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3">
+      <c r="A39" s="3" t="str">
         <f>[1]生产方式!C39</f>
-        <v>0</v>
+        <v>无自动化</v>
       </c>
       <c r="B39" s="2">
         <f>([1]生产方式!$Q39*数据!A38)+([1]生产方式!$S39*数据!B38)+([1]生产方式!$U39*数据!C38)+([1]生产方式!$W39*数据!D38)+([1]生产方式!$Y39*数据!E38)</f>
@@ -3543,13 +3966,13 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3">
+      <c r="A40" s="3" t="str">
         <f>[1]生产方式!C40</f>
-        <v>0</v>
+        <v>基础魔偶</v>
       </c>
       <c r="B40" s="2">
         <f>([1]生产方式!$Q40*数据!A39)+([1]生产方式!$S40*数据!B39)+([1]生产方式!$U40*数据!C39)+([1]生产方式!$W40*数据!D39)+([1]生产方式!$Y40*数据!E39)</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C40" s="2">
         <f>([1]生产方式!$AA40*数据!F39)+([1]生产方式!$AC40*数据!G39)</f>
@@ -3557,25 +3980,25 @@
       </c>
       <c r="D40" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="2" t="e">
+        <v>-310</v>
+      </c>
+      <c r="E40" s="2">
         <f>D40*1000/([1]生产方式!$AE40+[1]生产方式!$AG40+[1]生产方式!$AI40)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="2" t="e">
+        <v>1550</v>
+      </c>
+      <c r="F40" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3">
+      <c r="A41" s="3" t="str">
         <f>[1]生产方式!C41</f>
-        <v>0</v>
+        <v>智能魔偶</v>
       </c>
       <c r="B41" s="2">
         <f>([1]生产方式!$Q41*数据!A40)+([1]生产方式!$S41*数据!B40)+([1]生产方式!$U41*数据!C40)+([1]生产方式!$W41*数据!D40)+([1]生产方式!$Y41*数据!E40)</f>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="C41" s="2">
         <f>([1]生产方式!$AA41*数据!F40)+([1]生产方式!$AC41*数据!G40)</f>
@@ -3583,25 +4006,25 @@
       </c>
       <c r="D41" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="2" t="e">
+        <v>-620</v>
+      </c>
+      <c r="E41" s="2">
         <f>D41*1000/([1]生产方式!$AE41+[1]生产方式!$AG41+[1]生产方式!$AI41)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F41" s="2" t="e">
+        <v>1771.42857142857</v>
+      </c>
+      <c r="F41" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3">
+      <c r="A42" s="3" t="str">
         <f>[1]生产方式!C42</f>
-        <v>0</v>
+        <v>超智能魔偶</v>
       </c>
       <c r="B42" s="2">
         <f>([1]生产方式!$Q42*数据!A41)+([1]生产方式!$S42*数据!B41)+([1]生产方式!$U42*数据!C41)+([1]生产方式!$W42*数据!D41)+([1]生产方式!$Y42*数据!E41)</f>
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="C42" s="2">
         <f>([1]生产方式!$AA42*数据!F41)+([1]生产方式!$AC42*数据!G41)</f>
@@ -3609,25 +4032,25 @@
       </c>
       <c r="D42" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="2" t="e">
+        <v>-930</v>
+      </c>
+      <c r="E42" s="2">
         <f>D42*1000/([1]生产方式!$AE42+[1]生产方式!$AG42+[1]生产方式!$AI42)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F42" s="2" t="e">
+        <v>1550</v>
+      </c>
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3">
+      <c r="A43" s="3" t="str">
         <f>[1]生产方式!C43</f>
-        <v>0</v>
+        <v>魔偶流水线</v>
       </c>
       <c r="B43" s="2">
         <f>([1]生产方式!$Q43*数据!A42)+([1]生产方式!$S43*数据!B42)+([1]生产方式!$U43*数据!C42)+([1]生产方式!$W43*数据!D42)+([1]生产方式!$Y43*数据!E42)</f>
-        <v>0</v>
+        <v>810</v>
       </c>
       <c r="C43" s="2">
         <f>([1]生产方式!$AA43*数据!F42)+([1]生产方式!$AC43*数据!G42)</f>
@@ -3635,15 +4058,15 @@
       </c>
       <c r="D43" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="e">
+        <v>-810</v>
+      </c>
+      <c r="E43" s="2">
         <f>D43*1000/([1]生产方式!$AE43+[1]生产方式!$AG43+[1]生产方式!$AI43)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F43" s="2" t="e">
+        <v>852.631578947368</v>
+      </c>
+      <c r="F43" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -10914,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="D323" s="2">
-        <f t="shared" ref="D323:D386" si="10">C323-B323</f>
+        <f>C323-B323</f>
         <v>0</v>
       </c>
       <c r="E323" s="2" t="e">
@@ -10922,7 +11345,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F323" s="2" t="e">
-        <f t="shared" ref="F323:F341" si="11">C323/B323</f>
+        <f>C323/B323</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10940,7 +11363,7 @@
         <v>0</v>
       </c>
       <c r="D324" s="2">
-        <f t="shared" si="10"/>
+        <f>C324-B324</f>
         <v>0</v>
       </c>
       <c r="E324" s="2" t="e">
@@ -10948,7 +11371,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F324" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C324/B324</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10966,7 +11389,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="2">
-        <f t="shared" si="10"/>
+        <f>C325-B325</f>
         <v>0</v>
       </c>
       <c r="E325" s="2" t="e">
@@ -10974,7 +11397,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F325" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C325/B325</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -10992,7 +11415,7 @@
         <v>0</v>
       </c>
       <c r="D326" s="2">
-        <f t="shared" si="10"/>
+        <f>C326-B326</f>
         <v>0</v>
       </c>
       <c r="E326" s="2" t="e">
@@ -11000,7 +11423,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F326" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C326/B326</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11018,7 +11441,7 @@
         <v>0</v>
       </c>
       <c r="D327" s="2">
-        <f t="shared" si="10"/>
+        <f>C327-B327</f>
         <v>0</v>
       </c>
       <c r="E327" s="2" t="e">
@@ -11026,7 +11449,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F327" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C327/B327</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11044,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="D328" s="2">
-        <f t="shared" si="10"/>
+        <f>C328-B328</f>
         <v>0</v>
       </c>
       <c r="E328" s="2" t="e">
@@ -11052,7 +11475,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F328" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C328/B328</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11070,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="D329" s="2">
-        <f t="shared" si="10"/>
+        <f>C329-B329</f>
         <v>0</v>
       </c>
       <c r="E329" s="2" t="e">
@@ -11078,7 +11501,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F329" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C329/B329</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11096,7 +11519,7 @@
         <v>0</v>
       </c>
       <c r="D330" s="2">
-        <f t="shared" si="10"/>
+        <f>C330-B330</f>
         <v>0</v>
       </c>
       <c r="E330" s="2" t="e">
@@ -11104,7 +11527,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F330" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C330/B330</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11122,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="D331" s="2">
-        <f t="shared" si="10"/>
+        <f>C331-B331</f>
         <v>0</v>
       </c>
       <c r="E331" s="2" t="e">
@@ -11130,7 +11553,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F331" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C331/B331</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11148,7 +11571,7 @@
         <v>0</v>
       </c>
       <c r="D332" s="2">
-        <f t="shared" si="10"/>
+        <f>C332-B332</f>
         <v>0</v>
       </c>
       <c r="E332" s="2" t="e">
@@ -11156,7 +11579,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F332" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C332/B332</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11174,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="D333" s="2">
-        <f t="shared" si="10"/>
+        <f>C333-B333</f>
         <v>0</v>
       </c>
       <c r="E333" s="2" t="e">
@@ -11182,7 +11605,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F333" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C333/B333</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11200,7 +11623,7 @@
         <v>0</v>
       </c>
       <c r="D334" s="2">
-        <f t="shared" si="10"/>
+        <f>C334-B334</f>
         <v>0</v>
       </c>
       <c r="E334" s="2" t="e">
@@ -11208,7 +11631,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F334" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C334/B334</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11226,7 +11649,7 @@
         <v>0</v>
       </c>
       <c r="D335" s="2">
-        <f t="shared" si="10"/>
+        <f>C335-B335</f>
         <v>0</v>
       </c>
       <c r="E335" s="2" t="e">
@@ -11234,7 +11657,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F335" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C335/B335</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11252,7 +11675,7 @@
         <v>0</v>
       </c>
       <c r="D336" s="2">
-        <f t="shared" si="10"/>
+        <f>C336-B336</f>
         <v>0</v>
       </c>
       <c r="E336" s="2" t="e">
@@ -11260,7 +11683,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F336" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C336/B336</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11278,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="D337" s="2">
-        <f t="shared" si="10"/>
+        <f>C337-B337</f>
         <v>0</v>
       </c>
       <c r="E337" s="2" t="e">
@@ -11286,7 +11709,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F337" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C337/B337</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11304,7 +11727,7 @@
         <v>0</v>
       </c>
       <c r="D338" s="2">
-        <f t="shared" si="10"/>
+        <f>C338-B338</f>
         <v>0</v>
       </c>
       <c r="E338" s="2" t="e">
@@ -11312,7 +11735,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F338" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C338/B338</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11330,7 +11753,7 @@
         <v>0</v>
       </c>
       <c r="D339" s="2">
-        <f t="shared" si="10"/>
+        <f>C339-B339</f>
         <v>0</v>
       </c>
       <c r="E339" s="2" t="e">
@@ -11338,7 +11761,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F339" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C339/B339</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11356,7 +11779,7 @@
         <v>0</v>
       </c>
       <c r="D340" s="2">
-        <f t="shared" si="10"/>
+        <f>C340-B340</f>
         <v>0</v>
       </c>
       <c r="E340" s="2" t="e">
@@ -11364,7 +11787,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F340" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C340/B340</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11382,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="D341" s="2">
-        <f t="shared" si="10"/>
+        <f>C341-B341</f>
         <v>0</v>
       </c>
       <c r="E341" s="2" t="e">
@@ -11390,13 +11813,13 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F341" s="2" t="e">
-        <f t="shared" si="11"/>
+        <f>C341/B341</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="342" spans="1:5">
       <c r="A342" s="3">
-        <f>[1]生产方式!C342</f>
+        <f>[1]生产方式!C343</f>
         <v>0</v>
       </c>
       <c r="B342" s="2">
@@ -11408,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="D342" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="D323:D386" si="10">C342-B342</f>
         <v>0</v>
       </c>
       <c r="E342" s="2" t="e">
@@ -11418,7 +11841,7 @@
     </row>
     <row r="343" spans="1:5">
       <c r="A343" s="3">
-        <f>[1]生产方式!C343</f>
+        <f>[1]生产方式!C344</f>
         <v>0</v>
       </c>
       <c r="B343" s="2">
@@ -11440,7 +11863,7 @@
     </row>
     <row r="344" spans="1:5">
       <c r="A344" s="3">
-        <f>[1]生产方式!C344</f>
+        <f>[1]生产方式!C345</f>
         <v>0</v>
       </c>
       <c r="B344" s="2">
@@ -11462,7 +11885,7 @@
     </row>
     <row r="345" spans="1:5">
       <c r="A345" s="3">
-        <f>[1]生产方式!C345</f>
+        <f>[1]生产方式!C346</f>
         <v>0</v>
       </c>
       <c r="B345" s="2">
@@ -11484,7 +11907,7 @@
     </row>
     <row r="346" spans="1:5">
       <c r="A346" s="3">
-        <f>[1]生产方式!C346</f>
+        <f>[1]生产方式!C347</f>
         <v>0</v>
       </c>
       <c r="B346" s="2">
@@ -11506,7 +11929,7 @@
     </row>
     <row r="347" spans="1:5">
       <c r="A347" s="3">
-        <f>[1]生产方式!C347</f>
+        <f>[1]生产方式!C348</f>
         <v>0</v>
       </c>
       <c r="B347" s="2">
@@ -11528,7 +11951,7 @@
     </row>
     <row r="348" spans="1:5">
       <c r="A348" s="3">
-        <f>[1]生产方式!C348</f>
+        <f>[1]生产方式!C349</f>
         <v>0</v>
       </c>
       <c r="B348" s="2">
@@ -11550,7 +11973,7 @@
     </row>
     <row r="349" spans="1:5">
       <c r="A349" s="3">
-        <f>[1]生产方式!C349</f>
+        <f>[1]生产方式!C350</f>
         <v>0</v>
       </c>
       <c r="B349" s="2">
@@ -11572,7 +11995,7 @@
     </row>
     <row r="350" spans="1:5">
       <c r="A350" s="3">
-        <f>[1]生产方式!C350</f>
+        <f>[1]生产方式!C351</f>
         <v>0</v>
       </c>
       <c r="B350" s="2">
@@ -11594,7 +12017,7 @@
     </row>
     <row r="351" spans="1:5">
       <c r="A351" s="3">
-        <f>[1]生产方式!C351</f>
+        <f>[1]生产方式!C352</f>
         <v>0</v>
       </c>
       <c r="B351" s="2">
@@ -11616,7 +12039,7 @@
     </row>
     <row r="352" spans="1:5">
       <c r="A352" s="3">
-        <f>[1]生产方式!C352</f>
+        <f>[1]生产方式!C353</f>
         <v>0</v>
       </c>
       <c r="B352" s="2">
@@ -11638,7 +12061,7 @@
     </row>
     <row r="353" spans="1:5">
       <c r="A353" s="3">
-        <f>[1]生产方式!C353</f>
+        <f>[1]生产方式!C354</f>
         <v>0</v>
       </c>
       <c r="B353" s="2">
@@ -11660,7 +12083,7 @@
     </row>
     <row r="354" spans="1:5">
       <c r="A354" s="3">
-        <f>[1]生产方式!C354</f>
+        <f>[1]生产方式!C355</f>
         <v>0</v>
       </c>
       <c r="B354" s="2">
@@ -11682,7 +12105,7 @@
     </row>
     <row r="355" spans="1:5">
       <c r="A355" s="3">
-        <f>[1]生产方式!C355</f>
+        <f>[1]生产方式!C356</f>
         <v>0</v>
       </c>
       <c r="B355" s="2">
@@ -11704,7 +12127,7 @@
     </row>
     <row r="356" spans="1:5">
       <c r="A356" s="3">
-        <f>[1]生产方式!C356</f>
+        <f>[1]生产方式!C357</f>
         <v>0</v>
       </c>
       <c r="B356" s="2">
@@ -11726,7 +12149,7 @@
     </row>
     <row r="357" spans="1:5">
       <c r="A357" s="3">
-        <f>[1]生产方式!C357</f>
+        <f>[1]生产方式!C358</f>
         <v>0</v>
       </c>
       <c r="B357" s="2">
@@ -11748,7 +12171,7 @@
     </row>
     <row r="358" spans="1:5">
       <c r="A358" s="3">
-        <f>[1]生产方式!C358</f>
+        <f>[1]生产方式!C359</f>
         <v>0</v>
       </c>
       <c r="B358" s="2">
@@ -11770,7 +12193,7 @@
     </row>
     <row r="359" spans="1:5">
       <c r="A359" s="3">
-        <f>[1]生产方式!C359</f>
+        <f>[1]生产方式!C360</f>
         <v>0</v>
       </c>
       <c r="B359" s="2">
@@ -11792,7 +12215,7 @@
     </row>
     <row r="360" spans="1:5">
       <c r="A360" s="3">
-        <f>[1]生产方式!C360</f>
+        <f>[1]生产方式!C361</f>
         <v>0</v>
       </c>
       <c r="B360" s="2">
@@ -11814,7 +12237,7 @@
     </row>
     <row r="361" spans="1:5">
       <c r="A361" s="3">
-        <f>[1]生产方式!C361</f>
+        <f>[1]生产方式!C362</f>
         <v>0</v>
       </c>
       <c r="B361" s="2">
@@ -11836,7 +12259,7 @@
     </row>
     <row r="362" spans="1:5">
       <c r="A362" s="3">
-        <f>[1]生产方式!C362</f>
+        <f>[1]生产方式!C363</f>
         <v>0</v>
       </c>
       <c r="B362" s="2">
@@ -11858,7 +12281,7 @@
     </row>
     <row r="363" spans="1:5">
       <c r="A363" s="3">
-        <f>[1]生产方式!C363</f>
+        <f>[1]生产方式!C364</f>
         <v>0</v>
       </c>
       <c r="B363" s="2">
@@ -11880,7 +12303,7 @@
     </row>
     <row r="364" spans="1:5">
       <c r="A364" s="3">
-        <f>[1]生产方式!C364</f>
+        <f>[1]生产方式!C365</f>
         <v>0</v>
       </c>
       <c r="B364" s="2">
@@ -11902,7 +12325,7 @@
     </row>
     <row r="365" spans="1:5">
       <c r="A365" s="3">
-        <f>[1]生产方式!C365</f>
+        <f>[1]生产方式!C366</f>
         <v>0</v>
       </c>
       <c r="B365" s="2">
@@ -11924,7 +12347,7 @@
     </row>
     <row r="366" spans="1:5">
       <c r="A366" s="3">
-        <f>[1]生产方式!C366</f>
+        <f>[1]生产方式!C367</f>
         <v>0</v>
       </c>
       <c r="B366" s="2">
@@ -11946,7 +12369,7 @@
     </row>
     <row r="367" spans="1:5">
       <c r="A367" s="3">
-        <f>[1]生产方式!C367</f>
+        <f>[1]生产方式!C368</f>
         <v>0</v>
       </c>
       <c r="B367" s="2">
@@ -11968,7 +12391,7 @@
     </row>
     <row r="368" spans="1:5">
       <c r="A368" s="3">
-        <f>[1]生产方式!C368</f>
+        <f>[1]生产方式!C369</f>
         <v>0</v>
       </c>
       <c r="B368" s="2">
@@ -11990,7 +12413,7 @@
     </row>
     <row r="369" spans="1:5">
       <c r="A369" s="3">
-        <f>[1]生产方式!C369</f>
+        <f>[1]生产方式!C370</f>
         <v>0</v>
       </c>
       <c r="B369" s="2">
@@ -12012,7 +12435,7 @@
     </row>
     <row r="370" spans="1:5">
       <c r="A370" s="3">
-        <f>[1]生产方式!C370</f>
+        <f>[1]生产方式!C371</f>
         <v>0</v>
       </c>
       <c r="B370" s="2">
@@ -12034,7 +12457,7 @@
     </row>
     <row r="371" spans="1:5">
       <c r="A371" s="3">
-        <f>[1]生产方式!C371</f>
+        <f>[1]生产方式!C372</f>
         <v>0</v>
       </c>
       <c r="B371" s="2">
@@ -12056,7 +12479,7 @@
     </row>
     <row r="372" spans="1:5">
       <c r="A372" s="3">
-        <f>[1]生产方式!C372</f>
+        <f>[1]生产方式!C373</f>
         <v>0</v>
       </c>
       <c r="B372" s="2">
@@ -12078,7 +12501,7 @@
     </row>
     <row r="373" spans="1:5">
       <c r="A373" s="3">
-        <f>[1]生产方式!C373</f>
+        <f>[1]生产方式!C374</f>
         <v>0</v>
       </c>
       <c r="B373" s="2">
@@ -12100,7 +12523,7 @@
     </row>
     <row r="374" spans="1:5">
       <c r="A374" s="3">
-        <f>[1]生产方式!C374</f>
+        <f>[1]生产方式!C375</f>
         <v>0</v>
       </c>
       <c r="B374" s="2">
@@ -12122,7 +12545,7 @@
     </row>
     <row r="375" spans="1:5">
       <c r="A375" s="3">
-        <f>[1]生产方式!C375</f>
+        <f>[1]生产方式!C376</f>
         <v>0</v>
       </c>
       <c r="B375" s="2">
@@ -12144,7 +12567,7 @@
     </row>
     <row r="376" spans="1:5">
       <c r="A376" s="3">
-        <f>[1]生产方式!C376</f>
+        <f>[1]生产方式!C377</f>
         <v>0</v>
       </c>
       <c r="B376" s="2">
@@ -12166,7 +12589,7 @@
     </row>
     <row r="377" spans="1:5">
       <c r="A377" s="3">
-        <f>[1]生产方式!C377</f>
+        <f>[1]生产方式!C378</f>
         <v>0</v>
       </c>
       <c r="B377" s="2">
@@ -12188,7 +12611,7 @@
     </row>
     <row r="378" spans="1:5">
       <c r="A378" s="3">
-        <f>[1]生产方式!C378</f>
+        <f>[1]生产方式!C379</f>
         <v>0</v>
       </c>
       <c r="B378" s="2">
@@ -12210,7 +12633,7 @@
     </row>
     <row r="379" spans="1:5">
       <c r="A379" s="3">
-        <f>[1]生产方式!C379</f>
+        <f>[1]生产方式!C380</f>
         <v>0</v>
       </c>
       <c r="C379" s="2">
@@ -12228,7 +12651,7 @@
     </row>
     <row r="380" spans="1:5">
       <c r="A380" s="3">
-        <f>[1]生产方式!C380</f>
+        <f>[1]生产方式!C381</f>
         <v>0</v>
       </c>
       <c r="C380" s="2">
@@ -12246,7 +12669,7 @@
     </row>
     <row r="381" spans="1:5">
       <c r="A381" s="3">
-        <f>[1]生产方式!C381</f>
+        <f>[1]生产方式!C382</f>
         <v>0</v>
       </c>
       <c r="C381" s="2">
@@ -12264,7 +12687,7 @@
     </row>
     <row r="382" spans="1:5">
       <c r="A382" s="3">
-        <f>[1]生产方式!C382</f>
+        <f>[1]生产方式!C383</f>
         <v>0</v>
       </c>
       <c r="C382" s="2">
@@ -12282,7 +12705,7 @@
     </row>
     <row r="383" spans="1:5">
       <c r="A383" s="3">
-        <f>[1]生产方式!C383</f>
+        <f>[1]生产方式!C384</f>
         <v>0</v>
       </c>
       <c r="C383" s="2">
@@ -12300,7 +12723,7 @@
     </row>
     <row r="384" spans="1:5">
       <c r="A384" s="3">
-        <f>[1]生产方式!C384</f>
+        <f>[1]生产方式!C385</f>
         <v>0</v>
       </c>
       <c r="C384" s="2">
@@ -12318,7 +12741,7 @@
     </row>
     <row r="385" spans="1:5">
       <c r="A385" s="3">
-        <f>[1]生产方式!C385</f>
+        <f>[1]生产方式!C386</f>
         <v>0</v>
       </c>
       <c r="C385" s="2">
@@ -12336,7 +12759,7 @@
     </row>
     <row r="386" spans="1:5">
       <c r="A386" s="3">
-        <f>[1]生产方式!C386</f>
+        <f>[1]生产方式!C387</f>
         <v>0</v>
       </c>
       <c r="C386" s="2">
@@ -12354,7 +12777,7 @@
     </row>
     <row r="387" spans="1:5">
       <c r="A387" s="3">
-        <f>[1]生产方式!C387</f>
+        <f>[1]生产方式!C388</f>
         <v>0</v>
       </c>
       <c r="C387" s="2">
@@ -12362,7 +12785,7 @@
         <v>0</v>
       </c>
       <c r="D387" s="2">
-        <f t="shared" ref="D387:D450" si="12">C387-B387</f>
+        <f t="shared" ref="D387:D450" si="11">C387-B387</f>
         <v>0</v>
       </c>
       <c r="E387" s="2" t="e">
@@ -12372,7 +12795,7 @@
     </row>
     <row r="388" spans="1:5">
       <c r="A388" s="3">
-        <f>[1]生产方式!C388</f>
+        <f>[1]生产方式!C389</f>
         <v>0</v>
       </c>
       <c r="C388" s="2">
@@ -12380,7 +12803,7 @@
         <v>0</v>
       </c>
       <c r="D388" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E388" s="2" t="e">
@@ -12390,7 +12813,7 @@
     </row>
     <row r="389" spans="1:5">
       <c r="A389" s="3">
-        <f>[1]生产方式!C389</f>
+        <f>[1]生产方式!C390</f>
         <v>0</v>
       </c>
       <c r="C389" s="2">
@@ -12398,7 +12821,7 @@
         <v>0</v>
       </c>
       <c r="D389" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E389" s="2" t="e">
@@ -12408,7 +12831,7 @@
     </row>
     <row r="390" spans="1:5">
       <c r="A390" s="3">
-        <f>[1]生产方式!C390</f>
+        <f>[1]生产方式!C391</f>
         <v>0</v>
       </c>
       <c r="C390" s="2">
@@ -12416,7 +12839,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E390" s="2" t="e">
@@ -12426,7 +12849,7 @@
     </row>
     <row r="391" spans="1:5">
       <c r="A391" s="3">
-        <f>[1]生产方式!C391</f>
+        <f>[1]生产方式!C392</f>
         <v>0</v>
       </c>
       <c r="C391" s="2">
@@ -12434,7 +12857,7 @@
         <v>0</v>
       </c>
       <c r="D391" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E391" s="2" t="e">
@@ -12444,7 +12867,7 @@
     </row>
     <row r="392" spans="1:5">
       <c r="A392" s="3">
-        <f>[1]生产方式!C392</f>
+        <f>[1]生产方式!C393</f>
         <v>0</v>
       </c>
       <c r="C392" s="2">
@@ -12452,7 +12875,7 @@
         <v>0</v>
       </c>
       <c r="D392" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E392" s="2" t="e">
@@ -12462,7 +12885,7 @@
     </row>
     <row r="393" spans="1:5">
       <c r="A393" s="3">
-        <f>[1]生产方式!C393</f>
+        <f>[1]生产方式!C394</f>
         <v>0</v>
       </c>
       <c r="C393" s="2">
@@ -12470,7 +12893,7 @@
         <v>0</v>
       </c>
       <c r="D393" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E393" s="2" t="e">
@@ -12480,7 +12903,7 @@
     </row>
     <row r="394" spans="1:5">
       <c r="A394" s="3">
-        <f>[1]生产方式!C394</f>
+        <f>[1]生产方式!C395</f>
         <v>0</v>
       </c>
       <c r="C394" s="2">
@@ -12488,7 +12911,7 @@
         <v>0</v>
       </c>
       <c r="D394" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E394" s="2" t="e">
@@ -12498,7 +12921,7 @@
     </row>
     <row r="395" spans="1:5">
       <c r="A395" s="3">
-        <f>[1]生产方式!C395</f>
+        <f>[1]生产方式!C396</f>
         <v>0</v>
       </c>
       <c r="C395" s="2">
@@ -12506,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E395" s="2" t="e">
@@ -12516,7 +12939,7 @@
     </row>
     <row r="396" spans="1:5">
       <c r="A396" s="3">
-        <f>[1]生产方式!C396</f>
+        <f>[1]生产方式!C397</f>
         <v>0</v>
       </c>
       <c r="C396" s="2">
@@ -12524,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="D396" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E396" s="2" t="e">
@@ -12534,7 +12957,7 @@
     </row>
     <row r="397" spans="1:5">
       <c r="A397" s="3">
-        <f>[1]生产方式!C397</f>
+        <f>[1]生产方式!C398</f>
         <v>0</v>
       </c>
       <c r="C397" s="2">
@@ -12542,7 +12965,7 @@
         <v>0</v>
       </c>
       <c r="D397" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E397" s="2" t="e">
@@ -12552,7 +12975,7 @@
     </row>
     <row r="398" spans="1:5">
       <c r="A398" s="3">
-        <f>[1]生产方式!C398</f>
+        <f>[1]生产方式!C399</f>
         <v>0</v>
       </c>
       <c r="C398" s="2">
@@ -12560,7 +12983,7 @@
         <v>0</v>
       </c>
       <c r="D398" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E398" s="2" t="e">
@@ -12570,7 +12993,7 @@
     </row>
     <row r="399" spans="1:5">
       <c r="A399" s="3">
-        <f>[1]生产方式!C399</f>
+        <f>[1]生产方式!C400</f>
         <v>0</v>
       </c>
       <c r="C399" s="2">
@@ -12578,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E399" s="2" t="e">
@@ -12588,7 +13011,7 @@
     </row>
     <row r="400" spans="1:5">
       <c r="A400" s="3">
-        <f>[1]生产方式!C400</f>
+        <f>[1]生产方式!C401</f>
         <v>0</v>
       </c>
       <c r="C400" s="2">
@@ -12596,7 +13019,7 @@
         <v>0</v>
       </c>
       <c r="D400" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E400" s="2" t="e">
@@ -12606,7 +13029,7 @@
     </row>
     <row r="401" spans="1:5">
       <c r="A401" s="3">
-        <f>[1]生产方式!C401</f>
+        <f>[1]生产方式!C402</f>
         <v>0</v>
       </c>
       <c r="C401" s="2">
@@ -12614,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="D401" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E401" s="2" t="e">
@@ -12624,7 +13047,7 @@
     </row>
     <row r="402" spans="1:5">
       <c r="A402" s="3">
-        <f>[1]生产方式!C402</f>
+        <f>[1]生产方式!C403</f>
         <v>0</v>
       </c>
       <c r="C402" s="2">
@@ -12632,7 +13055,7 @@
         <v>0</v>
       </c>
       <c r="D402" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E402" s="2" t="e">
@@ -12642,7 +13065,7 @@
     </row>
     <row r="403" spans="1:5">
       <c r="A403" s="3">
-        <f>[1]生产方式!C403</f>
+        <f>[1]生产方式!C404</f>
         <v>0</v>
       </c>
       <c r="C403" s="2">
@@ -12650,7 +13073,7 @@
         <v>0</v>
       </c>
       <c r="D403" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E403" s="2" t="e">
@@ -12660,7 +13083,7 @@
     </row>
     <row r="404" spans="1:5">
       <c r="A404" s="3">
-        <f>[1]生产方式!C404</f>
+        <f>[1]生产方式!C405</f>
         <v>0</v>
       </c>
       <c r="C404" s="2">
@@ -12668,7 +13091,7 @@
         <v>0</v>
       </c>
       <c r="D404" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E404" s="2" t="e">
@@ -12678,7 +13101,7 @@
     </row>
     <row r="405" spans="1:5">
       <c r="A405" s="3">
-        <f>[1]生产方式!C405</f>
+        <f>[1]生产方式!C406</f>
         <v>0</v>
       </c>
       <c r="C405" s="2">
@@ -12686,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="D405" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E405" s="2" t="e">
@@ -12696,7 +13119,7 @@
     </row>
     <row r="406" spans="1:5">
       <c r="A406" s="3">
-        <f>[1]生产方式!C406</f>
+        <f>[1]生产方式!C407</f>
         <v>0</v>
       </c>
       <c r="C406" s="2">
@@ -12704,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="D406" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E406" s="2" t="e">
@@ -12714,7 +13137,7 @@
     </row>
     <row r="407" spans="1:5">
       <c r="A407" s="3">
-        <f>[1]生产方式!C407</f>
+        <f>[1]生产方式!C408</f>
         <v>0</v>
       </c>
       <c r="C407" s="2">
@@ -12722,7 +13145,7 @@
         <v>0</v>
       </c>
       <c r="D407" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E407" s="2" t="e">
@@ -12732,7 +13155,7 @@
     </row>
     <row r="408" spans="1:5">
       <c r="A408" s="3">
-        <f>[1]生产方式!C408</f>
+        <f>[1]生产方式!C409</f>
         <v>0</v>
       </c>
       <c r="C408" s="2">
@@ -12740,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="D408" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E408" s="2" t="e">
@@ -12750,7 +13173,7 @@
     </row>
     <row r="409" spans="1:5">
       <c r="A409" s="3">
-        <f>[1]生产方式!C409</f>
+        <f>[1]生产方式!C410</f>
         <v>0</v>
       </c>
       <c r="C409" s="2">
@@ -12758,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="D409" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E409" s="2" t="e">
@@ -12768,7 +13191,7 @@
     </row>
     <row r="410" spans="1:5">
       <c r="A410" s="3">
-        <f>[1]生产方式!C410</f>
+        <f>[1]生产方式!C411</f>
         <v>0</v>
       </c>
       <c r="C410" s="2">
@@ -12776,7 +13199,7 @@
         <v>0</v>
       </c>
       <c r="D410" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E410" s="2" t="e">
@@ -12786,7 +13209,7 @@
     </row>
     <row r="411" spans="1:5">
       <c r="A411" s="3">
-        <f>[1]生产方式!C411</f>
+        <f>[1]生产方式!C412</f>
         <v>0</v>
       </c>
       <c r="C411" s="2">
@@ -12794,7 +13217,7 @@
         <v>0</v>
       </c>
       <c r="D411" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E411" s="2" t="e">
@@ -12804,7 +13227,7 @@
     </row>
     <row r="412" spans="1:5">
       <c r="A412" s="3">
-        <f>[1]生产方式!C412</f>
+        <f>[1]生产方式!C413</f>
         <v>0</v>
       </c>
       <c r="C412" s="2">
@@ -12812,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="D412" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E412" s="2" t="e">
@@ -12822,7 +13245,7 @@
     </row>
     <row r="413" spans="1:5">
       <c r="A413" s="3">
-        <f>[1]生产方式!C413</f>
+        <f>[1]生产方式!C414</f>
         <v>0</v>
       </c>
       <c r="C413" s="2">
@@ -12830,7 +13253,7 @@
         <v>0</v>
       </c>
       <c r="D413" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E413" s="2" t="e">
@@ -12840,7 +13263,7 @@
     </row>
     <row r="414" spans="1:5">
       <c r="A414" s="3">
-        <f>[1]生产方式!C414</f>
+        <f>[1]生产方式!C415</f>
         <v>0</v>
       </c>
       <c r="C414" s="2">
@@ -12848,7 +13271,7 @@
         <v>0</v>
       </c>
       <c r="D414" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E414" s="2" t="e">
@@ -12858,7 +13281,7 @@
     </row>
     <row r="415" spans="1:5">
       <c r="A415" s="3">
-        <f>[1]生产方式!C415</f>
+        <f>[1]生产方式!C416</f>
         <v>0</v>
       </c>
       <c r="C415" s="2">
@@ -12866,7 +13289,7 @@
         <v>0</v>
       </c>
       <c r="D415" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E415" s="2" t="e">
@@ -12876,7 +13299,7 @@
     </row>
     <row r="416" spans="1:5">
       <c r="A416" s="3">
-        <f>[1]生产方式!C416</f>
+        <f>[1]生产方式!C417</f>
         <v>0</v>
       </c>
       <c r="C416" s="2">
@@ -12884,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="D416" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E416" s="2" t="e">
@@ -12894,7 +13317,7 @@
     </row>
     <row r="417" spans="1:5">
       <c r="A417" s="3">
-        <f>[1]生产方式!C417</f>
+        <f>[1]生产方式!C418</f>
         <v>0</v>
       </c>
       <c r="C417" s="2">
@@ -12902,7 +13325,7 @@
         <v>0</v>
       </c>
       <c r="D417" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E417" s="2" t="e">
@@ -12912,7 +13335,7 @@
     </row>
     <row r="418" spans="1:5">
       <c r="A418" s="3">
-        <f>[1]生产方式!C418</f>
+        <f>[1]生产方式!C419</f>
         <v>0</v>
       </c>
       <c r="C418" s="2">
@@ -12920,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="D418" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E418" s="2" t="e">
@@ -12930,7 +13353,7 @@
     </row>
     <row r="419" spans="1:5">
       <c r="A419" s="3">
-        <f>[1]生产方式!C419</f>
+        <f>[1]生产方式!C420</f>
         <v>0</v>
       </c>
       <c r="C419" s="2">
@@ -12938,7 +13361,7 @@
         <v>0</v>
       </c>
       <c r="D419" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E419" s="2" t="e">
@@ -12948,7 +13371,7 @@
     </row>
     <row r="420" spans="1:5">
       <c r="A420" s="3">
-        <f>[1]生产方式!C420</f>
+        <f>[1]生产方式!C421</f>
         <v>0</v>
       </c>
       <c r="C420" s="2">
@@ -12956,7 +13379,7 @@
         <v>0</v>
       </c>
       <c r="D420" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E420" s="2" t="e">
@@ -12966,7 +13389,7 @@
     </row>
     <row r="421" spans="1:5">
       <c r="A421" s="3">
-        <f>[1]生产方式!C421</f>
+        <f>[1]生产方式!C422</f>
         <v>0</v>
       </c>
       <c r="C421" s="2">
@@ -12974,7 +13397,7 @@
         <v>0</v>
       </c>
       <c r="D421" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E421" s="2" t="e">
@@ -12984,7 +13407,7 @@
     </row>
     <row r="422" spans="1:5">
       <c r="A422" s="3">
-        <f>[1]生产方式!C422</f>
+        <f>[1]生产方式!C423</f>
         <v>0</v>
       </c>
       <c r="C422" s="2">
@@ -12992,7 +13415,7 @@
         <v>0</v>
       </c>
       <c r="D422" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E422" s="2" t="e">
@@ -13002,7 +13425,7 @@
     </row>
     <row r="423" spans="1:5">
       <c r="A423" s="3">
-        <f>[1]生产方式!C423</f>
+        <f>[1]生产方式!C424</f>
         <v>0</v>
       </c>
       <c r="C423" s="2">
@@ -13010,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="D423" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E423" s="2" t="e">
@@ -13020,7 +13443,7 @@
     </row>
     <row r="424" spans="1:5">
       <c r="A424" s="3">
-        <f>[1]生产方式!C424</f>
+        <f>[1]生产方式!C425</f>
         <v>0</v>
       </c>
       <c r="C424" s="2">
@@ -13028,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="D424" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E424" s="2" t="e">
@@ -13038,7 +13461,7 @@
     </row>
     <row r="425" spans="1:5">
       <c r="A425" s="3">
-        <f>[1]生产方式!C425</f>
+        <f>[1]生产方式!C426</f>
         <v>0</v>
       </c>
       <c r="C425" s="2">
@@ -13046,7 +13469,7 @@
         <v>0</v>
       </c>
       <c r="D425" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E425" s="2" t="e">
@@ -13056,7 +13479,7 @@
     </row>
     <row r="426" spans="1:5">
       <c r="A426" s="3">
-        <f>[1]生产方式!C426</f>
+        <f>[1]生产方式!C427</f>
         <v>0</v>
       </c>
       <c r="C426" s="2">
@@ -13064,7 +13487,7 @@
         <v>0</v>
       </c>
       <c r="D426" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E426" s="2" t="e">
@@ -13074,7 +13497,7 @@
     </row>
     <row r="427" spans="1:5">
       <c r="A427" s="3">
-        <f>[1]生产方式!C427</f>
+        <f>[1]生产方式!C428</f>
         <v>0</v>
       </c>
       <c r="C427" s="2">
@@ -13082,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="D427" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E427" s="2" t="e">
@@ -13092,7 +13515,7 @@
     </row>
     <row r="428" spans="1:5">
       <c r="A428" s="3">
-        <f>[1]生产方式!C428</f>
+        <f>[1]生产方式!C429</f>
         <v>0</v>
       </c>
       <c r="C428" s="2">
@@ -13100,7 +13523,7 @@
         <v>0</v>
       </c>
       <c r="D428" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E428" s="2" t="e">
@@ -13110,7 +13533,7 @@
     </row>
     <row r="429" spans="1:5">
       <c r="A429" s="3">
-        <f>[1]生产方式!C429</f>
+        <f>[1]生产方式!C430</f>
         <v>0</v>
       </c>
       <c r="C429" s="2">
@@ -13118,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="D429" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E429" s="2" t="e">
@@ -13128,7 +13551,7 @@
     </row>
     <row r="430" spans="1:5">
       <c r="A430" s="3">
-        <f>[1]生产方式!C430</f>
+        <f>[1]生产方式!C431</f>
         <v>0</v>
       </c>
       <c r="C430" s="2">
@@ -13136,7 +13559,7 @@
         <v>0</v>
       </c>
       <c r="D430" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E430" s="2" t="e">
@@ -13146,7 +13569,7 @@
     </row>
     <row r="431" spans="1:5">
       <c r="A431" s="3">
-        <f>[1]生产方式!C431</f>
+        <f>[1]生产方式!C432</f>
         <v>0</v>
       </c>
       <c r="C431" s="2">
@@ -13154,7 +13577,7 @@
         <v>0</v>
       </c>
       <c r="D431" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E431" s="2" t="e">
@@ -13164,7 +13587,7 @@
     </row>
     <row r="432" spans="1:5">
       <c r="A432" s="3">
-        <f>[1]生产方式!C432</f>
+        <f>[1]生产方式!C433</f>
         <v>0</v>
       </c>
       <c r="C432" s="2">
@@ -13172,7 +13595,7 @@
         <v>0</v>
       </c>
       <c r="D432" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E432" s="2" t="e">
@@ -13182,7 +13605,7 @@
     </row>
     <row r="433" spans="1:5">
       <c r="A433" s="3">
-        <f>[1]生产方式!C433</f>
+        <f>[1]生产方式!C434</f>
         <v>0</v>
       </c>
       <c r="C433" s="2">
@@ -13190,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="D433" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E433" s="2" t="e">
@@ -13200,7 +13623,7 @@
     </row>
     <row r="434" spans="1:5">
       <c r="A434" s="3">
-        <f>[1]生产方式!C434</f>
+        <f>[1]生产方式!C435</f>
         <v>0</v>
       </c>
       <c r="C434" s="2">
@@ -13208,7 +13631,7 @@
         <v>0</v>
       </c>
       <c r="D434" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E434" s="2" t="e">
@@ -13218,7 +13641,7 @@
     </row>
     <row r="435" spans="1:5">
       <c r="A435" s="3">
-        <f>[1]生产方式!C435</f>
+        <f>[1]生产方式!C436</f>
         <v>0</v>
       </c>
       <c r="C435" s="2">
@@ -13226,7 +13649,7 @@
         <v>0</v>
       </c>
       <c r="D435" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E435" s="2" t="e">
@@ -13236,7 +13659,7 @@
     </row>
     <row r="436" spans="1:5">
       <c r="A436" s="3">
-        <f>[1]生产方式!C436</f>
+        <f>[1]生产方式!C437</f>
         <v>0</v>
       </c>
       <c r="C436" s="2">
@@ -13244,7 +13667,7 @@
         <v>0</v>
       </c>
       <c r="D436" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E436" s="2" t="e">
@@ -13254,7 +13677,7 @@
     </row>
     <row r="437" spans="1:5">
       <c r="A437" s="3">
-        <f>[1]生产方式!C437</f>
+        <f>[1]生产方式!C438</f>
         <v>0</v>
       </c>
       <c r="C437" s="2">
@@ -13262,7 +13685,7 @@
         <v>0</v>
       </c>
       <c r="D437" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E437" s="2" t="e">
@@ -13272,7 +13695,7 @@
     </row>
     <row r="438" spans="1:5">
       <c r="A438" s="3">
-        <f>[1]生产方式!C438</f>
+        <f>[1]生产方式!C439</f>
         <v>0</v>
       </c>
       <c r="C438" s="2">
@@ -13280,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="D438" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E438" s="2" t="e">
@@ -13290,7 +13713,7 @@
     </row>
     <row r="439" spans="1:5">
       <c r="A439" s="3">
-        <f>[1]生产方式!C439</f>
+        <f>[1]生产方式!C440</f>
         <v>0</v>
       </c>
       <c r="C439" s="2">
@@ -13298,7 +13721,7 @@
         <v>0</v>
       </c>
       <c r="D439" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E439" s="2" t="e">
@@ -13308,7 +13731,7 @@
     </row>
     <row r="440" spans="1:5">
       <c r="A440" s="3">
-        <f>[1]生产方式!C440</f>
+        <f>[1]生产方式!C441</f>
         <v>0</v>
       </c>
       <c r="C440" s="2">
@@ -13316,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="D440" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E440" s="2" t="e">
@@ -13326,7 +13749,7 @@
     </row>
     <row r="441" spans="1:5">
       <c r="A441" s="3">
-        <f>[1]生产方式!C441</f>
+        <f>[1]生产方式!C442</f>
         <v>0</v>
       </c>
       <c r="C441" s="2">
@@ -13334,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="D441" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E441" s="2" t="e">
@@ -13344,7 +13767,7 @@
     </row>
     <row r="442" spans="1:5">
       <c r="A442" s="3">
-        <f>[1]生产方式!C442</f>
+        <f>[1]生产方式!C443</f>
         <v>0</v>
       </c>
       <c r="C442" s="2">
@@ -13352,7 +13775,7 @@
         <v>0</v>
       </c>
       <c r="D442" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E442" s="2" t="e">
@@ -13362,7 +13785,7 @@
     </row>
     <row r="443" spans="1:5">
       <c r="A443" s="3">
-        <f>[1]生产方式!C443</f>
+        <f>[1]生产方式!C444</f>
         <v>0</v>
       </c>
       <c r="C443" s="2">
@@ -13370,7 +13793,7 @@
         <v>0</v>
       </c>
       <c r="D443" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E443" s="2" t="e">
@@ -13380,7 +13803,7 @@
     </row>
     <row r="444" spans="1:5">
       <c r="A444" s="3">
-        <f>[1]生产方式!C444</f>
+        <f>[1]生产方式!C445</f>
         <v>0</v>
       </c>
       <c r="C444" s="2">
@@ -13388,7 +13811,7 @@
         <v>0</v>
       </c>
       <c r="D444" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E444" s="2" t="e">
@@ -13398,7 +13821,7 @@
     </row>
     <row r="445" spans="1:5">
       <c r="A445" s="3">
-        <f>[1]生产方式!C445</f>
+        <f>[1]生产方式!C446</f>
         <v>0</v>
       </c>
       <c r="C445" s="2">
@@ -13406,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="D445" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E445" s="2" t="e">
@@ -13416,7 +13839,7 @@
     </row>
     <row r="446" spans="1:5">
       <c r="A446" s="3">
-        <f>[1]生产方式!C446</f>
+        <f>[1]生产方式!C447</f>
         <v>0</v>
       </c>
       <c r="C446" s="2">
@@ -13424,7 +13847,7 @@
         <v>0</v>
       </c>
       <c r="D446" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E446" s="2" t="e">
@@ -13434,7 +13857,7 @@
     </row>
     <row r="447" spans="1:5">
       <c r="A447" s="3">
-        <f>[1]生产方式!C447</f>
+        <f>[1]生产方式!C448</f>
         <v>0</v>
       </c>
       <c r="C447" s="2">
@@ -13442,7 +13865,7 @@
         <v>0</v>
       </c>
       <c r="D447" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E447" s="2" t="e">
@@ -13452,7 +13875,7 @@
     </row>
     <row r="448" spans="1:5">
       <c r="A448" s="3">
-        <f>[1]生产方式!C448</f>
+        <f>[1]生产方式!C449</f>
         <v>0</v>
       </c>
       <c r="C448" s="2">
@@ -13460,7 +13883,7 @@
         <v>0</v>
       </c>
       <c r="D448" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E448" s="2" t="e">
@@ -13470,7 +13893,7 @@
     </row>
     <row r="449" spans="1:5">
       <c r="A449" s="3">
-        <f>[1]生产方式!C449</f>
+        <f>[1]生产方式!C450</f>
         <v>0</v>
       </c>
       <c r="C449" s="2">
@@ -13478,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="D449" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E449" s="2" t="e">
@@ -13488,7 +13911,7 @@
     </row>
     <row r="450" spans="1:5">
       <c r="A450" s="3">
-        <f>[1]生产方式!C450</f>
+        <f>[1]生产方式!C451</f>
         <v>0</v>
       </c>
       <c r="C450" s="2">
@@ -13496,7 +13919,7 @@
         <v>0</v>
       </c>
       <c r="D450" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="E450" s="2" t="e">
@@ -13506,7 +13929,7 @@
     </row>
     <row r="451" spans="1:5">
       <c r="A451" s="3">
-        <f>[1]生产方式!C451</f>
+        <f>[1]生产方式!C452</f>
         <v>0</v>
       </c>
       <c r="C451" s="2">
@@ -13514,7 +13937,7 @@
         <v>0</v>
       </c>
       <c r="D451" s="2">
-        <f t="shared" ref="D451:D502" si="13">C451-B451</f>
+        <f t="shared" ref="D451:D502" si="12">C451-B451</f>
         <v>0</v>
       </c>
       <c r="E451" s="2" t="e">
@@ -13524,7 +13947,7 @@
     </row>
     <row r="452" spans="1:5">
       <c r="A452" s="3">
-        <f>[1]生产方式!C452</f>
+        <f>[1]生产方式!C453</f>
         <v>0</v>
       </c>
       <c r="C452" s="2">
@@ -13532,7 +13955,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E452" s="2" t="e">
@@ -13542,7 +13965,7 @@
     </row>
     <row r="453" spans="1:5">
       <c r="A453" s="3">
-        <f>[1]生产方式!C453</f>
+        <f>[1]生产方式!C454</f>
         <v>0</v>
       </c>
       <c r="C453" s="2">
@@ -13550,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="D453" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E453" s="2" t="e">
@@ -13560,7 +13983,7 @@
     </row>
     <row r="454" spans="1:5">
       <c r="A454" s="3">
-        <f>[1]生产方式!C454</f>
+        <f>[1]生产方式!C455</f>
         <v>0</v>
       </c>
       <c r="C454" s="2">
@@ -13568,7 +13991,7 @@
         <v>0</v>
       </c>
       <c r="D454" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E454" s="2" t="e">
@@ -13578,7 +14001,7 @@
     </row>
     <row r="455" spans="1:5">
       <c r="A455" s="3">
-        <f>[1]生产方式!C455</f>
+        <f>[1]生产方式!C456</f>
         <v>0</v>
       </c>
       <c r="C455" s="2">
@@ -13586,7 +14009,7 @@
         <v>0</v>
       </c>
       <c r="D455" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E455" s="2" t="e">
@@ -13596,7 +14019,7 @@
     </row>
     <row r="456" spans="1:5">
       <c r="A456" s="3">
-        <f>[1]生产方式!C456</f>
+        <f>[1]生产方式!C457</f>
         <v>0</v>
       </c>
       <c r="C456" s="2">
@@ -13604,7 +14027,7 @@
         <v>0</v>
       </c>
       <c r="D456" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E456" s="2" t="e">
@@ -13614,7 +14037,7 @@
     </row>
     <row r="457" spans="1:5">
       <c r="A457" s="3">
-        <f>[1]生产方式!C457</f>
+        <f>[1]生产方式!C458</f>
         <v>0</v>
       </c>
       <c r="C457" s="2">
@@ -13622,7 +14045,7 @@
         <v>0</v>
       </c>
       <c r="D457" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E457" s="2" t="e">
@@ -13632,7 +14055,7 @@
     </row>
     <row r="458" spans="1:5">
       <c r="A458" s="3">
-        <f>[1]生产方式!C458</f>
+        <f>[1]生产方式!C459</f>
         <v>0</v>
       </c>
       <c r="C458" s="2">
@@ -13640,7 +14063,7 @@
         <v>0</v>
       </c>
       <c r="D458" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E458" s="2" t="e">
@@ -13650,7 +14073,7 @@
     </row>
     <row r="459" spans="1:5">
       <c r="A459" s="3">
-        <f>[1]生产方式!C459</f>
+        <f>[1]生产方式!C460</f>
         <v>0</v>
       </c>
       <c r="C459" s="2">
@@ -13658,7 +14081,7 @@
         <v>0</v>
       </c>
       <c r="D459" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E459" s="2" t="e">
@@ -13668,7 +14091,7 @@
     </row>
     <row r="460" spans="1:5">
       <c r="A460" s="3">
-        <f>[1]生产方式!C460</f>
+        <f>[1]生产方式!C461</f>
         <v>0</v>
       </c>
       <c r="C460" s="2">
@@ -13676,7 +14099,7 @@
         <v>0</v>
       </c>
       <c r="D460" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E460" s="2" t="e">
@@ -13686,7 +14109,7 @@
     </row>
     <row r="461" spans="1:5">
       <c r="A461" s="3">
-        <f>[1]生产方式!C461</f>
+        <f>[1]生产方式!C462</f>
         <v>0</v>
       </c>
       <c r="C461" s="2">
@@ -13694,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="D461" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E461" s="2" t="e">
@@ -13704,7 +14127,7 @@
     </row>
     <row r="462" spans="1:5">
       <c r="A462" s="3">
-        <f>[1]生产方式!C462</f>
+        <f>[1]生产方式!C463</f>
         <v>0</v>
       </c>
       <c r="C462" s="2">
@@ -13712,7 +14135,7 @@
         <v>0</v>
       </c>
       <c r="D462" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E462" s="2" t="e">
@@ -13722,7 +14145,7 @@
     </row>
     <row r="463" spans="1:5">
       <c r="A463" s="3">
-        <f>[1]生产方式!C463</f>
+        <f>[1]生产方式!C464</f>
         <v>0</v>
       </c>
       <c r="C463" s="2">
@@ -13730,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E463" s="2" t="e">
@@ -13740,7 +14163,7 @@
     </row>
     <row r="464" spans="1:5">
       <c r="A464" s="3">
-        <f>[1]生产方式!C464</f>
+        <f>[1]生产方式!C465</f>
         <v>0</v>
       </c>
       <c r="C464" s="2">
@@ -13748,7 +14171,7 @@
         <v>0</v>
       </c>
       <c r="D464" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E464" s="2" t="e">
@@ -13758,7 +14181,7 @@
     </row>
     <row r="465" spans="1:5">
       <c r="A465" s="3">
-        <f>[1]生产方式!C465</f>
+        <f>[1]生产方式!C466</f>
         <v>0</v>
       </c>
       <c r="C465" s="2">
@@ -13766,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="D465" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E465" s="2" t="e">
@@ -13776,7 +14199,7 @@
     </row>
     <row r="466" spans="1:5">
       <c r="A466" s="3">
-        <f>[1]生产方式!C466</f>
+        <f>[1]生产方式!C467</f>
         <v>0</v>
       </c>
       <c r="C466" s="2">
@@ -13784,7 +14207,7 @@
         <v>0</v>
       </c>
       <c r="D466" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E466" s="2" t="e">
@@ -13794,7 +14217,7 @@
     </row>
     <row r="467" spans="1:5">
       <c r="A467" s="3">
-        <f>[1]生产方式!C467</f>
+        <f>[1]生产方式!C468</f>
         <v>0</v>
       </c>
       <c r="C467" s="2">
@@ -13802,7 +14225,7 @@
         <v>0</v>
       </c>
       <c r="D467" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E467" s="2" t="e">
@@ -13812,7 +14235,7 @@
     </row>
     <row r="468" spans="1:5">
       <c r="A468" s="3">
-        <f>[1]生产方式!C468</f>
+        <f>[1]生产方式!C469</f>
         <v>0</v>
       </c>
       <c r="C468" s="2">
@@ -13820,7 +14243,7 @@
         <v>0</v>
       </c>
       <c r="D468" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E468" s="2" t="e">
@@ -13830,7 +14253,7 @@
     </row>
     <row r="469" spans="1:5">
       <c r="A469" s="3">
-        <f>[1]生产方式!C469</f>
+        <f>[1]生产方式!C470</f>
         <v>0</v>
       </c>
       <c r="C469" s="2">
@@ -13838,7 +14261,7 @@
         <v>0</v>
       </c>
       <c r="D469" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E469" s="2" t="e">
@@ -13848,7 +14271,7 @@
     </row>
     <row r="470" spans="1:5">
       <c r="A470" s="3">
-        <f>[1]生产方式!C470</f>
+        <f>[1]生产方式!C471</f>
         <v>0</v>
       </c>
       <c r="C470" s="2">
@@ -13856,7 +14279,7 @@
         <v>0</v>
       </c>
       <c r="D470" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E470" s="2" t="e">
@@ -13866,7 +14289,7 @@
     </row>
     <row r="471" spans="1:5">
       <c r="A471" s="3">
-        <f>[1]生产方式!C471</f>
+        <f>[1]生产方式!C472</f>
         <v>0</v>
       </c>
       <c r="C471" s="2">
@@ -13874,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="D471" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E471" s="2" t="e">
@@ -13884,7 +14307,7 @@
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="3">
-        <f>[1]生产方式!C472</f>
+        <f>[1]生产方式!C473</f>
         <v>0</v>
       </c>
       <c r="C472" s="2">
@@ -13892,13 +14315,13 @@
         <v>0</v>
       </c>
       <c r="D472" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="3">
-        <f>[1]生产方式!C473</f>
+        <f>[1]生产方式!C474</f>
         <v>0</v>
       </c>
       <c r="C473" s="2">
@@ -13906,13 +14329,13 @@
         <v>0</v>
       </c>
       <c r="D473" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="3">
-        <f>[1]生产方式!C474</f>
+        <f>[1]生产方式!C475</f>
         <v>0</v>
       </c>
       <c r="C474" s="2">
@@ -13920,13 +14343,13 @@
         <v>0</v>
       </c>
       <c r="D474" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="3">
-        <f>[1]生产方式!C475</f>
+        <f>[1]生产方式!C476</f>
         <v>0</v>
       </c>
       <c r="C475" s="2">
@@ -13934,13 +14357,13 @@
         <v>0</v>
       </c>
       <c r="D475" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="3">
-        <f>[1]生产方式!C476</f>
+        <f>[1]生产方式!C477</f>
         <v>0</v>
       </c>
       <c r="C476" s="2">
@@ -13948,13 +14371,13 @@
         <v>0</v>
       </c>
       <c r="D476" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="3">
-        <f>[1]生产方式!C477</f>
+        <f>[1]生产方式!C478</f>
         <v>0</v>
       </c>
       <c r="C477" s="2">
@@ -13962,13 +14385,13 @@
         <v>0</v>
       </c>
       <c r="D477" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="3">
-        <f>[1]生产方式!C478</f>
+        <f>[1]生产方式!C479</f>
         <v>0</v>
       </c>
       <c r="C478" s="2">
@@ -13976,13 +14399,13 @@
         <v>0</v>
       </c>
       <c r="D478" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="3">
-        <f>[1]生产方式!C479</f>
+        <f>[1]生产方式!C480</f>
         <v>0</v>
       </c>
       <c r="C479" s="2">
@@ -13990,13 +14413,13 @@
         <v>0</v>
       </c>
       <c r="D479" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="3">
-        <f>[1]生产方式!C480</f>
+        <f>[1]生产方式!C481</f>
         <v>0</v>
       </c>
       <c r="C480" s="2">
@@ -14004,13 +14427,13 @@
         <v>0</v>
       </c>
       <c r="D480" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="3">
-        <f>[1]生产方式!C481</f>
+        <f>[1]生产方式!C482</f>
         <v>0</v>
       </c>
       <c r="C481" s="2">
@@ -14018,13 +14441,13 @@
         <v>0</v>
       </c>
       <c r="D481" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="3">
-        <f>[1]生产方式!C482</f>
+        <f>[1]生产方式!C483</f>
         <v>0</v>
       </c>
       <c r="C482" s="2">
@@ -14032,13 +14455,13 @@
         <v>0</v>
       </c>
       <c r="D482" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="3">
-        <f>[1]生产方式!C483</f>
+        <f>[1]生产方式!C484</f>
         <v>0</v>
       </c>
       <c r="C483" s="2">
@@ -14046,13 +14469,13 @@
         <v>0</v>
       </c>
       <c r="D483" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="3">
-        <f>[1]生产方式!C484</f>
+        <f>[1]生产方式!C485</f>
         <v>0</v>
       </c>
       <c r="C484" s="2">
@@ -14060,13 +14483,13 @@
         <v>0</v>
       </c>
       <c r="D484" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="3">
-        <f>[1]生产方式!C485</f>
+        <f>[1]生产方式!C486</f>
         <v>0</v>
       </c>
       <c r="C485" s="2">
@@ -14074,13 +14497,13 @@
         <v>0</v>
       </c>
       <c r="D485" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="3">
-        <f>[1]生产方式!C486</f>
+        <f>[1]生产方式!C487</f>
         <v>0</v>
       </c>
       <c r="C486" s="2">
@@ -14088,13 +14511,13 @@
         <v>0</v>
       </c>
       <c r="D486" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="3">
-        <f>[1]生产方式!C487</f>
+        <f>[1]生产方式!C488</f>
         <v>0</v>
       </c>
       <c r="C487" s="2">
@@ -14102,13 +14525,13 @@
         <v>0</v>
       </c>
       <c r="D487" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="3">
-        <f>[1]生产方式!C488</f>
+        <f>[1]生产方式!C489</f>
         <v>0</v>
       </c>
       <c r="C488" s="2">
@@ -14116,13 +14539,13 @@
         <v>0</v>
       </c>
       <c r="D488" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="3">
-        <f>[1]生产方式!C489</f>
+        <f>[1]生产方式!C490</f>
         <v>0</v>
       </c>
       <c r="C489" s="2">
@@ -14130,13 +14553,13 @@
         <v>0</v>
       </c>
       <c r="D489" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="3">
-        <f>[1]生产方式!C490</f>
+        <f>[1]生产方式!C491</f>
         <v>0</v>
       </c>
       <c r="C490" s="2">
@@ -14144,13 +14567,13 @@
         <v>0</v>
       </c>
       <c r="D490" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="3">
-        <f>[1]生产方式!C491</f>
+        <f>[1]生产方式!C492</f>
         <v>0</v>
       </c>
       <c r="C491" s="2">
@@ -14158,13 +14581,13 @@
         <v>0</v>
       </c>
       <c r="D491" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="3">
-        <f>[1]生产方式!C492</f>
+        <f>[1]生产方式!C493</f>
         <v>0</v>
       </c>
       <c r="C492" s="2">
@@ -14172,13 +14595,13 @@
         <v>0</v>
       </c>
       <c r="D492" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="3">
-        <f>[1]生产方式!C493</f>
+        <f>[1]生产方式!C494</f>
         <v>0</v>
       </c>
       <c r="C493" s="2">
@@ -14186,13 +14609,13 @@
         <v>0</v>
       </c>
       <c r="D493" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="3">
-        <f>[1]生产方式!C494</f>
+        <f>[1]生产方式!C495</f>
         <v>0</v>
       </c>
       <c r="C494" s="2">
@@ -14200,13 +14623,13 @@
         <v>0</v>
       </c>
       <c r="D494" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="3">
-        <f>[1]生产方式!C495</f>
+        <f>[1]生产方式!C496</f>
         <v>0</v>
       </c>
       <c r="C495" s="2">
@@ -14214,13 +14637,13 @@
         <v>0</v>
       </c>
       <c r="D495" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="3">
-        <f>[1]生产方式!C496</f>
+        <f>[1]生产方式!C497</f>
         <v>0</v>
       </c>
       <c r="C496" s="2">
@@ -14228,13 +14651,13 @@
         <v>0</v>
       </c>
       <c r="D496" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="3">
-        <f>[1]生产方式!C497</f>
+        <f>[1]生产方式!C498</f>
         <v>0</v>
       </c>
       <c r="C497" s="2">
@@ -14242,13 +14665,13 @@
         <v>0</v>
       </c>
       <c r="D497" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="3">
-        <f>[1]生产方式!C498</f>
+        <f>[1]生产方式!C499</f>
         <v>0</v>
       </c>
       <c r="C498" s="2">
@@ -14256,13 +14679,13 @@
         <v>0</v>
       </c>
       <c r="D498" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="3">
-        <f>[1]生产方式!C499</f>
+        <f>[1]生产方式!C500</f>
         <v>0</v>
       </c>
       <c r="C499" s="2">
@@ -14270,13 +14693,13 @@
         <v>0</v>
       </c>
       <c r="D499" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500" s="3">
-        <f>[1]生产方式!C500</f>
+        <f>[1]生产方式!C501</f>
         <v>0</v>
       </c>
       <c r="C500" s="2">
@@ -14284,13 +14707,13 @@
         <v>0</v>
       </c>
       <c r="D500" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501" s="3">
-        <f>[1]生产方式!C501</f>
+        <f>[1]生产方式!C502</f>
         <v>0</v>
       </c>
       <c r="C501" s="2">
@@ -14298,13 +14721,13 @@
         <v>0</v>
       </c>
       <c r="D501" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:4">
       <c r="A502" s="3">
-        <f>[1]生产方式!C502</f>
+        <f>[1]生产方式!C503</f>
         <v>0</v>
       </c>
       <c r="C502" s="2">
@@ -14312,2989 +14735,2989 @@
         <v>0</v>
       </c>
       <c r="D502" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="3">
-        <f>[1]生产方式!C503</f>
+        <f>[1]生产方式!C504</f>
         <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="3">
-        <f>[1]生产方式!C504</f>
+        <f>[1]生产方式!C505</f>
         <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="3">
-        <f>[1]生产方式!C505</f>
+        <f>[1]生产方式!C506</f>
         <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="3">
-        <f>[1]生产方式!C506</f>
+        <f>[1]生产方式!C507</f>
         <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="3">
-        <f>[1]生产方式!C507</f>
+        <f>[1]生产方式!C508</f>
         <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="3">
-        <f>[1]生产方式!C508</f>
+        <f>[1]生产方式!C509</f>
         <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="3">
-        <f>[1]生产方式!C509</f>
+        <f>[1]生产方式!C510</f>
         <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="3">
-        <f>[1]生产方式!C510</f>
+        <f>[1]生产方式!C511</f>
         <v>0</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="3">
-        <f>[1]生产方式!C511</f>
+        <f>[1]生产方式!C512</f>
         <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="3">
-        <f>[1]生产方式!C512</f>
+        <f>[1]生产方式!C513</f>
         <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="3">
-        <f>[1]生产方式!C513</f>
+        <f>[1]生产方式!C514</f>
         <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="3">
-        <f>[1]生产方式!C514</f>
+        <f>[1]生产方式!C515</f>
         <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="3">
-        <f>[1]生产方式!C515</f>
+        <f>[1]生产方式!C516</f>
         <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="3">
-        <f>[1]生产方式!C516</f>
+        <f>[1]生产方式!C517</f>
         <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="3">
-        <f>[1]生产方式!C517</f>
+        <f>[1]生产方式!C518</f>
         <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="3">
-        <f>[1]生产方式!C518</f>
+        <f>[1]生产方式!C519</f>
         <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="3">
-        <f>[1]生产方式!C519</f>
+        <f>[1]生产方式!C520</f>
         <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="3">
-        <f>[1]生产方式!C520</f>
+        <f>[1]生产方式!C521</f>
         <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="3">
-        <f>[1]生产方式!C521</f>
+        <f>[1]生产方式!C522</f>
         <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="3">
-        <f>[1]生产方式!C522</f>
+        <f>[1]生产方式!C523</f>
         <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="3">
-        <f>[1]生产方式!C523</f>
+        <f>[1]生产方式!C524</f>
         <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="3">
-        <f>[1]生产方式!C524</f>
+        <f>[1]生产方式!C525</f>
         <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="3">
-        <f>[1]生产方式!C525</f>
+        <f>[1]生产方式!C526</f>
         <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="3">
-        <f>[1]生产方式!C526</f>
+        <f>[1]生产方式!C527</f>
         <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="3">
-        <f>[1]生产方式!C527</f>
+        <f>[1]生产方式!C528</f>
         <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="3">
-        <f>[1]生产方式!C528</f>
+        <f>[1]生产方式!C529</f>
         <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="3">
-        <f>[1]生产方式!C529</f>
+        <f>[1]生产方式!C530</f>
         <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="3">
-        <f>[1]生产方式!C530</f>
+        <f>[1]生产方式!C531</f>
         <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="3">
-        <f>[1]生产方式!C531</f>
+        <f>[1]生产方式!C532</f>
         <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="3">
-        <f>[1]生产方式!C532</f>
+        <f>[1]生产方式!C533</f>
         <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="3">
-        <f>[1]生产方式!C533</f>
+        <f>[1]生产方式!C534</f>
         <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="3">
-        <f>[1]生产方式!C534</f>
+        <f>[1]生产方式!C535</f>
         <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="3">
-        <f>[1]生产方式!C535</f>
+        <f>[1]生产方式!C536</f>
         <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="3">
-        <f>[1]生产方式!C536</f>
+        <f>[1]生产方式!C537</f>
         <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="3">
-        <f>[1]生产方式!C537</f>
+        <f>[1]生产方式!C538</f>
         <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="3">
-        <f>[1]生产方式!C538</f>
+        <f>[1]生产方式!C539</f>
         <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="3">
-        <f>[1]生产方式!C539</f>
+        <f>[1]生产方式!C540</f>
         <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="3">
-        <f>[1]生产方式!C540</f>
+        <f>[1]生产方式!C541</f>
         <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="3">
-        <f>[1]生产方式!C541</f>
+        <f>[1]生产方式!C542</f>
         <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="3">
-        <f>[1]生产方式!C542</f>
+        <f>[1]生产方式!C543</f>
         <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="3">
-        <f>[1]生产方式!C543</f>
+        <f>[1]生产方式!C544</f>
         <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="3">
-        <f>[1]生产方式!C544</f>
+        <f>[1]生产方式!C545</f>
         <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="3">
-        <f>[1]生产方式!C545</f>
+        <f>[1]生产方式!C546</f>
         <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="3">
-        <f>[1]生产方式!C546</f>
+        <f>[1]生产方式!C547</f>
         <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="3">
-        <f>[1]生产方式!C547</f>
+        <f>[1]生产方式!C548</f>
         <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="3">
-        <f>[1]生产方式!C548</f>
+        <f>[1]生产方式!C549</f>
         <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="3">
-        <f>[1]生产方式!C549</f>
+        <f>[1]生产方式!C550</f>
         <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="3">
-        <f>[1]生产方式!C550</f>
+        <f>[1]生产方式!C551</f>
         <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="3">
-        <f>[1]生产方式!C551</f>
+        <f>[1]生产方式!C552</f>
         <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="3">
-        <f>[1]生产方式!C552</f>
+        <f>[1]生产方式!C553</f>
         <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="3">
-        <f>[1]生产方式!C553</f>
+        <f>[1]生产方式!C554</f>
         <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="3">
-        <f>[1]生产方式!C554</f>
+        <f>[1]生产方式!C555</f>
         <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="3">
-        <f>[1]生产方式!C555</f>
+        <f>[1]生产方式!C556</f>
         <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="3">
-        <f>[1]生产方式!C556</f>
+        <f>[1]生产方式!C557</f>
         <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="3">
-        <f>[1]生产方式!C557</f>
+        <f>[1]生产方式!C558</f>
         <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="3">
-        <f>[1]生产方式!C558</f>
+        <f>[1]生产方式!C559</f>
         <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="3">
-        <f>[1]生产方式!C559</f>
+        <f>[1]生产方式!C560</f>
         <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="3">
-        <f>[1]生产方式!C560</f>
+        <f>[1]生产方式!C561</f>
         <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="3">
-        <f>[1]生产方式!C561</f>
+        <f>[1]生产方式!C562</f>
         <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="3">
-        <f>[1]生产方式!C562</f>
+        <f>[1]生产方式!C563</f>
         <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="3">
-        <f>[1]生产方式!C563</f>
+        <f>[1]生产方式!C564</f>
         <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="3">
-        <f>[1]生产方式!C564</f>
+        <f>[1]生产方式!C565</f>
         <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="3">
-        <f>[1]生产方式!C565</f>
+        <f>[1]生产方式!C566</f>
         <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="3">
-        <f>[1]生产方式!C566</f>
+        <f>[1]生产方式!C567</f>
         <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="3">
-        <f>[1]生产方式!C567</f>
+        <f>[1]生产方式!C568</f>
         <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="3">
-        <f>[1]生产方式!C568</f>
+        <f>[1]生产方式!C569</f>
         <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="3">
-        <f>[1]生产方式!C569</f>
+        <f>[1]生产方式!C570</f>
         <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:1">
       <c r="A570" s="3">
-        <f>[1]生产方式!C570</f>
+        <f>[1]生产方式!C571</f>
         <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:1">
       <c r="A571" s="3">
-        <f>[1]生产方式!C571</f>
+        <f>[1]生产方式!C572</f>
         <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:1">
       <c r="A572" s="3">
-        <f>[1]生产方式!C572</f>
+        <f>[1]生产方式!C573</f>
         <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:1">
       <c r="A573" s="3">
-        <f>[1]生产方式!C573</f>
+        <f>[1]生产方式!C574</f>
         <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:1">
       <c r="A574" s="3">
-        <f>[1]生产方式!C574</f>
+        <f>[1]生产方式!C575</f>
         <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:1">
       <c r="A575" s="3">
-        <f>[1]生产方式!C575</f>
+        <f>[1]生产方式!C576</f>
         <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:1">
       <c r="A576" s="3">
-        <f>[1]生产方式!C576</f>
+        <f>[1]生产方式!C577</f>
         <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:1">
       <c r="A577" s="3">
-        <f>[1]生产方式!C577</f>
+        <f>[1]生产方式!C578</f>
         <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:1">
       <c r="A578" s="3">
-        <f>[1]生产方式!C578</f>
+        <f>[1]生产方式!C579</f>
         <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:1">
       <c r="A579" s="3">
-        <f>[1]生产方式!C579</f>
+        <f>[1]生产方式!C580</f>
         <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:1">
       <c r="A580" s="3">
-        <f>[1]生产方式!C580</f>
+        <f>[1]生产方式!C581</f>
         <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:1">
       <c r="A581" s="3">
-        <f>[1]生产方式!C581</f>
+        <f>[1]生产方式!C582</f>
         <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:1">
       <c r="A582" s="3">
-        <f>[1]生产方式!C582</f>
+        <f>[1]生产方式!C583</f>
         <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:1">
       <c r="A583" s="3">
-        <f>[1]生产方式!C583</f>
+        <f>[1]生产方式!C584</f>
         <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:1">
       <c r="A584" s="3">
-        <f>[1]生产方式!C584</f>
+        <f>[1]生产方式!C585</f>
         <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:1">
       <c r="A585" s="3">
-        <f>[1]生产方式!C585</f>
+        <f>[1]生产方式!C586</f>
         <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:1">
       <c r="A586" s="3">
-        <f>[1]生产方式!C586</f>
+        <f>[1]生产方式!C587</f>
         <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:1">
       <c r="A587" s="3">
-        <f>[1]生产方式!C587</f>
+        <f>[1]生产方式!C588</f>
         <v>0</v>
       </c>
     </row>
     <row r="588" spans="1:1">
       <c r="A588" s="3">
-        <f>[1]生产方式!C588</f>
+        <f>[1]生产方式!C589</f>
         <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:1">
       <c r="A589" s="3">
-        <f>[1]生产方式!C589</f>
+        <f>[1]生产方式!C590</f>
         <v>0</v>
       </c>
     </row>
     <row r="590" spans="1:1">
       <c r="A590" s="3">
-        <f>[1]生产方式!C590</f>
+        <f>[1]生产方式!C591</f>
         <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:1">
       <c r="A591" s="3">
-        <f>[1]生产方式!C591</f>
+        <f>[1]生产方式!C592</f>
         <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:1">
       <c r="A592" s="3">
-        <f>[1]生产方式!C592</f>
+        <f>[1]生产方式!C593</f>
         <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:1">
       <c r="A593" s="3">
-        <f>[1]生产方式!C593</f>
+        <f>[1]生产方式!C594</f>
         <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:1">
       <c r="A594" s="3">
-        <f>[1]生产方式!C594</f>
+        <f>[1]生产方式!C595</f>
         <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:1">
       <c r="A595" s="3">
-        <f>[1]生产方式!C595</f>
+        <f>[1]生产方式!C596</f>
         <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:1">
       <c r="A596" s="3">
-        <f>[1]生产方式!C596</f>
+        <f>[1]生产方式!C597</f>
         <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:1">
       <c r="A597" s="3">
-        <f>[1]生产方式!C597</f>
+        <f>[1]生产方式!C598</f>
         <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:1">
       <c r="A598" s="3">
-        <f>[1]生产方式!C598</f>
+        <f>[1]生产方式!C599</f>
         <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:1">
       <c r="A599" s="3">
-        <f>[1]生产方式!C599</f>
+        <f>[1]生产方式!C600</f>
         <v>0</v>
       </c>
     </row>
     <row r="600" spans="1:1">
       <c r="A600" s="3">
-        <f>[1]生产方式!C600</f>
+        <f>[1]生产方式!C601</f>
         <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:1">
       <c r="A601" s="3">
-        <f>[1]生产方式!C601</f>
+        <f>[1]生产方式!C602</f>
         <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:1">
       <c r="A602" s="3">
-        <f>[1]生产方式!C602</f>
+        <f>[1]生产方式!C603</f>
         <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:1">
       <c r="A603" s="3">
-        <f>[1]生产方式!C603</f>
+        <f>[1]生产方式!C604</f>
         <v>0</v>
       </c>
     </row>
     <row r="604" spans="1:1">
       <c r="A604" s="3">
-        <f>[1]生产方式!C604</f>
+        <f>[1]生产方式!C605</f>
         <v>0</v>
       </c>
     </row>
     <row r="605" spans="1:1">
       <c r="A605" s="3">
-        <f>[1]生产方式!C605</f>
+        <f>[1]生产方式!C606</f>
         <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:1">
       <c r="A606" s="3">
-        <f>[1]生产方式!C606</f>
+        <f>[1]生产方式!C607</f>
         <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:1">
       <c r="A607" s="3">
-        <f>[1]生产方式!C607</f>
+        <f>[1]生产方式!C608</f>
         <v>0</v>
       </c>
     </row>
     <row r="608" spans="1:1">
       <c r="A608" s="3">
-        <f>[1]生产方式!C608</f>
+        <f>[1]生产方式!C609</f>
         <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:1">
       <c r="A609" s="3">
-        <f>[1]生产方式!C609</f>
+        <f>[1]生产方式!C610</f>
         <v>0</v>
       </c>
     </row>
     <row r="610" spans="1:1">
       <c r="A610" s="3">
-        <f>[1]生产方式!C610</f>
+        <f>[1]生产方式!C611</f>
         <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:1">
       <c r="A611" s="3">
-        <f>[1]生产方式!C611</f>
+        <f>[1]生产方式!C612</f>
         <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:1">
       <c r="A612" s="3">
-        <f>[1]生产方式!C612</f>
+        <f>[1]生产方式!C613</f>
         <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:1">
       <c r="A613" s="3">
-        <f>[1]生产方式!C613</f>
+        <f>[1]生产方式!C614</f>
         <v>0</v>
       </c>
     </row>
     <row r="614" spans="1:1">
       <c r="A614" s="3">
-        <f>[1]生产方式!C614</f>
+        <f>[1]生产方式!C615</f>
         <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:1">
       <c r="A615" s="3">
-        <f>[1]生产方式!C615</f>
+        <f>[1]生产方式!C616</f>
         <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:1">
       <c r="A616" s="3">
-        <f>[1]生产方式!C616</f>
+        <f>[1]生产方式!C617</f>
         <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:1">
       <c r="A617" s="3">
-        <f>[1]生产方式!C617</f>
+        <f>[1]生产方式!C618</f>
         <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:1">
       <c r="A618" s="3">
-        <f>[1]生产方式!C618</f>
+        <f>[1]生产方式!C619</f>
         <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:1">
       <c r="A619" s="3">
-        <f>[1]生产方式!C619</f>
+        <f>[1]生产方式!C620</f>
         <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:1">
       <c r="A620" s="3">
-        <f>[1]生产方式!C620</f>
+        <f>[1]生产方式!C621</f>
         <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:1">
       <c r="A621" s="3">
-        <f>[1]生产方式!C621</f>
+        <f>[1]生产方式!C622</f>
         <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:1">
       <c r="A622" s="3">
-        <f>[1]生产方式!C622</f>
+        <f>[1]生产方式!C623</f>
         <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:1">
       <c r="A623" s="3">
-        <f>[1]生产方式!C623</f>
+        <f>[1]生产方式!C624</f>
         <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:1">
       <c r="A624" s="3">
-        <f>[1]生产方式!C624</f>
+        <f>[1]生产方式!C625</f>
         <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:1">
       <c r="A625" s="3">
-        <f>[1]生产方式!C625</f>
+        <f>[1]生产方式!C626</f>
         <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:1">
       <c r="A626" s="3">
-        <f>[1]生产方式!C626</f>
+        <f>[1]生产方式!C627</f>
         <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:1">
       <c r="A627" s="3">
-        <f>[1]生产方式!C627</f>
+        <f>[1]生产方式!C628</f>
         <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:1">
       <c r="A628" s="3">
-        <f>[1]生产方式!C628</f>
+        <f>[1]生产方式!C629</f>
         <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:1">
       <c r="A629" s="3">
-        <f>[1]生产方式!C629</f>
+        <f>[1]生产方式!C630</f>
         <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:1">
       <c r="A630" s="3">
-        <f>[1]生产方式!C630</f>
+        <f>[1]生产方式!C631</f>
         <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:1">
       <c r="A631" s="3">
-        <f>[1]生产方式!C631</f>
+        <f>[1]生产方式!C632</f>
         <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:1">
       <c r="A632" s="3">
-        <f>[1]生产方式!C632</f>
+        <f>[1]生产方式!C633</f>
         <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:1">
       <c r="A633" s="3">
-        <f>[1]生产方式!C633</f>
+        <f>[1]生产方式!C634</f>
         <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:1">
       <c r="A634" s="3">
-        <f>[1]生产方式!C634</f>
+        <f>[1]生产方式!C635</f>
         <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:1">
       <c r="A635" s="3">
-        <f>[1]生产方式!C635</f>
+        <f>[1]生产方式!C636</f>
         <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:1">
       <c r="A636" s="3">
-        <f>[1]生产方式!C636</f>
+        <f>[1]生产方式!C637</f>
         <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:1">
       <c r="A637" s="3">
-        <f>[1]生产方式!C637</f>
+        <f>[1]生产方式!C638</f>
         <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:1">
       <c r="A638" s="3">
-        <f>[1]生产方式!C638</f>
+        <f>[1]生产方式!C639</f>
         <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:1">
       <c r="A639" s="3">
-        <f>[1]生产方式!C639</f>
+        <f>[1]生产方式!C640</f>
         <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:1">
       <c r="A640" s="3">
-        <f>[1]生产方式!C640</f>
+        <f>[1]生产方式!C641</f>
         <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:1">
       <c r="A641" s="3">
-        <f>[1]生产方式!C641</f>
+        <f>[1]生产方式!C642</f>
         <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:1">
       <c r="A642" s="3">
-        <f>[1]生产方式!C642</f>
+        <f>[1]生产方式!C643</f>
         <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:1">
       <c r="A643" s="3">
-        <f>[1]生产方式!C643</f>
+        <f>[1]生产方式!C644</f>
         <v>0</v>
       </c>
     </row>
     <row r="644" spans="1:1">
       <c r="A644" s="3">
-        <f>[1]生产方式!C644</f>
+        <f>[1]生产方式!C645</f>
         <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:1">
       <c r="A645" s="3">
-        <f>[1]生产方式!C645</f>
+        <f>[1]生产方式!C646</f>
         <v>0</v>
       </c>
     </row>
     <row r="646" spans="1:1">
       <c r="A646" s="3">
-        <f>[1]生产方式!C646</f>
+        <f>[1]生产方式!C647</f>
         <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:1">
       <c r="A647" s="3">
-        <f>[1]生产方式!C647</f>
+        <f>[1]生产方式!C648</f>
         <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:1">
       <c r="A648" s="3">
-        <f>[1]生产方式!C648</f>
+        <f>[1]生产方式!C649</f>
         <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:1">
       <c r="A649" s="3">
-        <f>[1]生产方式!C649</f>
+        <f>[1]生产方式!C650</f>
         <v>0</v>
       </c>
     </row>
     <row r="650" spans="1:1">
       <c r="A650" s="3">
-        <f>[1]生产方式!C650</f>
+        <f>[1]生产方式!C651</f>
         <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:1">
       <c r="A651" s="3">
-        <f>[1]生产方式!C651</f>
+        <f>[1]生产方式!C652</f>
         <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:1">
       <c r="A652" s="3">
-        <f>[1]生产方式!C652</f>
+        <f>[1]生产方式!C653</f>
         <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:1">
       <c r="A653" s="3">
-        <f>[1]生产方式!C653</f>
+        <f>[1]生产方式!C654</f>
         <v>0</v>
       </c>
     </row>
     <row r="654" spans="1:1">
       <c r="A654" s="3">
-        <f>[1]生产方式!C654</f>
+        <f>[1]生产方式!C655</f>
         <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:1">
       <c r="A655" s="3">
-        <f>[1]生产方式!C655</f>
+        <f>[1]生产方式!C656</f>
         <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:1">
       <c r="A656" s="3">
-        <f>[1]生产方式!C656</f>
+        <f>[1]生产方式!C657</f>
         <v>0</v>
       </c>
     </row>
     <row r="657" spans="1:1">
       <c r="A657" s="3">
-        <f>[1]生产方式!C657</f>
+        <f>[1]生产方式!C658</f>
         <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:1">
       <c r="A658" s="3">
-        <f>[1]生产方式!C658</f>
+        <f>[1]生产方式!C659</f>
         <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:1">
       <c r="A659" s="3">
-        <f>[1]生产方式!C659</f>
+        <f>[1]生产方式!C660</f>
         <v>0</v>
       </c>
     </row>
     <row r="660" spans="1:1">
       <c r="A660" s="3">
-        <f>[1]生产方式!C660</f>
+        <f>[1]生产方式!C661</f>
         <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:1">
       <c r="A661" s="3">
-        <f>[1]生产方式!C661</f>
+        <f>[1]生产方式!C662</f>
         <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:1">
       <c r="A662" s="3">
-        <f>[1]生产方式!C662</f>
+        <f>[1]生产方式!C663</f>
         <v>0</v>
       </c>
     </row>
     <row r="663" spans="1:1">
       <c r="A663" s="3">
-        <f>[1]生产方式!C663</f>
+        <f>[1]生产方式!C664</f>
         <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:1">
       <c r="A664" s="3">
-        <f>[1]生产方式!C664</f>
+        <f>[1]生产方式!C665</f>
         <v>0</v>
       </c>
     </row>
     <row r="665" spans="1:1">
       <c r="A665" s="3">
-        <f>[1]生产方式!C665</f>
+        <f>[1]生产方式!C666</f>
         <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:1">
       <c r="A666" s="3">
-        <f>[1]生产方式!C666</f>
+        <f>[1]生产方式!C667</f>
         <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:1">
       <c r="A667" s="3">
-        <f>[1]生产方式!C667</f>
+        <f>[1]生产方式!C668</f>
         <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:1">
       <c r="A668" s="3">
-        <f>[1]生产方式!C668</f>
+        <f>[1]生产方式!C669</f>
         <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:1">
       <c r="A669" s="3">
-        <f>[1]生产方式!C669</f>
+        <f>[1]生产方式!C670</f>
         <v>0</v>
       </c>
     </row>
     <row r="670" spans="1:1">
       <c r="A670" s="3">
-        <f>[1]生产方式!C670</f>
+        <f>[1]生产方式!C671</f>
         <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:1">
       <c r="A671" s="3">
-        <f>[1]生产方式!C671</f>
+        <f>[1]生产方式!C672</f>
         <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:1">
       <c r="A672" s="3">
-        <f>[1]生产方式!C672</f>
+        <f>[1]生产方式!C673</f>
         <v>0</v>
       </c>
     </row>
     <row r="673" spans="1:1">
       <c r="A673" s="3">
-        <f>[1]生产方式!C673</f>
+        <f>[1]生产方式!C674</f>
         <v>0</v>
       </c>
     </row>
     <row r="674" spans="1:1">
       <c r="A674" s="3">
-        <f>[1]生产方式!C674</f>
+        <f>[1]生产方式!C675</f>
         <v>0</v>
       </c>
     </row>
     <row r="675" spans="1:1">
       <c r="A675" s="3">
-        <f>[1]生产方式!C675</f>
+        <f>[1]生产方式!C676</f>
         <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:1">
       <c r="A676" s="3">
-        <f>[1]生产方式!C676</f>
+        <f>[1]生产方式!C677</f>
         <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:1">
       <c r="A677" s="3">
-        <f>[1]生产方式!C677</f>
+        <f>[1]生产方式!C678</f>
         <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:1">
       <c r="A678" s="3">
-        <f>[1]生产方式!C678</f>
+        <f>[1]生产方式!C679</f>
         <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:1">
       <c r="A679" s="3">
-        <f>[1]生产方式!C679</f>
+        <f>[1]生产方式!C680</f>
         <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:1">
       <c r="A680" s="3">
-        <f>[1]生产方式!C680</f>
+        <f>[1]生产方式!C681</f>
         <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:1">
       <c r="A681" s="3">
-        <f>[1]生产方式!C681</f>
+        <f>[1]生产方式!C682</f>
         <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:1">
       <c r="A682" s="3">
-        <f>[1]生产方式!C682</f>
+        <f>[1]生产方式!C683</f>
         <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:1">
       <c r="A683" s="3">
-        <f>[1]生产方式!C683</f>
+        <f>[1]生产方式!C684</f>
         <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:1">
       <c r="A684" s="3">
-        <f>[1]生产方式!C684</f>
+        <f>[1]生产方式!C685</f>
         <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:1">
       <c r="A685" s="3">
-        <f>[1]生产方式!C685</f>
+        <f>[1]生产方式!C686</f>
         <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:1">
       <c r="A686" s="3">
-        <f>[1]生产方式!C686</f>
+        <f>[1]生产方式!C687</f>
         <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:1">
       <c r="A687" s="3">
-        <f>[1]生产方式!C687</f>
+        <f>[1]生产方式!C688</f>
         <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:1">
       <c r="A688" s="3">
-        <f>[1]生产方式!C688</f>
+        <f>[1]生产方式!C689</f>
         <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:1">
       <c r="A689" s="3">
-        <f>[1]生产方式!C689</f>
+        <f>[1]生产方式!C690</f>
         <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:1">
       <c r="A690" s="3">
-        <f>[1]生产方式!C690</f>
+        <f>[1]生产方式!C691</f>
         <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:1">
       <c r="A691" s="3">
-        <f>[1]生产方式!C691</f>
+        <f>[1]生产方式!C692</f>
         <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:1">
       <c r="A692" s="3">
-        <f>[1]生产方式!C692</f>
+        <f>[1]生产方式!C693</f>
         <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:1">
       <c r="A693" s="3">
-        <f>[1]生产方式!C693</f>
+        <f>[1]生产方式!C694</f>
         <v>0</v>
       </c>
     </row>
     <row r="694" spans="1:1">
       <c r="A694" s="3">
-        <f>[1]生产方式!C694</f>
+        <f>[1]生产方式!C695</f>
         <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:1">
       <c r="A695" s="3">
-        <f>[1]生产方式!C695</f>
+        <f>[1]生产方式!C696</f>
         <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:1">
       <c r="A696" s="3">
-        <f>[1]生产方式!C696</f>
+        <f>[1]生产方式!C697</f>
         <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:1">
       <c r="A697" s="3">
-        <f>[1]生产方式!C697</f>
+        <f>[1]生产方式!C698</f>
         <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:1">
       <c r="A698" s="3">
-        <f>[1]生产方式!C698</f>
+        <f>[1]生产方式!C699</f>
         <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:1">
       <c r="A699" s="3">
-        <f>[1]生产方式!C699</f>
+        <f>[1]生产方式!C700</f>
         <v>0</v>
       </c>
     </row>
     <row r="700" spans="1:1">
       <c r="A700" s="3">
-        <f>[1]生产方式!C700</f>
+        <f>[1]生产方式!C701</f>
         <v>0</v>
       </c>
     </row>
     <row r="701" spans="1:1">
       <c r="A701" s="3">
-        <f>[1]生产方式!C701</f>
+        <f>[1]生产方式!C702</f>
         <v>0</v>
       </c>
     </row>
     <row r="702" spans="1:1">
       <c r="A702" s="3">
-        <f>[1]生产方式!C702</f>
+        <f>[1]生产方式!C703</f>
         <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:1">
       <c r="A703" s="3">
-        <f>[1]生产方式!C703</f>
+        <f>[1]生产方式!C704</f>
         <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:1">
       <c r="A704" s="3">
-        <f>[1]生产方式!C704</f>
+        <f>[1]生产方式!C705</f>
         <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:1">
       <c r="A705" s="3">
-        <f>[1]生产方式!C705</f>
+        <f>[1]生产方式!C706</f>
         <v>0</v>
       </c>
     </row>
     <row r="706" spans="1:1">
       <c r="A706" s="3">
-        <f>[1]生产方式!C706</f>
+        <f>[1]生产方式!C707</f>
         <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:1">
       <c r="A707" s="3">
-        <f>[1]生产方式!C707</f>
+        <f>[1]生产方式!C708</f>
         <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:1">
       <c r="A708" s="3">
-        <f>[1]生产方式!C708</f>
+        <f>[1]生产方式!C709</f>
         <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:1">
       <c r="A709" s="3">
-        <f>[1]生产方式!C709</f>
+        <f>[1]生产方式!C710</f>
         <v>0</v>
       </c>
     </row>
     <row r="710" spans="1:1">
       <c r="A710" s="3">
-        <f>[1]生产方式!C710</f>
+        <f>[1]生产方式!C711</f>
         <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:1">
       <c r="A711" s="3">
-        <f>[1]生产方式!C711</f>
+        <f>[1]生产方式!C712</f>
         <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:1">
       <c r="A712" s="3">
-        <f>[1]生产方式!C712</f>
+        <f>[1]生产方式!C713</f>
         <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:1">
       <c r="A713" s="3">
-        <f>[1]生产方式!C713</f>
+        <f>[1]生产方式!C714</f>
         <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:1">
       <c r="A714" s="3">
-        <f>[1]生产方式!C714</f>
+        <f>[1]生产方式!C715</f>
         <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:1">
       <c r="A715" s="3">
-        <f>[1]生产方式!C715</f>
+        <f>[1]生产方式!C716</f>
         <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:1">
       <c r="A716" s="3">
-        <f>[1]生产方式!C716</f>
+        <f>[1]生产方式!C717</f>
         <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:1">
       <c r="A717" s="3">
-        <f>[1]生产方式!C717</f>
+        <f>[1]生产方式!C718</f>
         <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:1">
       <c r="A718" s="3">
-        <f>[1]生产方式!C718</f>
+        <f>[1]生产方式!C719</f>
         <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:1">
       <c r="A719" s="3">
-        <f>[1]生产方式!C719</f>
+        <f>[1]生产方式!C720</f>
         <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:1">
       <c r="A720" s="3">
-        <f>[1]生产方式!C720</f>
+        <f>[1]生产方式!C721</f>
         <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:1">
       <c r="A721" s="3">
-        <f>[1]生产方式!C721</f>
+        <f>[1]生产方式!C722</f>
         <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:1">
       <c r="A722" s="3">
-        <f>[1]生产方式!C722</f>
+        <f>[1]生产方式!C723</f>
         <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:1">
       <c r="A723" s="3">
-        <f>[1]生产方式!C723</f>
+        <f>[1]生产方式!C724</f>
         <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:1">
       <c r="A724" s="3">
-        <f>[1]生产方式!C724</f>
+        <f>[1]生产方式!C725</f>
         <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:1">
       <c r="A725" s="3">
-        <f>[1]生产方式!C725</f>
+        <f>[1]生产方式!C726</f>
         <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:1">
       <c r="A726" s="3">
-        <f>[1]生产方式!C726</f>
+        <f>[1]生产方式!C727</f>
         <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:1">
       <c r="A727" s="3">
-        <f>[1]生产方式!C727</f>
+        <f>[1]生产方式!C728</f>
         <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:1">
       <c r="A728" s="3">
-        <f>[1]生产方式!C728</f>
+        <f>[1]生产方式!C729</f>
         <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:1">
       <c r="A729" s="3">
-        <f>[1]生产方式!C729</f>
+        <f>[1]生产方式!C730</f>
         <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:1">
       <c r="A730" s="3">
-        <f>[1]生产方式!C730</f>
+        <f>[1]生产方式!C731</f>
         <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:1">
       <c r="A731" s="3">
-        <f>[1]生产方式!C731</f>
+        <f>[1]生产方式!C732</f>
         <v>0</v>
       </c>
     </row>
     <row r="732" spans="1:1">
       <c r="A732" s="3">
-        <f>[1]生产方式!C732</f>
+        <f>[1]生产方式!C733</f>
         <v>0</v>
       </c>
     </row>
     <row r="733" spans="1:1">
       <c r="A733" s="3">
-        <f>[1]生产方式!C733</f>
+        <f>[1]生产方式!C734</f>
         <v>0</v>
       </c>
     </row>
     <row r="734" spans="1:1">
       <c r="A734" s="3">
-        <f>[1]生产方式!C734</f>
+        <f>[1]生产方式!C735</f>
         <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:1">
       <c r="A735" s="3">
-        <f>[1]生产方式!C735</f>
+        <f>[1]生产方式!C736</f>
         <v>0</v>
       </c>
     </row>
     <row r="736" spans="1:1">
       <c r="A736" s="3">
-        <f>[1]生产方式!C736</f>
+        <f>[1]生产方式!C737</f>
         <v>0</v>
       </c>
     </row>
     <row r="737" spans="1:1">
       <c r="A737" s="3">
-        <f>[1]生产方式!C737</f>
+        <f>[1]生产方式!C738</f>
         <v>0</v>
       </c>
     </row>
     <row r="738" spans="1:1">
       <c r="A738" s="3">
-        <f>[1]生产方式!C738</f>
+        <f>[1]生产方式!C739</f>
         <v>0</v>
       </c>
     </row>
     <row r="739" spans="1:1">
       <c r="A739" s="3">
-        <f>[1]生产方式!C739</f>
+        <f>[1]生产方式!C740</f>
         <v>0</v>
       </c>
     </row>
     <row r="740" spans="1:1">
       <c r="A740" s="3">
-        <f>[1]生产方式!C740</f>
+        <f>[1]生产方式!C741</f>
         <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:1">
       <c r="A741" s="3">
-        <f>[1]生产方式!C741</f>
+        <f>[1]生产方式!C742</f>
         <v>0</v>
       </c>
     </row>
     <row r="742" spans="1:1">
       <c r="A742" s="3">
-        <f>[1]生产方式!C742</f>
+        <f>[1]生产方式!C743</f>
         <v>0</v>
       </c>
     </row>
     <row r="743" spans="1:1">
       <c r="A743" s="3">
-        <f>[1]生产方式!C743</f>
+        <f>[1]生产方式!C744</f>
         <v>0</v>
       </c>
     </row>
     <row r="744" spans="1:1">
       <c r="A744" s="3">
-        <f>[1]生产方式!C744</f>
+        <f>[1]生产方式!C745</f>
         <v>0</v>
       </c>
     </row>
     <row r="745" spans="1:1">
       <c r="A745" s="3">
-        <f>[1]生产方式!C745</f>
+        <f>[1]生产方式!C746</f>
         <v>0</v>
       </c>
     </row>
     <row r="746" spans="1:1">
       <c r="A746" s="3">
-        <f>[1]生产方式!C746</f>
+        <f>[1]生产方式!C747</f>
         <v>0</v>
       </c>
     </row>
     <row r="747" spans="1:1">
       <c r="A747" s="3">
-        <f>[1]生产方式!C747</f>
+        <f>[1]生产方式!C748</f>
         <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:1">
       <c r="A748" s="3">
-        <f>[1]生产方式!C748</f>
+        <f>[1]生产方式!C749</f>
         <v>0</v>
       </c>
     </row>
     <row r="749" spans="1:1">
       <c r="A749" s="3">
-        <f>[1]生产方式!C749</f>
+        <f>[1]生产方式!C750</f>
         <v>0</v>
       </c>
     </row>
     <row r="750" spans="1:1">
       <c r="A750" s="3">
-        <f>[1]生产方式!C750</f>
+        <f>[1]生产方式!C751</f>
         <v>0</v>
       </c>
     </row>
     <row r="751" spans="1:1">
       <c r="A751" s="3">
-        <f>[1]生产方式!C751</f>
+        <f>[1]生产方式!C752</f>
         <v>0</v>
       </c>
     </row>
     <row r="752" spans="1:1">
       <c r="A752" s="3">
-        <f>[1]生产方式!C752</f>
+        <f>[1]生产方式!C753</f>
         <v>0</v>
       </c>
     </row>
     <row r="753" spans="1:1">
       <c r="A753" s="3">
-        <f>[1]生产方式!C753</f>
+        <f>[1]生产方式!C754</f>
         <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:1">
       <c r="A754" s="3">
-        <f>[1]生产方式!C754</f>
+        <f>[1]生产方式!C755</f>
         <v>0</v>
       </c>
     </row>
     <row r="755" spans="1:1">
       <c r="A755" s="3">
-        <f>[1]生产方式!C755</f>
+        <f>[1]生产方式!C756</f>
         <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:1">
       <c r="A756" s="3">
-        <f>[1]生产方式!C756</f>
+        <f>[1]生产方式!C757</f>
         <v>0</v>
       </c>
     </row>
     <row r="757" spans="1:1">
       <c r="A757" s="3">
-        <f>[1]生产方式!C757</f>
+        <f>[1]生产方式!C758</f>
         <v>0</v>
       </c>
     </row>
     <row r="758" spans="1:1">
       <c r="A758" s="3">
-        <f>[1]生产方式!C758</f>
+        <f>[1]生产方式!C759</f>
         <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:1">
       <c r="A759" s="3">
-        <f>[1]生产方式!C759</f>
+        <f>[1]生产方式!C760</f>
         <v>0</v>
       </c>
     </row>
     <row r="760" spans="1:1">
       <c r="A760" s="3">
-        <f>[1]生产方式!C760</f>
+        <f>[1]生产方式!C761</f>
         <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:1">
       <c r="A761" s="3">
-        <f>[1]生产方式!C761</f>
+        <f>[1]生产方式!C762</f>
         <v>0</v>
       </c>
     </row>
     <row r="762" spans="1:1">
       <c r="A762" s="3">
-        <f>[1]生产方式!C762</f>
+        <f>[1]生产方式!C763</f>
         <v>0</v>
       </c>
     </row>
     <row r="763" spans="1:1">
       <c r="A763" s="3">
-        <f>[1]生产方式!C763</f>
+        <f>[1]生产方式!C764</f>
         <v>0</v>
       </c>
     </row>
     <row r="764" spans="1:1">
       <c r="A764" s="3">
-        <f>[1]生产方式!C764</f>
+        <f>[1]生产方式!C765</f>
         <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:1">
       <c r="A765" s="3">
-        <f>[1]生产方式!C765</f>
+        <f>[1]生产方式!C766</f>
         <v>0</v>
       </c>
     </row>
     <row r="766" spans="1:1">
       <c r="A766" s="3">
-        <f>[1]生产方式!C766</f>
+        <f>[1]生产方式!C767</f>
         <v>0</v>
       </c>
     </row>
     <row r="767" spans="1:1">
       <c r="A767" s="3">
-        <f>[1]生产方式!C767</f>
+        <f>[1]生产方式!C768</f>
         <v>0</v>
       </c>
     </row>
     <row r="768" spans="1:1">
       <c r="A768" s="3">
-        <f>[1]生产方式!C768</f>
+        <f>[1]生产方式!C769</f>
         <v>0</v>
       </c>
     </row>
     <row r="769" spans="1:1">
       <c r="A769" s="3">
-        <f>[1]生产方式!C769</f>
+        <f>[1]生产方式!C770</f>
         <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:1">
       <c r="A770" s="3">
-        <f>[1]生产方式!C770</f>
+        <f>[1]生产方式!C771</f>
         <v>0</v>
       </c>
     </row>
     <row r="771" spans="1:1">
       <c r="A771" s="3">
-        <f>[1]生产方式!C771</f>
+        <f>[1]生产方式!C772</f>
         <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:1">
       <c r="A772" s="3">
-        <f>[1]生产方式!C772</f>
+        <f>[1]生产方式!C773</f>
         <v>0</v>
       </c>
     </row>
     <row r="773" spans="1:1">
       <c r="A773" s="3">
-        <f>[1]生产方式!C773</f>
+        <f>[1]生产方式!C774</f>
         <v>0</v>
       </c>
     </row>
     <row r="774" spans="1:1">
       <c r="A774" s="3">
-        <f>[1]生产方式!C774</f>
+        <f>[1]生产方式!C775</f>
         <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:1">
       <c r="A775" s="3">
-        <f>[1]生产方式!C775</f>
+        <f>[1]生产方式!C776</f>
         <v>0</v>
       </c>
     </row>
     <row r="776" spans="1:1">
       <c r="A776" s="3">
-        <f>[1]生产方式!C776</f>
+        <f>[1]生产方式!C777</f>
         <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:1">
       <c r="A777" s="3">
-        <f>[1]生产方式!C777</f>
+        <f>[1]生产方式!C778</f>
         <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:1">
       <c r="A778" s="3">
-        <f>[1]生产方式!C778</f>
+        <f>[1]生产方式!C779</f>
         <v>0</v>
       </c>
     </row>
     <row r="779" spans="1:1">
       <c r="A779" s="3">
-        <f>[1]生产方式!C779</f>
+        <f>[1]生产方式!C780</f>
         <v>0</v>
       </c>
     </row>
     <row r="780" spans="1:1">
       <c r="A780" s="3">
-        <f>[1]生产方式!C780</f>
+        <f>[1]生产方式!C781</f>
         <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:1">
       <c r="A781" s="3">
-        <f>[1]生产方式!C781</f>
+        <f>[1]生产方式!C782</f>
         <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:1">
       <c r="A782" s="3">
-        <f>[1]生产方式!C782</f>
+        <f>[1]生产方式!C783</f>
         <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:1">
       <c r="A783" s="3">
-        <f>[1]生产方式!C783</f>
+        <f>[1]生产方式!C784</f>
         <v>0</v>
       </c>
     </row>
     <row r="784" spans="1:1">
       <c r="A784" s="3">
-        <f>[1]生产方式!C784</f>
+        <f>[1]生产方式!C785</f>
         <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:1">
       <c r="A785" s="3">
-        <f>[1]生产方式!C785</f>
+        <f>[1]生产方式!C786</f>
         <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:1">
       <c r="A786" s="3">
-        <f>[1]生产方式!C786</f>
+        <f>[1]生产方式!C787</f>
         <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:1">
       <c r="A787" s="3">
-        <f>[1]生产方式!C787</f>
+        <f>[1]生产方式!C788</f>
         <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:1">
       <c r="A788" s="3">
-        <f>[1]生产方式!C788</f>
+        <f>[1]生产方式!C789</f>
         <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:1">
       <c r="A789" s="3">
-        <f>[1]生产方式!C789</f>
+        <f>[1]生产方式!C790</f>
         <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:1">
       <c r="A790" s="3">
-        <f>[1]生产方式!C790</f>
+        <f>[1]生产方式!C791</f>
         <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:1">
       <c r="A791" s="3">
-        <f>[1]生产方式!C791</f>
+        <f>[1]生产方式!C792</f>
         <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:1">
       <c r="A792" s="3">
-        <f>[1]生产方式!C792</f>
+        <f>[1]生产方式!C793</f>
         <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:1">
       <c r="A793" s="3">
-        <f>[1]生产方式!C793</f>
+        <f>[1]生产方式!C794</f>
         <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:1">
       <c r="A794" s="3">
-        <f>[1]生产方式!C794</f>
+        <f>[1]生产方式!C795</f>
         <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:1">
       <c r="A795" s="3">
-        <f>[1]生产方式!C795</f>
+        <f>[1]生产方式!C796</f>
         <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:1">
       <c r="A796" s="3">
-        <f>[1]生产方式!C796</f>
+        <f>[1]生产方式!C797</f>
         <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:1">
       <c r="A797" s="3">
-        <f>[1]生产方式!C797</f>
+        <f>[1]生产方式!C798</f>
         <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:1">
       <c r="A798" s="3">
-        <f>[1]生产方式!C798</f>
+        <f>[1]生产方式!C799</f>
         <v>0</v>
       </c>
     </row>
     <row r="799" spans="1:1">
       <c r="A799" s="3">
-        <f>[1]生产方式!C799</f>
+        <f>[1]生产方式!C800</f>
         <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:1">
       <c r="A800" s="3">
-        <f>[1]生产方式!C800</f>
+        <f>[1]生产方式!C801</f>
         <v>0</v>
       </c>
     </row>
     <row r="801" spans="1:1">
       <c r="A801" s="3">
-        <f>[1]生产方式!C801</f>
+        <f>[1]生产方式!C802</f>
         <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:1">
       <c r="A802" s="3">
-        <f>[1]生产方式!C802</f>
+        <f>[1]生产方式!C803</f>
         <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:1">
       <c r="A803" s="3">
-        <f>[1]生产方式!C803</f>
+        <f>[1]生产方式!C804</f>
         <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:1">
       <c r="A804" s="3">
-        <f>[1]生产方式!C804</f>
+        <f>[1]生产方式!C805</f>
         <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:1">
       <c r="A805" s="3">
-        <f>[1]生产方式!C805</f>
+        <f>[1]生产方式!C806</f>
         <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:1">
       <c r="A806" s="3">
-        <f>[1]生产方式!C806</f>
+        <f>[1]生产方式!C807</f>
         <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:1">
       <c r="A807" s="3">
-        <f>[1]生产方式!C807</f>
+        <f>[1]生产方式!C808</f>
         <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:1">
       <c r="A808" s="3">
-        <f>[1]生产方式!C808</f>
+        <f>[1]生产方式!C809</f>
         <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:1">
       <c r="A809" s="3">
-        <f>[1]生产方式!C809</f>
+        <f>[1]生产方式!C810</f>
         <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:1">
       <c r="A810" s="3">
-        <f>[1]生产方式!C810</f>
+        <f>[1]生产方式!C811</f>
         <v>0</v>
       </c>
     </row>
     <row r="811" spans="1:1">
       <c r="A811" s="3">
-        <f>[1]生产方式!C811</f>
+        <f>[1]生产方式!C812</f>
         <v>0</v>
       </c>
     </row>
     <row r="812" spans="1:1">
       <c r="A812" s="3">
-        <f>[1]生产方式!C812</f>
+        <f>[1]生产方式!C813</f>
         <v>0</v>
       </c>
     </row>
     <row r="813" spans="1:1">
       <c r="A813" s="3">
-        <f>[1]生产方式!C813</f>
+        <f>[1]生产方式!C814</f>
         <v>0</v>
       </c>
     </row>
     <row r="814" spans="1:1">
       <c r="A814" s="3">
-        <f>[1]生产方式!C814</f>
+        <f>[1]生产方式!C815</f>
         <v>0</v>
       </c>
     </row>
     <row r="815" spans="1:1">
       <c r="A815" s="3">
-        <f>[1]生产方式!C815</f>
+        <f>[1]生产方式!C816</f>
         <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:1">
       <c r="A816" s="3">
-        <f>[1]生产方式!C816</f>
+        <f>[1]生产方式!C817</f>
         <v>0</v>
       </c>
     </row>
     <row r="817" spans="1:1">
       <c r="A817" s="3">
-        <f>[1]生产方式!C817</f>
+        <f>[1]生产方式!C818</f>
         <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:1">
       <c r="A818" s="3">
-        <f>[1]生产方式!C818</f>
+        <f>[1]生产方式!C819</f>
         <v>0</v>
       </c>
     </row>
     <row r="819" spans="1:1">
       <c r="A819" s="3">
-        <f>[1]生产方式!C819</f>
+        <f>[1]生产方式!C820</f>
         <v>0</v>
       </c>
     </row>
     <row r="820" spans="1:1">
       <c r="A820" s="3">
-        <f>[1]生产方式!C820</f>
+        <f>[1]生产方式!C821</f>
         <v>0</v>
       </c>
     </row>
     <row r="821" spans="1:1">
       <c r="A821" s="3">
-        <f>[1]生产方式!C821</f>
+        <f>[1]生产方式!C822</f>
         <v>0</v>
       </c>
     </row>
     <row r="822" spans="1:1">
       <c r="A822" s="3">
-        <f>[1]生产方式!C822</f>
+        <f>[1]生产方式!C823</f>
         <v>0</v>
       </c>
     </row>
     <row r="823" spans="1:1">
       <c r="A823" s="3">
-        <f>[1]生产方式!C823</f>
+        <f>[1]生产方式!C824</f>
         <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:1">
       <c r="A824" s="3">
-        <f>[1]生产方式!C824</f>
+        <f>[1]生产方式!C825</f>
         <v>0</v>
       </c>
     </row>
     <row r="825" spans="1:1">
       <c r="A825" s="3">
-        <f>[1]生产方式!C825</f>
+        <f>[1]生产方式!C826</f>
         <v>0</v>
       </c>
     </row>
     <row r="826" spans="1:1">
       <c r="A826" s="3">
-        <f>[1]生产方式!C826</f>
+        <f>[1]生产方式!C827</f>
         <v>0</v>
       </c>
     </row>
     <row r="827" spans="1:1">
       <c r="A827" s="3">
-        <f>[1]生产方式!C827</f>
+        <f>[1]生产方式!C828</f>
         <v>0</v>
       </c>
     </row>
     <row r="828" spans="1:1">
       <c r="A828" s="3">
-        <f>[1]生产方式!C828</f>
+        <f>[1]生产方式!C829</f>
         <v>0</v>
       </c>
     </row>
     <row r="829" spans="1:1">
       <c r="A829" s="3">
-        <f>[1]生产方式!C829</f>
+        <f>[1]生产方式!C830</f>
         <v>0</v>
       </c>
     </row>
     <row r="830" spans="1:1">
       <c r="A830" s="3">
-        <f>[1]生产方式!C830</f>
+        <f>[1]生产方式!C831</f>
         <v>0</v>
       </c>
     </row>
     <row r="831" spans="1:1">
       <c r="A831" s="3">
-        <f>[1]生产方式!C831</f>
+        <f>[1]生产方式!C832</f>
         <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:1">
       <c r="A832" s="3">
-        <f>[1]生产方式!C832</f>
+        <f>[1]生产方式!C833</f>
         <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:1">
       <c r="A833" s="3">
-        <f>[1]生产方式!C833</f>
+        <f>[1]生产方式!C834</f>
         <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:1">
       <c r="A834" s="3">
-        <f>[1]生产方式!C834</f>
+        <f>[1]生产方式!C835</f>
         <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:1">
       <c r="A835" s="3">
-        <f>[1]生产方式!C835</f>
+        <f>[1]生产方式!C836</f>
         <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:1">
       <c r="A836" s="3">
-        <f>[1]生产方式!C836</f>
+        <f>[1]生产方式!C837</f>
         <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:1">
       <c r="A837" s="3">
-        <f>[1]生产方式!C837</f>
+        <f>[1]生产方式!C838</f>
         <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:1">
       <c r="A838" s="3">
-        <f>[1]生产方式!C838</f>
+        <f>[1]生产方式!C839</f>
         <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:1">
       <c r="A839" s="3">
-        <f>[1]生产方式!C839</f>
+        <f>[1]生产方式!C840</f>
         <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:1">
       <c r="A840" s="3">
-        <f>[1]生产方式!C840</f>
+        <f>[1]生产方式!C841</f>
         <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:1">
       <c r="A841" s="3">
-        <f>[1]生产方式!C841</f>
+        <f>[1]生产方式!C842</f>
         <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:1">
       <c r="A842" s="3">
-        <f>[1]生产方式!C842</f>
+        <f>[1]生产方式!C843</f>
         <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:1">
       <c r="A843" s="3">
-        <f>[1]生产方式!C843</f>
+        <f>[1]生产方式!C844</f>
         <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:1">
       <c r="A844" s="3">
-        <f>[1]生产方式!C844</f>
+        <f>[1]生产方式!C845</f>
         <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:1">
       <c r="A845" s="3">
-        <f>[1]生产方式!C845</f>
+        <f>[1]生产方式!C846</f>
         <v>0</v>
       </c>
     </row>
     <row r="846" spans="1:1">
       <c r="A846" s="3">
-        <f>[1]生产方式!C846</f>
+        <f>[1]生产方式!C847</f>
         <v>0</v>
       </c>
     </row>
     <row r="847" spans="1:1">
       <c r="A847" s="3">
-        <f>[1]生产方式!C847</f>
+        <f>[1]生产方式!C848</f>
         <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:1">
       <c r="A848" s="3">
-        <f>[1]生产方式!C848</f>
+        <f>[1]生产方式!C849</f>
         <v>0</v>
       </c>
     </row>
     <row r="849" spans="1:1">
       <c r="A849" s="3">
-        <f>[1]生产方式!C849</f>
+        <f>[1]生产方式!C850</f>
         <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:1">
       <c r="A850" s="3">
-        <f>[1]生产方式!C850</f>
+        <f>[1]生产方式!C851</f>
         <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:1">
       <c r="A851" s="3">
-        <f>[1]生产方式!C851</f>
+        <f>[1]生产方式!C852</f>
         <v>0</v>
       </c>
     </row>
     <row r="852" spans="1:1">
       <c r="A852" s="3">
-        <f>[1]生产方式!C852</f>
+        <f>[1]生产方式!C853</f>
         <v>0</v>
       </c>
     </row>
     <row r="853" spans="1:1">
       <c r="A853" s="3">
-        <f>[1]生产方式!C853</f>
+        <f>[1]生产方式!C854</f>
         <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:1">
       <c r="A854" s="3">
-        <f>[1]生产方式!C854</f>
+        <f>[1]生产方式!C855</f>
         <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:1">
       <c r="A855" s="3">
-        <f>[1]生产方式!C855</f>
+        <f>[1]生产方式!C856</f>
         <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:1">
       <c r="A856" s="3">
-        <f>[1]生产方式!C856</f>
+        <f>[1]生产方式!C857</f>
         <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:1">
       <c r="A857" s="3">
-        <f>[1]生产方式!C857</f>
+        <f>[1]生产方式!C858</f>
         <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:1">
       <c r="A858" s="3">
-        <f>[1]生产方式!C858</f>
+        <f>[1]生产方式!C859</f>
         <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:1">
       <c r="A859" s="3">
-        <f>[1]生产方式!C859</f>
+        <f>[1]生产方式!C860</f>
         <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:1">
       <c r="A860" s="3">
-        <f>[1]生产方式!C860</f>
+        <f>[1]生产方式!C861</f>
         <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:1">
       <c r="A861" s="3">
-        <f>[1]生产方式!C861</f>
+        <f>[1]生产方式!C862</f>
         <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:1">
       <c r="A862" s="3">
-        <f>[1]生产方式!C862</f>
+        <f>[1]生产方式!C863</f>
         <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:1">
       <c r="A863" s="3">
-        <f>[1]生产方式!C863</f>
+        <f>[1]生产方式!C864</f>
         <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:1">
       <c r="A864" s="3">
-        <f>[1]生产方式!C864</f>
+        <f>[1]生产方式!C865</f>
         <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:1">
       <c r="A865" s="3">
-        <f>[1]生产方式!C865</f>
+        <f>[1]生产方式!C866</f>
         <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:1">
       <c r="A866" s="3">
-        <f>[1]生产方式!C866</f>
+        <f>[1]生产方式!C867</f>
         <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:1">
       <c r="A867" s="3">
-        <f>[1]生产方式!C867</f>
+        <f>[1]生产方式!C868</f>
         <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:1">
       <c r="A868" s="3">
-        <f>[1]生产方式!C868</f>
+        <f>[1]生产方式!C869</f>
         <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:1">
       <c r="A869" s="3">
-        <f>[1]生产方式!C869</f>
+        <f>[1]生产方式!C870</f>
         <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:1">
       <c r="A870" s="3">
-        <f>[1]生产方式!C870</f>
+        <f>[1]生产方式!C871</f>
         <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:1">
       <c r="A871" s="3">
-        <f>[1]生产方式!C871</f>
+        <f>[1]生产方式!C872</f>
         <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:1">
       <c r="A872" s="3">
-        <f>[1]生产方式!C872</f>
+        <f>[1]生产方式!C873</f>
         <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:1">
       <c r="A873" s="3">
-        <f>[1]生产方式!C873</f>
+        <f>[1]生产方式!C874</f>
         <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:1">
       <c r="A874" s="3">
-        <f>[1]生产方式!C874</f>
+        <f>[1]生产方式!C875</f>
         <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:1">
       <c r="A875" s="3">
-        <f>[1]生产方式!C875</f>
+        <f>[1]生产方式!C876</f>
         <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:1">
       <c r="A876" s="3">
-        <f>[1]生产方式!C876</f>
+        <f>[1]生产方式!C877</f>
         <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:1">
       <c r="A877" s="3">
-        <f>[1]生产方式!C877</f>
+        <f>[1]生产方式!C878</f>
         <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:1">
       <c r="A878" s="3">
-        <f>[1]生产方式!C878</f>
+        <f>[1]生产方式!C879</f>
         <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:1">
       <c r="A879" s="3">
-        <f>[1]生产方式!C879</f>
+        <f>[1]生产方式!C880</f>
         <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:1">
       <c r="A880" s="3">
-        <f>[1]生产方式!C880</f>
+        <f>[1]生产方式!C881</f>
         <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:1">
       <c r="A881" s="3">
-        <f>[1]生产方式!C881</f>
+        <f>[1]生产方式!C882</f>
         <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:1">
       <c r="A882" s="3">
-        <f>[1]生产方式!C882</f>
+        <f>[1]生产方式!C883</f>
         <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:1">
       <c r="A883" s="3">
-        <f>[1]生产方式!C883</f>
+        <f>[1]生产方式!C884</f>
         <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:1">
       <c r="A884" s="3">
-        <f>[1]生产方式!C884</f>
+        <f>[1]生产方式!C885</f>
         <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:1">
       <c r="A885" s="3">
-        <f>[1]生产方式!C885</f>
+        <f>[1]生产方式!C886</f>
         <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:1">
       <c r="A886" s="3">
-        <f>[1]生产方式!C886</f>
+        <f>[1]生产方式!C887</f>
         <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:1">
       <c r="A887" s="3">
-        <f>[1]生产方式!C887</f>
+        <f>[1]生产方式!C888</f>
         <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:1">
       <c r="A888" s="3">
-        <f>[1]生产方式!C888</f>
+        <f>[1]生产方式!C889</f>
         <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:1">
       <c r="A889" s="3">
-        <f>[1]生产方式!C889</f>
+        <f>[1]生产方式!C890</f>
         <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:1">
       <c r="A890" s="3">
-        <f>[1]生产方式!C890</f>
+        <f>[1]生产方式!C891</f>
         <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:1">
       <c r="A891" s="3">
-        <f>[1]生产方式!C891</f>
+        <f>[1]生产方式!C892</f>
         <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:1">
       <c r="A892" s="3">
-        <f>[1]生产方式!C892</f>
+        <f>[1]生产方式!C893</f>
         <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:1">
       <c r="A893" s="3">
-        <f>[1]生产方式!C893</f>
+        <f>[1]生产方式!C894</f>
         <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:1">
       <c r="A894" s="3">
-        <f>[1]生产方式!C894</f>
+        <f>[1]生产方式!C895</f>
         <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:1">
       <c r="A895" s="3">
-        <f>[1]生产方式!C895</f>
+        <f>[1]生产方式!C896</f>
         <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:1">
       <c r="A896" s="3">
-        <f>[1]生产方式!C896</f>
+        <f>[1]生产方式!C897</f>
         <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:1">
       <c r="A897" s="3">
-        <f>[1]生产方式!C897</f>
+        <f>[1]生产方式!C898</f>
         <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:1">
       <c r="A898" s="3">
-        <f>[1]生产方式!C898</f>
+        <f>[1]生产方式!C899</f>
         <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:1">
       <c r="A899" s="3">
-        <f>[1]生产方式!C899</f>
+        <f>[1]生产方式!C900</f>
         <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:1">
       <c r="A900" s="3">
-        <f>[1]生产方式!C900</f>
+        <f>[1]生产方式!C901</f>
         <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:1">
       <c r="A901" s="3">
-        <f>[1]生产方式!C901</f>
+        <f>[1]生产方式!C902</f>
         <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:1">
       <c r="A902" s="3">
-        <f>[1]生产方式!C902</f>
+        <f>[1]生产方式!C903</f>
         <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:1">
       <c r="A903" s="3">
-        <f>[1]生产方式!C903</f>
+        <f>[1]生产方式!C904</f>
         <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:1">
       <c r="A904" s="3">
-        <f>[1]生产方式!C904</f>
+        <f>[1]生产方式!C905</f>
         <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:1">
       <c r="A905" s="3">
-        <f>[1]生产方式!C905</f>
+        <f>[1]生产方式!C906</f>
         <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:1">
       <c r="A906" s="3">
-        <f>[1]生产方式!C906</f>
+        <f>[1]生产方式!C907</f>
         <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:1">
       <c r="A907" s="3">
-        <f>[1]生产方式!C907</f>
+        <f>[1]生产方式!C908</f>
         <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:1">
       <c r="A908" s="3">
-        <f>[1]生产方式!C908</f>
+        <f>[1]生产方式!C909</f>
         <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:1">
       <c r="A909" s="3">
-        <f>[1]生产方式!C909</f>
+        <f>[1]生产方式!C910</f>
         <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:1">
       <c r="A910" s="3">
-        <f>[1]生产方式!C910</f>
+        <f>[1]生产方式!C911</f>
         <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:1">
       <c r="A911" s="3">
-        <f>[1]生产方式!C911</f>
+        <f>[1]生产方式!C912</f>
         <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:1">
       <c r="A912" s="3">
-        <f>[1]生产方式!C912</f>
+        <f>[1]生产方式!C913</f>
         <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:1">
       <c r="A913" s="3">
-        <f>[1]生产方式!C913</f>
+        <f>[1]生产方式!C914</f>
         <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:1">
       <c r="A914" s="3">
-        <f>[1]生产方式!C914</f>
+        <f>[1]生产方式!C915</f>
         <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:1">
       <c r="A915" s="3">
-        <f>[1]生产方式!C915</f>
+        <f>[1]生产方式!C916</f>
         <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:1">
       <c r="A916" s="3">
-        <f>[1]生产方式!C916</f>
+        <f>[1]生产方式!C917</f>
         <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:1">
       <c r="A917" s="3">
-        <f>[1]生产方式!C917</f>
+        <f>[1]生产方式!C918</f>
         <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:1">
       <c r="A918" s="3">
-        <f>[1]生产方式!C918</f>
+        <f>[1]生产方式!C919</f>
         <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:1">
       <c r="A919" s="3">
-        <f>[1]生产方式!C919</f>
+        <f>[1]生产方式!C920</f>
         <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:1">
       <c r="A920" s="3">
-        <f>[1]生产方式!C920</f>
+        <f>[1]生产方式!C921</f>
         <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:1">
       <c r="A921" s="3">
-        <f>[1]生产方式!C921</f>
+        <f>[1]生产方式!C922</f>
         <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:1">
       <c r="A922" s="3">
-        <f>[1]生产方式!C922</f>
+        <f>[1]生产方式!C923</f>
         <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:1">
       <c r="A923" s="3">
-        <f>[1]生产方式!C923</f>
+        <f>[1]生产方式!C924</f>
         <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:1">
       <c r="A924" s="3">
-        <f>[1]生产方式!C924</f>
+        <f>[1]生产方式!C925</f>
         <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:1">
       <c r="A925" s="3">
-        <f>[1]生产方式!C925</f>
+        <f>[1]生产方式!C926</f>
         <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:1">
       <c r="A926" s="3">
-        <f>[1]生产方式!C926</f>
+        <f>[1]生产方式!C927</f>
         <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:1">
       <c r="A927" s="3">
-        <f>[1]生产方式!C927</f>
+        <f>[1]生产方式!C928</f>
         <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:1">
       <c r="A928" s="3">
-        <f>[1]生产方式!C928</f>
+        <f>[1]生产方式!C929</f>
         <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:1">
       <c r="A929" s="3">
-        <f>[1]生产方式!C929</f>
+        <f>[1]生产方式!C930</f>
         <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:1">
       <c r="A930" s="3">
-        <f>[1]生产方式!C930</f>
+        <f>[1]生产方式!C931</f>
         <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:1">
       <c r="A931" s="3">
-        <f>[1]生产方式!C931</f>
+        <f>[1]生产方式!C932</f>
         <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:1">
       <c r="A932" s="3">
-        <f>[1]生产方式!C932</f>
+        <f>[1]生产方式!C933</f>
         <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:1">
       <c r="A933" s="3">
-        <f>[1]生产方式!C933</f>
+        <f>[1]生产方式!C934</f>
         <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:1">
       <c r="A934" s="3">
-        <f>[1]生产方式!C934</f>
+        <f>[1]生产方式!C935</f>
         <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:1">
       <c r="A935" s="3">
-        <f>[1]生产方式!C935</f>
+        <f>[1]生产方式!C936</f>
         <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:1">
       <c r="A936" s="3">
-        <f>[1]生产方式!C936</f>
+        <f>[1]生产方式!C937</f>
         <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:1">
       <c r="A937" s="3">
-        <f>[1]生产方式!C937</f>
+        <f>[1]生产方式!C938</f>
         <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:1">
       <c r="A938" s="3">
-        <f>[1]生产方式!C938</f>
+        <f>[1]生产方式!C939</f>
         <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:1">
       <c r="A939" s="3">
-        <f>[1]生产方式!C939</f>
+        <f>[1]生产方式!C940</f>
         <v>0</v>
       </c>
     </row>
     <row r="940" spans="1:1">
       <c r="A940" s="3">
-        <f>[1]生产方式!C940</f>
+        <f>[1]生产方式!C941</f>
         <v>0</v>
       </c>
     </row>
     <row r="941" spans="1:1">
       <c r="A941" s="3">
-        <f>[1]生产方式!C941</f>
+        <f>[1]生产方式!C942</f>
         <v>0</v>
       </c>
     </row>
     <row r="942" spans="1:1">
       <c r="A942" s="3">
-        <f>[1]生产方式!C942</f>
+        <f>[1]生产方式!C943</f>
         <v>0</v>
       </c>
     </row>
     <row r="943" spans="1:1">
       <c r="A943" s="3">
-        <f>[1]生产方式!C943</f>
+        <f>[1]生产方式!C944</f>
         <v>0</v>
       </c>
     </row>
     <row r="944" spans="1:1">
       <c r="A944" s="3">
-        <f>[1]生产方式!C944</f>
+        <f>[1]生产方式!C945</f>
         <v>0</v>
       </c>
     </row>
     <row r="945" spans="1:1">
       <c r="A945" s="3">
-        <f>[1]生产方式!C945</f>
+        <f>[1]生产方式!C946</f>
         <v>0</v>
       </c>
     </row>
     <row r="946" spans="1:1">
       <c r="A946" s="3">
-        <f>[1]生产方式!C946</f>
+        <f>[1]生产方式!C947</f>
         <v>0</v>
       </c>
     </row>
     <row r="947" spans="1:1">
       <c r="A947" s="3">
-        <f>[1]生产方式!C947</f>
+        <f>[1]生产方式!C948</f>
         <v>0</v>
       </c>
     </row>
     <row r="948" spans="1:1">
       <c r="A948" s="3">
-        <f>[1]生产方式!C948</f>
+        <f>[1]生产方式!C949</f>
         <v>0</v>
       </c>
     </row>
     <row r="949" spans="1:1">
       <c r="A949" s="3">
-        <f>[1]生产方式!C949</f>
+        <f>[1]生产方式!C950</f>
         <v>0</v>
       </c>
     </row>
     <row r="950" spans="1:1">
       <c r="A950" s="3">
-        <f>[1]生产方式!C950</f>
+        <f>[1]生产方式!C951</f>
         <v>0</v>
       </c>
     </row>
     <row r="951" spans="1:1">
       <c r="A951" s="3">
-        <f>[1]生产方式!C951</f>
+        <f>[1]生产方式!C952</f>
         <v>0</v>
       </c>
     </row>
     <row r="952" spans="1:1">
       <c r="A952" s="3">
-        <f>[1]生产方式!C952</f>
+        <f>[1]生产方式!C953</f>
         <v>0</v>
       </c>
     </row>
     <row r="953" spans="1:1">
       <c r="A953" s="3">
-        <f>[1]生产方式!C953</f>
+        <f>[1]生产方式!C954</f>
         <v>0</v>
       </c>
     </row>
     <row r="954" spans="1:1">
       <c r="A954" s="3">
-        <f>[1]生产方式!C954</f>
+        <f>[1]生产方式!C955</f>
         <v>0</v>
       </c>
     </row>
     <row r="955" spans="1:1">
       <c r="A955" s="3">
-        <f>[1]生产方式!C955</f>
+        <f>[1]生产方式!C956</f>
         <v>0</v>
       </c>
     </row>
     <row r="956" spans="1:1">
       <c r="A956" s="3">
-        <f>[1]生产方式!C956</f>
+        <f>[1]生产方式!C957</f>
         <v>0</v>
       </c>
     </row>
     <row r="957" spans="1:1">
       <c r="A957" s="3">
-        <f>[1]生产方式!C957</f>
+        <f>[1]生产方式!C958</f>
         <v>0</v>
       </c>
     </row>
     <row r="958" spans="1:1">
       <c r="A958" s="3">
-        <f>[1]生产方式!C958</f>
+        <f>[1]生产方式!C959</f>
         <v>0</v>
       </c>
     </row>
     <row r="959" spans="1:1">
       <c r="A959" s="3">
-        <f>[1]生产方式!C959</f>
+        <f>[1]生产方式!C960</f>
         <v>0</v>
       </c>
     </row>
     <row r="960" spans="1:1">
       <c r="A960" s="3">
-        <f>[1]生产方式!C960</f>
+        <f>[1]生产方式!C961</f>
         <v>0</v>
       </c>
     </row>
     <row r="961" spans="1:1">
       <c r="A961" s="3">
-        <f>[1]生产方式!C961</f>
+        <f>[1]生产方式!C962</f>
         <v>0</v>
       </c>
     </row>
     <row r="962" spans="1:1">
       <c r="A962" s="3">
-        <f>[1]生产方式!C962</f>
+        <f>[1]生产方式!C963</f>
         <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:1">
       <c r="A963" s="3">
-        <f>[1]生产方式!C963</f>
+        <f>[1]生产方式!C964</f>
         <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:1">
       <c r="A964" s="3">
-        <f>[1]生产方式!C964</f>
+        <f>[1]生产方式!C965</f>
         <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:1">
       <c r="A965" s="3">
-        <f>[1]生产方式!C965</f>
+        <f>[1]生产方式!C966</f>
         <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:1">
       <c r="A966" s="3">
-        <f>[1]生产方式!C966</f>
+        <f>[1]生产方式!C967</f>
         <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:1">
       <c r="A967" s="3">
-        <f>[1]生产方式!C967</f>
+        <f>[1]生产方式!C968</f>
         <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:1">
       <c r="A968" s="3">
-        <f>[1]生产方式!C968</f>
+        <f>[1]生产方式!C969</f>
         <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:1">
       <c r="A969" s="3">
-        <f>[1]生产方式!C969</f>
+        <f>[1]生产方式!C970</f>
         <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:1">
       <c r="A970" s="3">
-        <f>[1]生产方式!C970</f>
+        <f>[1]生产方式!C971</f>
         <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:1">
       <c r="A971" s="3">
-        <f>[1]生产方式!C971</f>
+        <f>[1]生产方式!C972</f>
         <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:1">
       <c r="A972" s="3">
-        <f>[1]生产方式!C972</f>
+        <f>[1]生产方式!C973</f>
         <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:1">
       <c r="A973" s="3">
-        <f>[1]生产方式!C973</f>
+        <f>[1]生产方式!C974</f>
         <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:1">
       <c r="A974" s="3">
-        <f>[1]生产方式!C974</f>
+        <f>[1]生产方式!C975</f>
         <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:1">
       <c r="A975" s="3">
-        <f>[1]生产方式!C975</f>
+        <f>[1]生产方式!C976</f>
         <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:1">
       <c r="A976" s="3">
-        <f>[1]生产方式!C976</f>
+        <f>[1]生产方式!C977</f>
         <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:1">
       <c r="A977" s="3">
-        <f>[1]生产方式!C977</f>
+        <f>[1]生产方式!C978</f>
         <v>0</v>
       </c>
     </row>
     <row r="978" spans="1:1">
       <c r="A978" s="3">
-        <f>[1]生产方式!C978</f>
+        <f>[1]生产方式!C979</f>
         <v>0</v>
       </c>
     </row>
     <row r="979" spans="1:1">
       <c r="A979" s="3">
-        <f>[1]生产方式!C979</f>
+        <f>[1]生产方式!C980</f>
         <v>0</v>
       </c>
     </row>
     <row r="980" spans="1:1">
       <c r="A980" s="3">
-        <f>[1]生产方式!C980</f>
+        <f>[1]生产方式!C981</f>
         <v>0</v>
       </c>
     </row>
     <row r="981" spans="1:1">
       <c r="A981" s="3">
-        <f>[1]生产方式!C981</f>
+        <f>[1]生产方式!C982</f>
         <v>0</v>
       </c>
     </row>
     <row r="982" spans="1:1">
       <c r="A982" s="3">
-        <f>[1]生产方式!C982</f>
+        <f>[1]生产方式!C983</f>
         <v>0</v>
       </c>
     </row>
     <row r="983" spans="1:1">
       <c r="A983" s="3">
-        <f>[1]生产方式!C983</f>
+        <f>[1]生产方式!C984</f>
         <v>0</v>
       </c>
     </row>
     <row r="984" spans="1:1">
       <c r="A984" s="3">
-        <f>[1]生产方式!C984</f>
+        <f>[1]生产方式!C985</f>
         <v>0</v>
       </c>
     </row>
     <row r="985" spans="1:1">
       <c r="A985" s="3">
-        <f>[1]生产方式!C985</f>
+        <f>[1]生产方式!C986</f>
         <v>0</v>
       </c>
     </row>
     <row r="986" spans="1:1">
       <c r="A986" s="3">
-        <f>[1]生产方式!C986</f>
+        <f>[1]生产方式!C987</f>
         <v>0</v>
       </c>
     </row>
     <row r="987" spans="1:1">
       <c r="A987" s="3">
-        <f>[1]生产方式!C987</f>
+        <f>[1]生产方式!C988</f>
         <v>0</v>
       </c>
     </row>
     <row r="988" spans="1:1">
       <c r="A988" s="3">
-        <f>[1]生产方式!C988</f>
+        <f>[1]生产方式!C989</f>
         <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:1">
       <c r="A989" s="3">
-        <f>[1]生产方式!C989</f>
+        <f>[1]生产方式!C990</f>
         <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:1">
       <c r="A990" s="3">
-        <f>[1]生产方式!C990</f>
+        <f>[1]生产方式!C991</f>
         <v>0</v>
       </c>
     </row>
     <row r="991" spans="1:1">
       <c r="A991" s="3">
-        <f>[1]生产方式!C991</f>
+        <f>[1]生产方式!C992</f>
         <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:1">
       <c r="A992" s="3">
-        <f>[1]生产方式!C992</f>
+        <f>[1]生产方式!C993</f>
         <v>0</v>
       </c>
     </row>
     <row r="993" spans="1:1">
       <c r="A993" s="3">
-        <f>[1]生产方式!C993</f>
+        <f>[1]生产方式!C994</f>
         <v>0</v>
       </c>
     </row>
     <row r="994" spans="1:1">
       <c r="A994" s="3">
-        <f>[1]生产方式!C994</f>
+        <f>[1]生产方式!C995</f>
         <v>0</v>
       </c>
     </row>
     <row r="995" spans="1:1">
       <c r="A995" s="3">
-        <f>[1]生产方式!C995</f>
+        <f>[1]生产方式!C996</f>
         <v>0</v>
       </c>
     </row>
     <row r="996" spans="1:1">
       <c r="A996" s="3">
-        <f>[1]生产方式!C996</f>
+        <f>[1]生产方式!C997</f>
         <v>0</v>
       </c>
     </row>
     <row r="997" spans="1:1">
       <c r="A997" s="3">
-        <f>[1]生产方式!C997</f>
+        <f>[1]生产方式!C998</f>
         <v>0</v>
       </c>
     </row>
     <row r="998" spans="1:1">
       <c r="A998" s="3">
-        <f>[1]生产方式!C998</f>
+        <f>[1]生产方式!C999</f>
         <v>0</v>
       </c>
     </row>
     <row r="999" spans="1:1">
       <c r="A999" s="3">
-        <f>[1]生产方式!C999</f>
+        <f>[1]生产方式!C1000</f>
         <v>0</v>
       </c>
     </row>
@@ -17309,8 +17732,8 @@
   <sheetPr/>
   <dimension ref="A1:G934"/>
   <sheetViews>
-    <sheetView topLeftCell="A904" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G934"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -18216,13 +18639,13 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" t="str">
+      <c r="A31">
         <f>IFERROR(VLOOKUP([1]生产方式!P32,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B31" t="str">
+        <v>30</v>
+      </c>
+      <c r="B31">
         <f>IFERROR(VLOOKUP([1]生产方式!R32,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C31" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!T32,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18246,13 +18669,13 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" t="str">
+      <c r="A32">
         <f>IFERROR(VLOOKUP([1]生产方式!P33,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B32" t="str">
+        <v>30</v>
+      </c>
+      <c r="B32">
         <f>IFERROR(VLOOKUP([1]生产方式!R33,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C32" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!T33,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18276,17 +18699,17 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" t="str">
+      <c r="A33">
         <f>IFERROR(VLOOKUP([1]生产方式!P34,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B33" t="str">
+        <v>30</v>
+      </c>
+      <c r="B33">
         <f>IFERROR(VLOOKUP([1]生产方式!R34,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C33" t="str">
+        <v>40</v>
+      </c>
+      <c r="C33">
         <f>IFERROR(VLOOKUP([1]生产方式!T34,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D33" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V34,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18306,25 +18729,25 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" t="str">
+      <c r="A34">
         <f>IFERROR(VLOOKUP([1]生产方式!P35,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B34" t="str">
+        <v>30</v>
+      </c>
+      <c r="B34">
         <f>IFERROR(VLOOKUP([1]生产方式!R35,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C34" t="str">
+        <v>40</v>
+      </c>
+      <c r="C34">
         <f>IFERROR(VLOOKUP([1]生产方式!T35,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D34" t="str">
+        <v>150</v>
+      </c>
+      <c r="D34">
         <f>IFERROR(VLOOKUP([1]生产方式!V35,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="E34" t="str">
+        <v>120</v>
+      </c>
+      <c r="E34">
         <f>IFERROR(VLOOKUP([1]生产方式!X35,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F34" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!Z35,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18336,17 +18759,17 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" t="str">
+      <c r="A35">
         <f>IFERROR(VLOOKUP([1]生产方式!P36,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B35" t="str">
+        <v>150</v>
+      </c>
+      <c r="B35">
         <f>IFERROR(VLOOKUP([1]生产方式!R36,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C35" t="str">
+        <v>120</v>
+      </c>
+      <c r="C35">
         <f>IFERROR(VLOOKUP([1]生产方式!T36,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D35" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V36,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18356,9 +18779,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X36,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F35" t="str">
+      <c r="F35">
         <f>IFERROR(VLOOKUP([1]生产方式!Z36,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G35" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB36,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18366,17 +18789,17 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" t="str">
+      <c r="A36">
         <f>IFERROR(VLOOKUP([1]生产方式!P37,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B36" t="str">
+        <v>150</v>
+      </c>
+      <c r="B36">
         <f>IFERROR(VLOOKUP([1]生产方式!R37,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C36" t="str">
+        <v>120</v>
+      </c>
+      <c r="C36">
         <f>IFERROR(VLOOKUP([1]生产方式!T37,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D36" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V37,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18386,9 +18809,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X37,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F36" t="str">
+      <c r="F36">
         <f>IFERROR(VLOOKUP([1]生产方式!Z37,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G36" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB37,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18396,29 +18819,29 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" t="str">
+      <c r="A37">
         <f>IFERROR(VLOOKUP([1]生产方式!P38,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B37" t="str">
+        <v>150</v>
+      </c>
+      <c r="B37">
         <f>IFERROR(VLOOKUP([1]生产方式!R38,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C37" t="str">
+        <v>120</v>
+      </c>
+      <c r="C37">
         <f>IFERROR(VLOOKUP([1]生产方式!T38,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D37" t="str">
+        <v>60</v>
+      </c>
+      <c r="D37">
         <f>IFERROR(VLOOKUP([1]生产方式!V38,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="E37" t="str">
+        <v>100</v>
+      </c>
+      <c r="E37">
         <f>IFERROR(VLOOKUP([1]生产方式!X38,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="F37" t="str">
+        <v>40</v>
+      </c>
+      <c r="F37">
         <f>IFERROR(VLOOKUP([1]生产方式!Z38,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G37" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB38,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18460,17 +18883,17 @@
         <f>IFERROR(VLOOKUP([1]生产方式!P40,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39">
         <f>IFERROR(VLOOKUP([1]生产方式!R40,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C39" t="str">
+        <v>120</v>
+      </c>
+      <c r="C39">
         <f>IFERROR(VLOOKUP([1]生产方式!T40,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D39" t="str">
+        <v>150</v>
+      </c>
+      <c r="D39">
         <f>IFERROR(VLOOKUP([1]生产方式!V40,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E39" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!X40,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18490,17 +18913,17 @@
         <f>IFERROR(VLOOKUP([1]生产方式!P41,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40">
         <f>IFERROR(VLOOKUP([1]生产方式!R41,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C40" t="str">
+        <v>120</v>
+      </c>
+      <c r="C40">
         <f>IFERROR(VLOOKUP([1]生产方式!T41,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D40" t="str">
+        <v>150</v>
+      </c>
+      <c r="D40">
         <f>IFERROR(VLOOKUP([1]生产方式!V41,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E40" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!X41,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18520,17 +18943,17 @@
         <f>IFERROR(VLOOKUP([1]生产方式!P42,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41">
         <f>IFERROR(VLOOKUP([1]生产方式!R42,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C41" t="str">
+        <v>120</v>
+      </c>
+      <c r="C41">
         <f>IFERROR(VLOOKUP([1]生产方式!T42,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D41" t="str">
+        <v>150</v>
+      </c>
+      <c r="D41">
         <f>IFERROR(VLOOKUP([1]生产方式!V42,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E41" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!X42,[1]数据表!$B:$C,2,0),"0")</f>
@@ -18546,25 +18969,25 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" t="str">
+      <c r="A42">
         <f>IFERROR(VLOOKUP([1]生产方式!P43,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B42" t="str">
+        <v>40</v>
+      </c>
+      <c r="B42">
         <f>IFERROR(VLOOKUP([1]生产方式!R43,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C42" t="str">
+        <v>120</v>
+      </c>
+      <c r="C42">
         <f>IFERROR(VLOOKUP([1]生产方式!T43,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D42" t="str">
+        <v>150</v>
+      </c>
+      <c r="D42">
         <f>IFERROR(VLOOKUP([1]生产方式!V43,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="E42" t="str">
+        <v>40</v>
+      </c>
+      <c r="E42">
         <f>IFERROR(VLOOKUP([1]生产方式!X43,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F42" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!Z43,[1]数据表!$B:$C,2,0),"0")</f>

--- a/数值设定/生产方式效率显示表.xlsx
+++ b/数值设定/生产方式效率显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="15240" windowWidth="31447" windowHeight="14445"/>
+    <workbookView windowWidth="20932" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -62,16 +62,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -86,21 +93,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +117,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,8 +137,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,23 +162,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,9 +176,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,21 +194,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,18 +233,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -263,37 +251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,7 +275,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +305,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,37 +347,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,13 +365,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,7 +377,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +439,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -450,6 +459,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,53 +513,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,133 +539,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1949,7 +1949,7 @@
             <v>魔偶</v>
           </cell>
           <cell r="AA36">
-            <v>45</v>
+            <v>40</v>
           </cell>
         </row>
         <row r="36">
@@ -1997,7 +1997,7 @@
             <v>魔偶</v>
           </cell>
           <cell r="AA37">
-            <v>60</v>
+            <v>50</v>
           </cell>
         </row>
         <row r="37">
@@ -2055,7 +2055,7 @@
             <v>魔偶</v>
           </cell>
           <cell r="AA38">
-            <v>80</v>
+            <v>70</v>
           </cell>
         </row>
         <row r="38">
@@ -2222,6 +2222,291 @@
         </row>
         <row r="43">
           <cell r="AG43">
+            <v>-150</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44" t="str">
+            <v>精炼</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="P44" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q44">
+            <v>5</v>
+          </cell>
+          <cell r="R44" t="str">
+            <v>钢</v>
+          </cell>
+          <cell r="S44">
+            <v>15</v>
+          </cell>
+          <cell r="T44" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="U44">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="Z44" t="str">
+            <v>秘银</v>
+          </cell>
+          <cell r="AA44">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AE44">
+            <v>1100</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AG44">
+            <v>350</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AI44">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45" t="str">
+            <v>雌雄金属熔铸</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="P45" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q45">
+            <v>15</v>
+          </cell>
+          <cell r="R45" t="str">
+            <v>钢</v>
+          </cell>
+          <cell r="S45">
+            <v>20</v>
+          </cell>
+          <cell r="T45" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="U45">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="Z45" t="str">
+            <v>秘银</v>
+          </cell>
+          <cell r="AA45">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="AE45">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="AG45">
+            <v>450</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="AI45">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46" t="str">
+            <v>元素叠加传送</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="P46" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q46">
+            <v>20</v>
+          </cell>
+          <cell r="R46" t="str">
+            <v>钢</v>
+          </cell>
+          <cell r="S46">
+            <v>25</v>
+          </cell>
+          <cell r="T46" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="U46">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="Z46" t="str">
+            <v>秘银</v>
+          </cell>
+          <cell r="AA46">
+            <v>140</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="AE46">
+            <v>800</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="AG46">
+            <v>650</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="AI46">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47" t="str">
+            <v>无自动化</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48" t="str">
+            <v>基础魔偶</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="P48" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q48">
+            <v>1</v>
+          </cell>
+          <cell r="R48" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S48">
+            <v>1</v>
+          </cell>
+          <cell r="T48" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AE48">
+            <v>-200</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49" t="str">
+            <v>智能魔偶</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="P49" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q49">
+            <v>2</v>
+          </cell>
+          <cell r="R49" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S49">
+            <v>2</v>
+          </cell>
+          <cell r="T49" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U49">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AE49">
+            <v>-300</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AG49">
+            <v>-50</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50" t="str">
+            <v>超智能魔偶</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="P50" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q50">
+            <v>3</v>
+          </cell>
+          <cell r="R50" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S50">
+            <v>3</v>
+          </cell>
+          <cell r="T50" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U50">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AE50">
+            <v>-500</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AG50">
+            <v>-100</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="P51" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q51">
+            <v>2</v>
+          </cell>
+          <cell r="R51" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S51">
+            <v>2</v>
+          </cell>
+          <cell r="T51" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U51">
+            <v>2</v>
+          </cell>
+          <cell r="V51" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="W51">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AE51">
+            <v>-800</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AG51">
             <v>-150</v>
           </cell>
         </row>
@@ -2944,8 +3229,8 @@
   <sheetPr/>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -3872,19 +4157,19 @@
       </c>
       <c r="C36" s="2">
         <f>([1]生产方式!$AA36*数据!F35)+([1]生产方式!$AC36*数据!G35)</f>
-        <v>6750</v>
+        <v>6000</v>
       </c>
       <c r="D36" s="2">
         <f t="shared" si="0"/>
-        <v>5100</v>
+        <v>4350</v>
       </c>
       <c r="E36" s="2">
         <f>D36*1000/([1]生产方式!$AE36+[1]生产方式!$AG36+[1]生产方式!$AI36)</f>
-        <v>3400</v>
+        <v>2900</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="1"/>
-        <v>4.09090909090909</v>
+        <v>3.63636363636364</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3898,19 +4183,19 @@
       </c>
       <c r="C37" s="2">
         <f>([1]生产方式!$AA37*数据!F36)+([1]生产方式!$AC37*数据!G36)</f>
-        <v>9000</v>
+        <v>7500</v>
       </c>
       <c r="D37" s="2">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>4500</v>
       </c>
       <c r="E37" s="2">
         <f>D37*1000/([1]生产方式!$AE37+[1]生产方式!$AG37+[1]生产方式!$AI37)</f>
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3924,19 +4209,19 @@
       </c>
       <c r="C38" s="2">
         <f>([1]生产方式!$AA38*数据!F37)+([1]生产方式!$AC38*数据!G37)</f>
-        <v>12000</v>
+        <v>10500</v>
       </c>
       <c r="D38" s="2">
         <f t="shared" si="0"/>
-        <v>8000</v>
+        <v>6500</v>
       </c>
       <c r="E38" s="2">
         <f>D38*1000/([1]生产方式!$AE38+[1]生产方式!$AG38+[1]生产方式!$AI38)</f>
-        <v>5161.29032258064</v>
+        <v>4193.54838709677</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.625</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4070,87 +4355,87 @@
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="3">
+      <c r="A44" s="3" t="str">
         <f>[1]生产方式!C44</f>
-        <v>0</v>
+        <v>精炼</v>
       </c>
       <c r="B44" s="2">
         <f>([1]生产方式!$Q44*数据!A43)+([1]生产方式!$S44*数据!B43)+([1]生产方式!$U44*数据!C43)+([1]生产方式!$W44*数据!D43)+([1]生产方式!$Y44*数据!E43)</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="C44" s="2">
         <f>([1]生产方式!$AA44*数据!F43)+([1]生产方式!$AC44*数据!G43)</f>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="D44" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="2" t="e">
+        <v>2750</v>
+      </c>
+      <c r="E44" s="2">
         <f>D44*1000/([1]生产方式!$AE44+[1]生产方式!$AG44+[1]生产方式!$AI44)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F44" s="2" t="e">
+        <v>1833.33333333333</v>
+      </c>
+      <c r="F44" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.22222222222222</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3">
+      <c r="A45" s="3" t="str">
         <f>[1]生产方式!C45</f>
-        <v>0</v>
+        <v>雌雄金属熔铸</v>
       </c>
       <c r="B45" s="2">
         <f>([1]生产方式!$Q45*数据!A44)+([1]生产方式!$S45*数据!B44)+([1]生产方式!$U45*数据!C44)+([1]生产方式!$W45*数据!D44)+([1]生产方式!$Y45*数据!E44)</f>
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="C45" s="2">
         <f>([1]生产方式!$AA45*数据!F44)+([1]生产方式!$AC45*数据!G44)</f>
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="D45" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="2" t="e">
+        <v>4750</v>
+      </c>
+      <c r="E45" s="2">
         <f>D45*1000/([1]生产方式!$AE45+[1]生产方式!$AG45+[1]生产方式!$AI45)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F45" s="2" t="e">
+        <v>3166.66666666667</v>
+      </c>
+      <c r="F45" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.9047619047619</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3">
+      <c r="A46" s="3" t="str">
         <f>[1]生产方式!C46</f>
-        <v>0</v>
+        <v>元素叠加传送</v>
       </c>
       <c r="B46" s="2">
         <f>([1]生产方式!$Q46*数据!A45)+([1]生产方式!$S46*数据!B45)+([1]生产方式!$U46*数据!C45)+([1]生产方式!$W46*数据!D45)+([1]生产方式!$Y46*数据!E45)</f>
-        <v>0</v>
+        <v>6900</v>
       </c>
       <c r="C46" s="2">
         <f>([1]生产方式!$AA46*数据!F45)+([1]生产方式!$AC46*数据!G45)</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="D46" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="2" t="e">
+        <v>7100</v>
+      </c>
+      <c r="E46" s="2">
         <f>D46*1000/([1]生产方式!$AE46+[1]生产方式!$AG46+[1]生产方式!$AI46)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F46" s="2" t="e">
+        <v>4580.64516129032</v>
+      </c>
+      <c r="F46" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.02898550724638</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="3">
+      <c r="A47" s="3" t="str">
         <f>[1]生产方式!C47</f>
-        <v>0</v>
+        <v>无自动化</v>
       </c>
       <c r="B47" s="2">
         <f>([1]生产方式!$Q47*数据!A46)+([1]生产方式!$S47*数据!B46)+([1]生产方式!$U47*数据!C46)+([1]生产方式!$W47*数据!D46)+([1]生产方式!$Y47*数据!E46)</f>
@@ -4174,13 +4459,13 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3">
+      <c r="A48" s="3" t="str">
         <f>[1]生产方式!C48</f>
-        <v>0</v>
+        <v>基础魔偶</v>
       </c>
       <c r="B48" s="2">
         <f>([1]生产方式!$Q48*数据!A47)+([1]生产方式!$S48*数据!B47)+([1]生产方式!$U48*数据!C47)+([1]生产方式!$W48*数据!D47)+([1]生产方式!$Y48*数据!E47)</f>
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="C48" s="2">
         <f>([1]生产方式!$AA48*数据!F47)+([1]生产方式!$AC48*数据!G47)</f>
@@ -4188,25 +4473,25 @@
       </c>
       <c r="D48" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="2" t="e">
+        <v>-310</v>
+      </c>
+      <c r="E48" s="2">
         <f>D48*1000/([1]生产方式!$AE48+[1]生产方式!$AG48+[1]生产方式!$AI48)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F48" s="2" t="e">
+        <v>1550</v>
+      </c>
+      <c r="F48" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3">
+      <c r="A49" s="3" t="str">
         <f>[1]生产方式!C49</f>
-        <v>0</v>
+        <v>智能魔偶</v>
       </c>
       <c r="B49" s="2">
         <f>([1]生产方式!$Q49*数据!A48)+([1]生产方式!$S49*数据!B48)+([1]生产方式!$U49*数据!C48)+([1]生产方式!$W49*数据!D48)+([1]生产方式!$Y49*数据!E48)</f>
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="C49" s="2">
         <f>([1]生产方式!$AA49*数据!F48)+([1]生产方式!$AC49*数据!G48)</f>
@@ -4214,25 +4499,25 @@
       </c>
       <c r="D49" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E49" s="2" t="e">
+        <v>-620</v>
+      </c>
+      <c r="E49" s="2">
         <f>D49*1000/([1]生产方式!$AE49+[1]生产方式!$AG49+[1]生产方式!$AI49)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F49" s="2" t="e">
+        <v>1771.42857142857</v>
+      </c>
+      <c r="F49" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3">
+      <c r="A50" s="3" t="str">
         <f>[1]生产方式!C50</f>
-        <v>0</v>
+        <v>超智能魔偶</v>
       </c>
       <c r="B50" s="2">
         <f>([1]生产方式!$Q50*数据!A49)+([1]生产方式!$S50*数据!B49)+([1]生产方式!$U50*数据!C49)+([1]生产方式!$W50*数据!D49)+([1]生产方式!$Y50*数据!E49)</f>
-        <v>0</v>
+        <v>930</v>
       </c>
       <c r="C50" s="2">
         <f>([1]生产方式!$AA50*数据!F49)+([1]生产方式!$AC50*数据!G49)</f>
@@ -4240,15 +4525,15 @@
       </c>
       <c r="D50" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="2" t="e">
+        <v>-930</v>
+      </c>
+      <c r="E50" s="2">
         <f>D50*1000/([1]生产方式!$AE50+[1]生产方式!$AG50+[1]生产方式!$AI50)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F50" s="2" t="e">
+        <v>1550</v>
+      </c>
+      <c r="F50" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4258,7 +4543,7 @@
       </c>
       <c r="B51" s="2">
         <f>([1]生产方式!$Q51*数据!A50)+([1]生产方式!$S51*数据!B50)+([1]生产方式!$U51*数据!C50)+([1]生产方式!$W51*数据!D50)+([1]生产方式!$Y51*数据!E50)</f>
-        <v>0</v>
+        <v>770</v>
       </c>
       <c r="C51" s="2">
         <f>([1]生产方式!$AA51*数据!F50)+([1]生产方式!$AC51*数据!G50)</f>
@@ -4266,15 +4551,15 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E51" s="2" t="e">
+        <v>-770</v>
+      </c>
+      <c r="E51" s="2">
         <f>D51*1000/([1]生产方式!$AE51+[1]生产方式!$AG51+[1]生产方式!$AI51)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F51" s="2" t="e">
+        <v>810.526315789474</v>
+      </c>
+      <c r="F51" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -11337,7 +11622,7 @@
         <v>0</v>
       </c>
       <c r="D323" s="2">
-        <f>C323-B323</f>
+        <f t="shared" ref="D323:D341" si="10">C323-B323</f>
         <v>0</v>
       </c>
       <c r="E323" s="2" t="e">
@@ -11345,7 +11630,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F323" s="2" t="e">
-        <f>C323/B323</f>
+        <f t="shared" ref="F323:F341" si="11">C323/B323</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11363,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="D324" s="2">
-        <f>C324-B324</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E324" s="2" t="e">
@@ -11371,7 +11656,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F324" s="2" t="e">
-        <f>C324/B324</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11389,7 +11674,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="2">
-        <f>C325-B325</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E325" s="2" t="e">
@@ -11397,7 +11682,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F325" s="2" t="e">
-        <f>C325/B325</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11415,7 +11700,7 @@
         <v>0</v>
       </c>
       <c r="D326" s="2">
-        <f>C326-B326</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E326" s="2" t="e">
@@ -11423,7 +11708,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F326" s="2" t="e">
-        <f>C326/B326</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11441,7 +11726,7 @@
         <v>0</v>
       </c>
       <c r="D327" s="2">
-        <f>C327-B327</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E327" s="2" t="e">
@@ -11449,7 +11734,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F327" s="2" t="e">
-        <f>C327/B327</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11467,7 +11752,7 @@
         <v>0</v>
       </c>
       <c r="D328" s="2">
-        <f>C328-B328</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E328" s="2" t="e">
@@ -11475,7 +11760,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F328" s="2" t="e">
-        <f>C328/B328</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11493,7 +11778,7 @@
         <v>0</v>
       </c>
       <c r="D329" s="2">
-        <f>C329-B329</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E329" s="2" t="e">
@@ -11501,7 +11786,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F329" s="2" t="e">
-        <f>C329/B329</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11519,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="D330" s="2">
-        <f>C330-B330</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E330" s="2" t="e">
@@ -11527,7 +11812,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F330" s="2" t="e">
-        <f>C330/B330</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11545,7 +11830,7 @@
         <v>0</v>
       </c>
       <c r="D331" s="2">
-        <f>C331-B331</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E331" s="2" t="e">
@@ -11553,7 +11838,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F331" s="2" t="e">
-        <f>C331/B331</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11571,7 +11856,7 @@
         <v>0</v>
       </c>
       <c r="D332" s="2">
-        <f>C332-B332</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E332" s="2" t="e">
@@ -11579,7 +11864,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F332" s="2" t="e">
-        <f>C332/B332</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11597,7 +11882,7 @@
         <v>0</v>
       </c>
       <c r="D333" s="2">
-        <f>C333-B333</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E333" s="2" t="e">
@@ -11605,7 +11890,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F333" s="2" t="e">
-        <f>C333/B333</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11623,7 +11908,7 @@
         <v>0</v>
       </c>
       <c r="D334" s="2">
-        <f>C334-B334</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E334" s="2" t="e">
@@ -11631,7 +11916,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F334" s="2" t="e">
-        <f>C334/B334</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11649,7 +11934,7 @@
         <v>0</v>
       </c>
       <c r="D335" s="2">
-        <f>C335-B335</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E335" s="2" t="e">
@@ -11657,7 +11942,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F335" s="2" t="e">
-        <f>C335/B335</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11675,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="D336" s="2">
-        <f>C336-B336</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E336" s="2" t="e">
@@ -11683,7 +11968,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F336" s="2" t="e">
-        <f>C336/B336</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11701,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="D337" s="2">
-        <f>C337-B337</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E337" s="2" t="e">
@@ -11709,7 +11994,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F337" s="2" t="e">
-        <f>C337/B337</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11727,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="D338" s="2">
-        <f>C338-B338</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E338" s="2" t="e">
@@ -11735,7 +12020,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F338" s="2" t="e">
-        <f>C338/B338</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11753,7 +12038,7 @@
         <v>0</v>
       </c>
       <c r="D339" s="2">
-        <f>C339-B339</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E339" s="2" t="e">
@@ -11761,7 +12046,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F339" s="2" t="e">
-        <f>C339/B339</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11779,7 +12064,7 @@
         <v>0</v>
       </c>
       <c r="D340" s="2">
-        <f>C340-B340</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E340" s="2" t="e">
@@ -11787,7 +12072,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F340" s="2" t="e">
-        <f>C340/B340</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11805,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="D341" s="2">
-        <f>C341-B341</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E341" s="2" t="e">
@@ -11813,7 +12098,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F341" s="2" t="e">
-        <f>C341/B341</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -11831,7 +12116,7 @@
         <v>0</v>
       </c>
       <c r="D342" s="2">
-        <f t="shared" ref="D323:D386" si="10">C342-B342</f>
+        <f t="shared" ref="D323:D386" si="12">C342-B342</f>
         <v>0</v>
       </c>
       <c r="E342" s="2" t="e">
@@ -11853,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E343" s="2" t="e">
@@ -11875,7 +12160,7 @@
         <v>0</v>
       </c>
       <c r="D344" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E344" s="2" t="e">
@@ -11897,7 +12182,7 @@
         <v>0</v>
       </c>
       <c r="D345" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E345" s="2" t="e">
@@ -11919,7 +12204,7 @@
         <v>0</v>
       </c>
       <c r="D346" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E346" s="2" t="e">
@@ -11941,7 +12226,7 @@
         <v>0</v>
       </c>
       <c r="D347" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E347" s="2" t="e">
@@ -11963,7 +12248,7 @@
         <v>0</v>
       </c>
       <c r="D348" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E348" s="2" t="e">
@@ -11985,7 +12270,7 @@
         <v>0</v>
       </c>
       <c r="D349" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E349" s="2" t="e">
@@ -12007,7 +12292,7 @@
         <v>0</v>
       </c>
       <c r="D350" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E350" s="2" t="e">
@@ -12029,7 +12314,7 @@
         <v>0</v>
       </c>
       <c r="D351" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E351" s="2" t="e">
@@ -12051,7 +12336,7 @@
         <v>0</v>
       </c>
       <c r="D352" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E352" s="2" t="e">
@@ -12073,7 +12358,7 @@
         <v>0</v>
       </c>
       <c r="D353" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E353" s="2" t="e">
@@ -12095,7 +12380,7 @@
         <v>0</v>
       </c>
       <c r="D354" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E354" s="2" t="e">
@@ -12117,7 +12402,7 @@
         <v>0</v>
       </c>
       <c r="D355" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E355" s="2" t="e">
@@ -12139,7 +12424,7 @@
         <v>0</v>
       </c>
       <c r="D356" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E356" s="2" t="e">
@@ -12161,7 +12446,7 @@
         <v>0</v>
       </c>
       <c r="D357" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E357" s="2" t="e">
@@ -12183,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="D358" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E358" s="2" t="e">
@@ -12205,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="D359" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E359" s="2" t="e">
@@ -12227,7 +12512,7 @@
         <v>0</v>
       </c>
       <c r="D360" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E360" s="2" t="e">
@@ -12249,7 +12534,7 @@
         <v>0</v>
       </c>
       <c r="D361" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E361" s="2" t="e">
@@ -12271,7 +12556,7 @@
         <v>0</v>
       </c>
       <c r="D362" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E362" s="2" t="e">
@@ -12293,7 +12578,7 @@
         <v>0</v>
       </c>
       <c r="D363" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E363" s="2" t="e">
@@ -12315,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="D364" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E364" s="2" t="e">
@@ -12337,7 +12622,7 @@
         <v>0</v>
       </c>
       <c r="D365" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E365" s="2" t="e">
@@ -12359,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="D366" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E366" s="2" t="e">
@@ -12381,7 +12666,7 @@
         <v>0</v>
       </c>
       <c r="D367" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E367" s="2" t="e">
@@ -12403,7 +12688,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E368" s="2" t="e">
@@ -12425,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="D369" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E369" s="2" t="e">
@@ -12447,7 +12732,7 @@
         <v>0</v>
       </c>
       <c r="D370" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E370" s="2" t="e">
@@ -12469,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="D371" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E371" s="2" t="e">
@@ -12491,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="D372" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E372" s="2" t="e">
@@ -12513,7 +12798,7 @@
         <v>0</v>
       </c>
       <c r="D373" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E373" s="2" t="e">
@@ -12535,7 +12820,7 @@
         <v>0</v>
       </c>
       <c r="D374" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E374" s="2" t="e">
@@ -12557,7 +12842,7 @@
         <v>0</v>
       </c>
       <c r="D375" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E375" s="2" t="e">
@@ -12579,7 +12864,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E376" s="2" t="e">
@@ -12601,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="D377" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E377" s="2" t="e">
@@ -12623,7 +12908,7 @@
         <v>0</v>
       </c>
       <c r="D378" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E378" s="2" t="e">
@@ -12641,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E379" s="2" t="e">
@@ -12659,7 +12944,7 @@
         <v>0</v>
       </c>
       <c r="D380" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E380" s="2" t="e">
@@ -12677,7 +12962,7 @@
         <v>0</v>
       </c>
       <c r="D381" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E381" s="2" t="e">
@@ -12695,7 +12980,7 @@
         <v>0</v>
       </c>
       <c r="D382" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E382" s="2" t="e">
@@ -12713,7 +12998,7 @@
         <v>0</v>
       </c>
       <c r="D383" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E383" s="2" t="e">
@@ -12731,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="D384" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E384" s="2" t="e">
@@ -12749,7 +13034,7 @@
         <v>0</v>
       </c>
       <c r="D385" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E385" s="2" t="e">
@@ -12767,7 +13052,7 @@
         <v>0</v>
       </c>
       <c r="D386" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E386" s="2" t="e">
@@ -12785,7 +13070,7 @@
         <v>0</v>
       </c>
       <c r="D387" s="2">
-        <f t="shared" ref="D387:D450" si="11">C387-B387</f>
+        <f t="shared" ref="D387:D450" si="13">C387-B387</f>
         <v>0</v>
       </c>
       <c r="E387" s="2" t="e">
@@ -12803,7 +13088,7 @@
         <v>0</v>
       </c>
       <c r="D388" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E388" s="2" t="e">
@@ -12821,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="D389" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E389" s="2" t="e">
@@ -12839,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E390" s="2" t="e">
@@ -12857,7 +13142,7 @@
         <v>0</v>
       </c>
       <c r="D391" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E391" s="2" t="e">
@@ -12875,7 +13160,7 @@
         <v>0</v>
       </c>
       <c r="D392" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E392" s="2" t="e">
@@ -12893,7 +13178,7 @@
         <v>0</v>
       </c>
       <c r="D393" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E393" s="2" t="e">
@@ -12911,7 +13196,7 @@
         <v>0</v>
       </c>
       <c r="D394" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E394" s="2" t="e">
@@ -12929,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E395" s="2" t="e">
@@ -12947,7 +13232,7 @@
         <v>0</v>
       </c>
       <c r="D396" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E396" s="2" t="e">
@@ -12965,7 +13250,7 @@
         <v>0</v>
       </c>
       <c r="D397" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E397" s="2" t="e">
@@ -12983,7 +13268,7 @@
         <v>0</v>
       </c>
       <c r="D398" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E398" s="2" t="e">
@@ -13001,7 +13286,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E399" s="2" t="e">
@@ -13019,7 +13304,7 @@
         <v>0</v>
       </c>
       <c r="D400" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E400" s="2" t="e">
@@ -13037,7 +13322,7 @@
         <v>0</v>
       </c>
       <c r="D401" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E401" s="2" t="e">
@@ -13055,7 +13340,7 @@
         <v>0</v>
       </c>
       <c r="D402" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E402" s="2" t="e">
@@ -13073,7 +13358,7 @@
         <v>0</v>
       </c>
       <c r="D403" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E403" s="2" t="e">
@@ -13091,7 +13376,7 @@
         <v>0</v>
       </c>
       <c r="D404" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E404" s="2" t="e">
@@ -13109,7 +13394,7 @@
         <v>0</v>
       </c>
       <c r="D405" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E405" s="2" t="e">
@@ -13127,7 +13412,7 @@
         <v>0</v>
       </c>
       <c r="D406" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E406" s="2" t="e">
@@ -13145,7 +13430,7 @@
         <v>0</v>
       </c>
       <c r="D407" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E407" s="2" t="e">
@@ -13163,7 +13448,7 @@
         <v>0</v>
       </c>
       <c r="D408" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E408" s="2" t="e">
@@ -13181,7 +13466,7 @@
         <v>0</v>
       </c>
       <c r="D409" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E409" s="2" t="e">
@@ -13199,7 +13484,7 @@
         <v>0</v>
       </c>
       <c r="D410" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E410" s="2" t="e">
@@ -13217,7 +13502,7 @@
         <v>0</v>
       </c>
       <c r="D411" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E411" s="2" t="e">
@@ -13235,7 +13520,7 @@
         <v>0</v>
       </c>
       <c r="D412" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E412" s="2" t="e">
@@ -13253,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="D413" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E413" s="2" t="e">
@@ -13271,7 +13556,7 @@
         <v>0</v>
       </c>
       <c r="D414" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E414" s="2" t="e">
@@ -13289,7 +13574,7 @@
         <v>0</v>
       </c>
       <c r="D415" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E415" s="2" t="e">
@@ -13307,7 +13592,7 @@
         <v>0</v>
       </c>
       <c r="D416" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E416" s="2" t="e">
@@ -13325,7 +13610,7 @@
         <v>0</v>
       </c>
       <c r="D417" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E417" s="2" t="e">
@@ -13343,7 +13628,7 @@
         <v>0</v>
       </c>
       <c r="D418" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E418" s="2" t="e">
@@ -13361,7 +13646,7 @@
         <v>0</v>
       </c>
       <c r="D419" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E419" s="2" t="e">
@@ -13379,7 +13664,7 @@
         <v>0</v>
       </c>
       <c r="D420" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E420" s="2" t="e">
@@ -13397,7 +13682,7 @@
         <v>0</v>
       </c>
       <c r="D421" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E421" s="2" t="e">
@@ -13415,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="D422" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E422" s="2" t="e">
@@ -13433,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="D423" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E423" s="2" t="e">
@@ -13451,7 +13736,7 @@
         <v>0</v>
       </c>
       <c r="D424" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E424" s="2" t="e">
@@ -13469,7 +13754,7 @@
         <v>0</v>
       </c>
       <c r="D425" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E425" s="2" t="e">
@@ -13487,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="D426" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E426" s="2" t="e">
@@ -13505,7 +13790,7 @@
         <v>0</v>
       </c>
       <c r="D427" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E427" s="2" t="e">
@@ -13523,7 +13808,7 @@
         <v>0</v>
       </c>
       <c r="D428" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E428" s="2" t="e">
@@ -13541,7 +13826,7 @@
         <v>0</v>
       </c>
       <c r="D429" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E429" s="2" t="e">
@@ -13559,7 +13844,7 @@
         <v>0</v>
       </c>
       <c r="D430" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E430" s="2" t="e">
@@ -13577,7 +13862,7 @@
         <v>0</v>
       </c>
       <c r="D431" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E431" s="2" t="e">
@@ -13595,7 +13880,7 @@
         <v>0</v>
       </c>
       <c r="D432" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E432" s="2" t="e">
@@ -13613,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="D433" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E433" s="2" t="e">
@@ -13631,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="D434" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E434" s="2" t="e">
@@ -13649,7 +13934,7 @@
         <v>0</v>
       </c>
       <c r="D435" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E435" s="2" t="e">
@@ -13667,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="D436" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E436" s="2" t="e">
@@ -13685,7 +13970,7 @@
         <v>0</v>
       </c>
       <c r="D437" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E437" s="2" t="e">
@@ -13703,7 +13988,7 @@
         <v>0</v>
       </c>
       <c r="D438" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E438" s="2" t="e">
@@ -13721,7 +14006,7 @@
         <v>0</v>
       </c>
       <c r="D439" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E439" s="2" t="e">
@@ -13739,7 +14024,7 @@
         <v>0</v>
       </c>
       <c r="D440" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E440" s="2" t="e">
@@ -13757,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="D441" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E441" s="2" t="e">
@@ -13775,7 +14060,7 @@
         <v>0</v>
       </c>
       <c r="D442" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E442" s="2" t="e">
@@ -13793,7 +14078,7 @@
         <v>0</v>
       </c>
       <c r="D443" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E443" s="2" t="e">
@@ -13811,7 +14096,7 @@
         <v>0</v>
       </c>
       <c r="D444" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E444" s="2" t="e">
@@ -13829,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="D445" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E445" s="2" t="e">
@@ -13847,7 +14132,7 @@
         <v>0</v>
       </c>
       <c r="D446" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E446" s="2" t="e">
@@ -13865,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="D447" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E447" s="2" t="e">
@@ -13883,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="D448" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E448" s="2" t="e">
@@ -13901,7 +14186,7 @@
         <v>0</v>
       </c>
       <c r="D449" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E449" s="2" t="e">
@@ -13919,7 +14204,7 @@
         <v>0</v>
       </c>
       <c r="D450" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E450" s="2" t="e">
@@ -13937,7 +14222,7 @@
         <v>0</v>
       </c>
       <c r="D451" s="2">
-        <f t="shared" ref="D451:D502" si="12">C451-B451</f>
+        <f t="shared" ref="D451:D502" si="14">C451-B451</f>
         <v>0</v>
       </c>
       <c r="E451" s="2" t="e">
@@ -13955,7 +14240,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E452" s="2" t="e">
@@ -13973,7 +14258,7 @@
         <v>0</v>
       </c>
       <c r="D453" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E453" s="2" t="e">
@@ -13991,7 +14276,7 @@
         <v>0</v>
       </c>
       <c r="D454" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E454" s="2" t="e">
@@ -14009,7 +14294,7 @@
         <v>0</v>
       </c>
       <c r="D455" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E455" s="2" t="e">
@@ -14027,7 +14312,7 @@
         <v>0</v>
       </c>
       <c r="D456" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E456" s="2" t="e">
@@ -14045,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="D457" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E457" s="2" t="e">
@@ -14063,7 +14348,7 @@
         <v>0</v>
       </c>
       <c r="D458" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E458" s="2" t="e">
@@ -14081,7 +14366,7 @@
         <v>0</v>
       </c>
       <c r="D459" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E459" s="2" t="e">
@@ -14099,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="D460" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E460" s="2" t="e">
@@ -14117,7 +14402,7 @@
         <v>0</v>
       </c>
       <c r="D461" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E461" s="2" t="e">
@@ -14135,7 +14420,7 @@
         <v>0</v>
       </c>
       <c r="D462" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E462" s="2" t="e">
@@ -14153,7 +14438,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E463" s="2" t="e">
@@ -14171,7 +14456,7 @@
         <v>0</v>
       </c>
       <c r="D464" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E464" s="2" t="e">
@@ -14189,7 +14474,7 @@
         <v>0</v>
       </c>
       <c r="D465" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E465" s="2" t="e">
@@ -14207,7 +14492,7 @@
         <v>0</v>
       </c>
       <c r="D466" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E466" s="2" t="e">
@@ -14225,7 +14510,7 @@
         <v>0</v>
       </c>
       <c r="D467" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E467" s="2" t="e">
@@ -14243,7 +14528,7 @@
         <v>0</v>
       </c>
       <c r="D468" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E468" s="2" t="e">
@@ -14261,7 +14546,7 @@
         <v>0</v>
       </c>
       <c r="D469" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E469" s="2" t="e">
@@ -14279,7 +14564,7 @@
         <v>0</v>
       </c>
       <c r="D470" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E470" s="2" t="e">
@@ -14297,7 +14582,7 @@
         <v>0</v>
       </c>
       <c r="D471" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E471" s="2" t="e">
@@ -14315,7 +14600,7 @@
         <v>0</v>
       </c>
       <c r="D472" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14329,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="D473" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14343,7 +14628,7 @@
         <v>0</v>
       </c>
       <c r="D474" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14357,7 +14642,7 @@
         <v>0</v>
       </c>
       <c r="D475" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14371,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="D476" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14385,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="D477" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14399,7 +14684,7 @@
         <v>0</v>
       </c>
       <c r="D478" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14413,7 +14698,7 @@
         <v>0</v>
       </c>
       <c r="D479" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14427,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="D480" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14441,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="D481" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14455,7 +14740,7 @@
         <v>0</v>
       </c>
       <c r="D482" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14469,7 +14754,7 @@
         <v>0</v>
       </c>
       <c r="D483" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14483,7 +14768,7 @@
         <v>0</v>
       </c>
       <c r="D484" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14497,7 +14782,7 @@
         <v>0</v>
       </c>
       <c r="D485" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14511,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="D486" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14525,7 +14810,7 @@
         <v>0</v>
       </c>
       <c r="D487" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14539,7 +14824,7 @@
         <v>0</v>
       </c>
       <c r="D488" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14553,7 +14838,7 @@
         <v>0</v>
       </c>
       <c r="D489" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14567,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="D490" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14581,7 +14866,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14595,7 +14880,7 @@
         <v>0</v>
       </c>
       <c r="D492" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14609,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="D493" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14623,7 +14908,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14637,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="D495" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14651,7 +14936,7 @@
         <v>0</v>
       </c>
       <c r="D496" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14665,7 +14950,7 @@
         <v>0</v>
       </c>
       <c r="D497" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14679,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="D498" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14693,7 +14978,7 @@
         <v>0</v>
       </c>
       <c r="D499" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14707,7 +14992,7 @@
         <v>0</v>
       </c>
       <c r="D500" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14721,7 +15006,7 @@
         <v>0</v>
       </c>
       <c r="D501" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -14735,7 +15020,7 @@
         <v>0</v>
       </c>
       <c r="D502" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17732,8 +18017,8 @@
   <sheetPr/>
   <dimension ref="A1:G934"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -18999,17 +19284,17 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" t="str">
+      <c r="A43">
         <f>IFERROR(VLOOKUP([1]生产方式!P44,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B43" t="str">
+        <v>150</v>
+      </c>
+      <c r="B43">
         <f>IFERROR(VLOOKUP([1]生产方式!R44,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C43" t="str">
+        <v>60</v>
+      </c>
+      <c r="C43">
         <f>IFERROR(VLOOKUP([1]生产方式!T44,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D43" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V44,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19019,9 +19304,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X44,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F43" t="str">
+      <c r="F43">
         <f>IFERROR(VLOOKUP([1]生产方式!Z44,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB44,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19029,17 +19314,17 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" t="str">
+      <c r="A44">
         <f>IFERROR(VLOOKUP([1]生产方式!P45,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B44" t="str">
+        <v>150</v>
+      </c>
+      <c r="B44">
         <f>IFERROR(VLOOKUP([1]生产方式!R45,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C44" t="str">
+        <v>60</v>
+      </c>
+      <c r="C44">
         <f>IFERROR(VLOOKUP([1]生产方式!T45,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D44" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V45,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19049,9 +19334,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X45,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F44" t="str">
+      <c r="F44">
         <f>IFERROR(VLOOKUP([1]生产方式!Z45,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB45,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19059,17 +19344,17 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="str">
+      <c r="A45">
         <f>IFERROR(VLOOKUP([1]生产方式!P46,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B45" t="str">
+        <v>150</v>
+      </c>
+      <c r="B45">
         <f>IFERROR(VLOOKUP([1]生产方式!R46,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C45" t="str">
+        <v>60</v>
+      </c>
+      <c r="C45">
         <f>IFERROR(VLOOKUP([1]生产方式!T46,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D45" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V46,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19079,9 +19364,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X46,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F45" t="str">
+      <c r="F45">
         <f>IFERROR(VLOOKUP([1]生产方式!Z46,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB46,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19119,17 +19404,17 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" t="str">
+      <c r="A47">
         <f>IFERROR(VLOOKUP([1]生产方式!P48,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B47" t="str">
+        <v>120</v>
+      </c>
+      <c r="B47">
         <f>IFERROR(VLOOKUP([1]生产方式!R48,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C47" t="str">
+        <v>150</v>
+      </c>
+      <c r="C47">
         <f>IFERROR(VLOOKUP([1]生产方式!T48,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D47" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V48,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19149,17 +19434,17 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="str">
+      <c r="A48">
         <f>IFERROR(VLOOKUP([1]生产方式!P49,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B48" t="str">
+        <v>120</v>
+      </c>
+      <c r="B48">
         <f>IFERROR(VLOOKUP([1]生产方式!R49,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C48" t="str">
+        <v>150</v>
+      </c>
+      <c r="C48">
         <f>IFERROR(VLOOKUP([1]生产方式!T49,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D48" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V49,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19179,17 +19464,17 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" t="str">
+      <c r="A49">
         <f>IFERROR(VLOOKUP([1]生产方式!P50,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B49" t="str">
+        <v>120</v>
+      </c>
+      <c r="B49">
         <f>IFERROR(VLOOKUP([1]生产方式!R50,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C49" t="str">
+        <v>150</v>
+      </c>
+      <c r="C49">
         <f>IFERROR(VLOOKUP([1]生产方式!T50,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D49" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V50,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19209,21 +19494,21 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" t="str">
+      <c r="A50">
         <f>IFERROR(VLOOKUP([1]生产方式!P51,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B50" t="str">
+        <v>120</v>
+      </c>
+      <c r="B50">
         <f>IFERROR(VLOOKUP([1]生产方式!R51,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C50" t="str">
+        <v>150</v>
+      </c>
+      <c r="C50">
         <f>IFERROR(VLOOKUP([1]生产方式!T51,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D50" t="str">
+        <v>40</v>
+      </c>
+      <c r="D50">
         <f>IFERROR(VLOOKUP([1]生产方式!V51,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E50" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!X51,[1]数据表!$B:$C,2,0),"0")</f>

--- a/数值设定/生产方式效率显示表.xlsx
+++ b/数值设定/生产方式效率显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20932" windowHeight="12390"/>
+    <workbookView windowWidth="21345" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -62,14 +62,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -78,10 +70,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -93,17 +93,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,16 +136,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,24 +160,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,16 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +233,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,49 +353,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,55 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,31 +395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,30 +420,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +457,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,6 +468,32 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -513,11 +515,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,13 +542,13 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,13 +557,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,100 +572,100 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2475,6 +2475,11 @@
           </cell>
         </row>
         <row r="51">
+          <cell r="C51" t="str">
+            <v>魔偶流水线</v>
+          </cell>
+        </row>
+        <row r="51">
           <cell r="P51" t="str">
             <v>灵能水晶</v>
           </cell>
@@ -2497,6 +2502,12 @@
             <v>煤炭</v>
           </cell>
           <cell r="W51">
+            <v>5</v>
+          </cell>
+          <cell r="X51" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="Y51">
             <v>5</v>
           </cell>
         </row>
@@ -2508,6 +2519,78 @@
         <row r="51">
           <cell r="AG51">
             <v>-150</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52" t="str">
+            <v>养殖提取</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="P52" t="str">
+            <v>谷物</v>
+          </cell>
+          <cell r="Q52">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="Z52" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="AA52">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AE52">
+            <v>500</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AG52">
+            <v>3500</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AI52">
+            <v>900</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53" t="str">
+            <v>尸体榨取</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="P53" t="str">
+            <v>谷物</v>
+          </cell>
+          <cell r="Q53">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="Z53" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="AA53">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AE53">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AG53">
+            <v>2500</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AI53">
+            <v>900</v>
           </cell>
         </row>
       </sheetData>
@@ -3229,8 +3312,8 @@
   <sheetPr/>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4537,13 +4620,13 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3">
+      <c r="A51" s="3" t="str">
         <f>[1]生产方式!C51</f>
-        <v>0</v>
+        <v>魔偶流水线</v>
       </c>
       <c r="B51" s="2">
         <f>([1]生产方式!$Q51*数据!A50)+([1]生产方式!$S51*数据!B50)+([1]生产方式!$U51*数据!C50)+([1]生产方式!$W51*数据!D50)+([1]生产方式!$Y51*数据!E50)</f>
-        <v>770</v>
+        <v>970</v>
       </c>
       <c r="C51" s="2">
         <f>([1]生产方式!$AA51*数据!F50)+([1]生产方式!$AC51*数据!G50)</f>
@@ -4551,11 +4634,11 @@
       </c>
       <c r="D51" s="2">
         <f t="shared" si="0"/>
-        <v>-770</v>
+        <v>-970</v>
       </c>
       <c r="E51" s="2">
         <f>D51*1000/([1]生产方式!$AE51+[1]生产方式!$AG51+[1]生产方式!$AI51)</f>
-        <v>810.526315789474</v>
+        <v>1021.05263157895</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="1"/>
@@ -4563,55 +4646,55 @@
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="3">
+      <c r="A52" s="3" t="str">
         <f>[1]生产方式!C52</f>
-        <v>0</v>
+        <v>养殖提取</v>
       </c>
       <c r="B52" s="2">
         <f>([1]生产方式!$Q52*数据!A51)+([1]生产方式!$S52*数据!B51)+([1]生产方式!$U52*数据!C51)+([1]生产方式!$W52*数据!D51)+([1]生产方式!$Y52*数据!E51)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C52" s="2">
         <f>([1]生产方式!$AA52*数据!F51)+([1]生产方式!$AC52*数据!G51)</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D52" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="2" t="e">
+        <v>900</v>
+      </c>
+      <c r="E52" s="2">
         <f>D52*1000/([1]生产方式!$AE52+[1]生产方式!$AG52+[1]生产方式!$AI52)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F52" s="2" t="e">
+        <v>183.673469387755</v>
+      </c>
+      <c r="F52" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="3">
+      <c r="A53" s="3" t="str">
         <f>[1]生产方式!C53</f>
-        <v>0</v>
+        <v>尸体榨取</v>
       </c>
       <c r="B53" s="2">
         <f>([1]生产方式!$Q53*数据!A52)+([1]生产方式!$S53*数据!B52)+([1]生产方式!$U53*数据!C52)+([1]生产方式!$W53*数据!D52)+([1]生产方式!$Y53*数据!E52)</f>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="C53" s="2">
         <f>([1]生产方式!$AA53*数据!F52)+([1]生产方式!$AC53*数据!G52)</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="D53" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E53" s="2" t="e">
+        <v>5800</v>
+      </c>
+      <c r="E53" s="2">
         <f>D53*1000/([1]生产方式!$AE53+[1]生产方式!$AG53+[1]生产方式!$AI53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F53" s="2" t="e">
+        <v>1318.18181818182</v>
+      </c>
+      <c r="F53" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -19510,9 +19593,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!V51,[1]数据表!$B:$C,2,0),"0")</f>
         <v>30</v>
       </c>
-      <c r="E50" t="str">
+      <c r="E50">
         <f>IFERROR(VLOOKUP([1]生产方式!X51,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F50" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!Z51,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19524,9 +19607,9 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" t="str">
+      <c r="A51">
         <f>IFERROR(VLOOKUP([1]生产方式!P52,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B51" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!R52,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19544,9 +19627,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X52,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F51" t="str">
+      <c r="F51">
         <f>IFERROR(VLOOKUP([1]生产方式!Z52,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G51" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB52,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19554,9 +19637,9 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" t="str">
+      <c r="A52">
         <f>IFERROR(VLOOKUP([1]生产方式!P53,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B52" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!R53,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19574,9 +19657,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X53,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F52" t="str">
+      <c r="F52">
         <f>IFERROR(VLOOKUP([1]生产方式!Z53,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="G52" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB53,[1]数据表!$B:$C,2,0),"0")</f>

--- a/数值设定/生产方式效率显示表.xlsx
+++ b/数值设定/生产方式效率显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21345" windowHeight="12390"/>
+    <workbookView windowWidth="22102" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,6 +69,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -85,88 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -177,7 +162,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,7 +185,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +233,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,13 +251,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,7 +281,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,49 +329,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,67 +371,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,21 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -466,8 +451,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,11 +474,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,9 +513,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,10 +527,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,10 +539,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -551,118 +551,118 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2591,6 +2591,637 @@
         <row r="53">
           <cell r="AI53">
             <v>900</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54" t="str">
+            <v>标准法杖</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="P54" t="str">
+            <v>硬木</v>
+          </cell>
+          <cell r="Q54">
+            <v>5</v>
+          </cell>
+          <cell r="R54" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="S54">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="Z54" t="str">
+            <v>魔能轻武器</v>
+          </cell>
+          <cell r="AA54">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AE54">
+            <v>4500</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AG54">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55" t="str">
+            <v>教国法铳</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="P55" t="str">
+            <v>生铁</v>
+          </cell>
+          <cell r="Q55">
+            <v>10</v>
+          </cell>
+          <cell r="R55" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="S55">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="Z55" t="str">
+            <v>魔能轻武器</v>
+          </cell>
+          <cell r="AA55">
+            <v>80</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="AE55">
+            <v>4500</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="AG55">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56" t="str">
+            <v>制式法铳</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="P56" t="str">
+            <v>钢</v>
+          </cell>
+          <cell r="Q56">
+            <v>10</v>
+          </cell>
+          <cell r="R56" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="S56">
+            <v>10</v>
+          </cell>
+          <cell r="T56" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="U56">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="Z56" t="str">
+            <v>魔能轻武器</v>
+          </cell>
+          <cell r="AA56">
+            <v>120</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="AE56">
+            <v>4500</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="AG56">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57" t="str">
+            <v>复式法铳</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="P57" t="str">
+            <v>钢</v>
+          </cell>
+          <cell r="Q57">
+            <v>10</v>
+          </cell>
+          <cell r="R57" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="S57">
+            <v>10</v>
+          </cell>
+          <cell r="T57" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="U57">
+            <v>10</v>
+          </cell>
+          <cell r="V57" t="str">
+            <v>秘银</v>
+          </cell>
+          <cell r="W57">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="Z57" t="str">
+            <v>魔能轻武器</v>
+          </cell>
+          <cell r="AA57">
+            <v>160</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="AE57">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="AG57">
+            <v>900</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58" t="str">
+            <v>无自动化</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59" t="str">
+            <v>基础魔偶</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="P59" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q59">
+            <v>2</v>
+          </cell>
+          <cell r="R59" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S59">
+            <v>1</v>
+          </cell>
+          <cell r="T59" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U59">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="AE59">
+            <v>-1000</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="AG59">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60" t="str">
+            <v>智能魔偶</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="P60" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q60">
+            <v>3</v>
+          </cell>
+          <cell r="R60" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S60">
+            <v>2</v>
+          </cell>
+          <cell r="T60" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U60">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="AE60">
+            <v>-2000</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="AG60">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61" t="str">
+            <v>超智能魔偶</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="P61" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q61">
+            <v>4</v>
+          </cell>
+          <cell r="R61" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S61">
+            <v>3</v>
+          </cell>
+          <cell r="T61" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U61">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="AE61">
+            <v>-3000</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="AG61">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62" t="str">
+            <v>魔偶流水线</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="P62" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q62">
+            <v>3</v>
+          </cell>
+          <cell r="R62" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S62">
+            <v>2</v>
+          </cell>
+          <cell r="T62" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U62">
+            <v>4</v>
+          </cell>
+          <cell r="V62" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="W62">
+            <v>5</v>
+          </cell>
+          <cell r="X62" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="Y62">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="AE62">
+            <v>-4000</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="AG62">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63" t="str">
+            <v>灵能撞击法</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="P63" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q63">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="Z63" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="AA63">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="AE63">
+            <v>4500</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="AG63">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64" t="str">
+            <v>灵能聚集法</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="P64" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q64">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="Z64" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="AA64">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="AE64">
+            <v>4300</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="AG64">
+            <v>600</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65" t="str">
+            <v>灵能召唤法</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="P65" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q65">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="Z65" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="AA65">
+            <v>90</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="AE65">
+            <v>4000</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="AG65">
+            <v>900</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66" t="str">
+            <v>无浮空车生产</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67" t="str">
+            <v>浮空车生产</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="P67" t="str">
+            <v>泽洛</v>
+          </cell>
+          <cell r="Q67">
+            <v>5</v>
+          </cell>
+          <cell r="R67" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S67">
+            <v>5</v>
+          </cell>
+          <cell r="T67" t="str">
+            <v>秘银</v>
+          </cell>
+          <cell r="U67">
+            <v>5</v>
+          </cell>
+          <cell r="V67" t="str">
+            <v>硬木</v>
+          </cell>
+          <cell r="W67">
+            <v>5</v>
+          </cell>
+          <cell r="X67" t="str">
+            <v>布料</v>
+          </cell>
+          <cell r="Y67">
+            <v>5</v>
+          </cell>
+          <cell r="Z67" t="str">
+            <v>魔能浮空车</v>
+          </cell>
+          <cell r="AA67">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="AE67">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="AG67">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68" t="str">
+            <v>无自动化</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69" t="str">
+            <v>基础魔偶</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="P69" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q69">
+            <v>2</v>
+          </cell>
+          <cell r="R69" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S69">
+            <v>1</v>
+          </cell>
+          <cell r="T69" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U69">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="AE69">
+            <v>-1000</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="AG69">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70" t="str">
+            <v>智能魔偶</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="P70" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q70">
+            <v>3</v>
+          </cell>
+          <cell r="R70" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S70">
+            <v>2</v>
+          </cell>
+          <cell r="T70" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U70">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="AE70">
+            <v>-2000</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="AG70">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71" t="str">
+            <v>超智能魔偶</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="P71" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q71">
+            <v>4</v>
+          </cell>
+          <cell r="R71" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S71">
+            <v>3</v>
+          </cell>
+          <cell r="T71" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U71">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="AE71">
+            <v>-3000</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="AG71">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72" t="str">
+            <v>魔偶流水线</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="P72" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="Q72">
+            <v>3</v>
+          </cell>
+          <cell r="R72" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="S72">
+            <v>2</v>
+          </cell>
+          <cell r="T72" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U72">
+            <v>4</v>
+          </cell>
+          <cell r="V72" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="W72">
+            <v>5</v>
+          </cell>
+          <cell r="X72" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="Y72">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="AE72">
+            <v>-4000</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="AG72">
+            <v>400</v>
           </cell>
         </row>
       </sheetData>
@@ -3312,8 +3943,8 @@
   <sheetPr/>
   <dimension ref="A1:F999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -4698,113 +5329,113 @@
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="3">
+      <c r="A54" s="3" t="str">
         <f>[1]生产方式!C54</f>
-        <v>0</v>
+        <v>标准法杖</v>
       </c>
       <c r="B54" s="2">
         <f>([1]生产方式!$Q54*数据!A53)+([1]生产方式!$S54*数据!B53)+([1]生产方式!$U54*数据!C53)+([1]生产方式!$W54*数据!D53)+([1]生产方式!$Y54*数据!E53)</f>
-        <v>0</v>
+        <v>950</v>
       </c>
       <c r="C54" s="2">
         <f>([1]生产方式!$AA54*数据!F53)+([1]生产方式!$AC54*数据!G53)</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
       <c r="D54" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E54" s="2" t="e">
+        <v>1850</v>
+      </c>
+      <c r="E54" s="2">
         <f>D54*1000/([1]生产方式!$AE54+[1]生产方式!$AG54+[1]生产方式!$AI54)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F54" s="2" t="e">
+        <v>377.551020408163</v>
+      </c>
+      <c r="F54" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.94736842105263</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="3">
+      <c r="A55" s="3" t="str">
         <f>[1]生产方式!C55</f>
-        <v>0</v>
+        <v>教国法铳</v>
       </c>
       <c r="B55" s="2">
         <f>([1]生产方式!$Q55*数据!A54)+([1]生产方式!$S55*数据!B54)+([1]生产方式!$U55*数据!C54)+([1]生产方式!$W55*数据!D54)+([1]生产方式!$Y55*数据!E54)</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="C55" s="2">
         <f>([1]生产方式!$AA55*数据!F54)+([1]生产方式!$AC55*数据!G54)</f>
-        <v>0</v>
+        <v>5600</v>
       </c>
       <c r="D55" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E55" s="2" t="e">
+        <v>3600</v>
+      </c>
+      <c r="E55" s="2">
         <f>D55*1000/([1]生产方式!$AE55+[1]生产方式!$AG55+[1]生产方式!$AI55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F55" s="2" t="e">
+        <v>734.69387755102</v>
+      </c>
+      <c r="F55" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="3">
+      <c r="A56" s="3" t="str">
         <f>[1]生产方式!C56</f>
-        <v>0</v>
+        <v>制式法铳</v>
       </c>
       <c r="B56" s="2">
         <f>([1]生产方式!$Q56*数据!A55)+([1]生产方式!$S56*数据!B55)+([1]生产方式!$U56*数据!C55)+([1]生产方式!$W56*数据!D55)+([1]生产方式!$Y56*数据!E55)</f>
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="C56" s="2">
         <f>([1]生产方式!$AA56*数据!F55)+([1]生产方式!$AC56*数据!G55)</f>
-        <v>0</v>
+        <v>8400</v>
       </c>
       <c r="D56" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E56" s="2" t="e">
+        <v>5700</v>
+      </c>
+      <c r="E56" s="2">
         <f>D56*1000/([1]生产方式!$AE56+[1]生产方式!$AG56+[1]生产方式!$AI56)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" s="2" t="e">
+        <v>1163.26530612245</v>
+      </c>
+      <c r="F56" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.11111111111111</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="3">
+      <c r="A57" s="3" t="str">
         <f>[1]生产方式!C57</f>
-        <v>0</v>
+        <v>复式法铳</v>
       </c>
       <c r="B57" s="2">
         <f>([1]生产方式!$Q57*数据!A56)+([1]生产方式!$S57*数据!B56)+([1]生产方式!$U57*数据!C56)+([1]生产方式!$W57*数据!D56)+([1]生产方式!$Y57*数据!E56)</f>
-        <v>0</v>
+        <v>3800</v>
       </c>
       <c r="C57" s="2">
         <f>([1]生产方式!$AA57*数据!F56)+([1]生产方式!$AC57*数据!G56)</f>
-        <v>0</v>
+        <v>11200</v>
       </c>
       <c r="D57" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E57" s="2" t="e">
+        <v>7400</v>
+      </c>
+      <c r="E57" s="2">
         <f>D57*1000/([1]生产方式!$AE57+[1]生产方式!$AG57+[1]生产方式!$AI57)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" s="2" t="e">
+        <v>1510.20408163265</v>
+      </c>
+      <c r="F57" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>2.94736842105263</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="3">
+      <c r="A58" s="3" t="str">
         <f>[1]生产方式!C58</f>
-        <v>0</v>
+        <v>无自动化</v>
       </c>
       <c r="B58" s="2">
         <f>([1]生产方式!$Q58*数据!A57)+([1]生产方式!$S58*数据!B57)+([1]生产方式!$U58*数据!C57)+([1]生产方式!$W58*数据!D57)+([1]生产方式!$Y58*数据!E57)</f>
@@ -4828,13 +5459,13 @@
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="3">
+      <c r="A59" s="3" t="str">
         <f>[1]生产方式!C59</f>
-        <v>0</v>
+        <v>基础魔偶</v>
       </c>
       <c r="B59" s="2">
         <f>([1]生产方式!$Q59*数据!A58)+([1]生产方式!$S59*数据!B58)+([1]生产方式!$U59*数据!C58)+([1]生产方式!$W59*数据!D58)+([1]生产方式!$Y59*数据!E58)</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="C59" s="2">
         <f>([1]生产方式!$AA59*数据!F58)+([1]生产方式!$AC59*数据!G58)</f>
@@ -4842,25 +5473,25 @@
       </c>
       <c r="D59" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="2" t="e">
+        <v>-470</v>
+      </c>
+      <c r="E59" s="2">
         <f>D59*1000/([1]生产方式!$AE59+[1]生产方式!$AG59+[1]生产方式!$AI59)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F59" s="2" t="e">
+        <v>522.222222222222</v>
+      </c>
+      <c r="F59" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="3">
+      <c r="A60" s="3" t="str">
         <f>[1]生产方式!C60</f>
-        <v>0</v>
+        <v>智能魔偶</v>
       </c>
       <c r="B60" s="2">
         <f>([1]生产方式!$Q60*数据!A59)+([1]生产方式!$S60*数据!B59)+([1]生产方式!$U60*数据!C59)+([1]生产方式!$W60*数据!D59)+([1]生产方式!$Y60*数据!E59)</f>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="C60" s="2">
         <f>([1]生产方式!$AA60*数据!F59)+([1]生产方式!$AC60*数据!G59)</f>
@@ -4868,25 +5499,25 @@
       </c>
       <c r="D60" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="2" t="e">
+        <v>-780</v>
+      </c>
+      <c r="E60" s="2">
         <f>D60*1000/([1]生产方式!$AE60+[1]生产方式!$AG60+[1]生产方式!$AI60)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F60" s="2" t="e">
+        <v>433.333333333333</v>
+      </c>
+      <c r="F60" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="3">
+      <c r="A61" s="3" t="str">
         <f>[1]生产方式!C61</f>
-        <v>0</v>
+        <v>超智能魔偶</v>
       </c>
       <c r="B61" s="2">
         <f>([1]生产方式!$Q61*数据!A60)+([1]生产方式!$S61*数据!B60)+([1]生产方式!$U61*数据!C60)+([1]生产方式!$W61*数据!D60)+([1]生产方式!$Y61*数据!E60)</f>
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="C61" s="2">
         <f>([1]生产方式!$AA61*数据!F60)+([1]生产方式!$AC61*数据!G60)</f>
@@ -4894,25 +5525,25 @@
       </c>
       <c r="D61" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="e">
+        <v>-1090</v>
+      </c>
+      <c r="E61" s="2">
         <f>D61*1000/([1]生产方式!$AE61+[1]生产方式!$AG61+[1]生产方式!$AI61)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F61" s="2" t="e">
+        <v>403.703703703704</v>
+      </c>
+      <c r="F61" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="3">
+      <c r="A62" s="3" t="str">
         <f>[1]生产方式!C62</f>
-        <v>0</v>
+        <v>魔偶流水线</v>
       </c>
       <c r="B62" s="2">
         <f>([1]生产方式!$Q62*数据!A61)+([1]生产方式!$S62*数据!B61)+([1]生产方式!$U62*数据!C61)+([1]生产方式!$W62*数据!D61)+([1]生产方式!$Y62*数据!E61)</f>
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C62" s="2">
         <f>([1]生产方式!$AA62*数据!F61)+([1]生产方式!$AC62*数据!G61)</f>
@@ -4920,99 +5551,99 @@
       </c>
       <c r="D62" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="2" t="e">
+        <v>-1170</v>
+      </c>
+      <c r="E62" s="2">
         <f>D62*1000/([1]生产方式!$AE62+[1]生产方式!$AG62+[1]生产方式!$AI62)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F62" s="2" t="e">
+        <v>325</v>
+      </c>
+      <c r="F62" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="3">
+      <c r="A63" s="3" t="str">
         <f>[1]生产方式!C63</f>
-        <v>0</v>
+        <v>灵能撞击法</v>
       </c>
       <c r="B63" s="2">
         <f>([1]生产方式!$Q63*数据!A62)+([1]生产方式!$S63*数据!B62)+([1]生产方式!$U63*数据!C62)+([1]生产方式!$W63*数据!D62)+([1]生产方式!$Y63*数据!E62)</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="C63" s="2">
         <f>([1]生产方式!$AA63*数据!F62)+([1]生产方式!$AC63*数据!G62)</f>
-        <v>0</v>
+        <v>4800</v>
       </c>
       <c r="D63" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="2" t="e">
+        <v>3300</v>
+      </c>
+      <c r="E63" s="2">
         <f>D63*1000/([1]生产方式!$AE63+[1]生产方式!$AG63+[1]生产方式!$AI63)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F63" s="2" t="e">
+        <v>673.469387755102</v>
+      </c>
+      <c r="F63" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="3">
+      <c r="A64" s="3" t="str">
         <f>[1]生产方式!C64</f>
-        <v>0</v>
+        <v>灵能聚集法</v>
       </c>
       <c r="B64" s="2">
         <f>([1]生产方式!$Q64*数据!A63)+([1]生产方式!$S64*数据!B63)+([1]生产方式!$U64*数据!C63)+([1]生产方式!$W64*数据!D63)+([1]生产方式!$Y64*数据!E63)</f>
-        <v>0</v>
+        <v>2250</v>
       </c>
       <c r="C64" s="2">
         <f>([1]生产方式!$AA64*数据!F63)+([1]生产方式!$AC64*数据!G63)</f>
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="D64" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E64" s="2" t="e">
+        <v>5550</v>
+      </c>
+      <c r="E64" s="2">
         <f>D64*1000/([1]生产方式!$AE64+[1]生产方式!$AG64+[1]生产方式!$AI64)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F64" s="2" t="e">
+        <v>1132.65306122449</v>
+      </c>
+      <c r="F64" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.46666666666667</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="3">
+      <c r="A65" s="3" t="str">
         <f>[1]生产方式!C65</f>
-        <v>0</v>
+        <v>灵能召唤法</v>
       </c>
       <c r="B65" s="2">
         <f>([1]生产方式!$Q65*数据!A64)+([1]生产方式!$S65*数据!B64)+([1]生产方式!$U65*数据!C64)+([1]生产方式!$W65*数据!D64)+([1]生产方式!$Y65*数据!E64)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="C65" s="2">
         <f>([1]生产方式!$AA65*数据!F64)+([1]生产方式!$AC65*数据!G64)</f>
-        <v>0</v>
+        <v>10800</v>
       </c>
       <c r="D65" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="2" t="e">
+        <v>7800</v>
+      </c>
+      <c r="E65" s="2">
         <f>D65*1000/([1]生产方式!$AE65+[1]生产方式!$AG65+[1]生产方式!$AI65)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F65" s="2" t="e">
+        <v>1591.83673469388</v>
+      </c>
+      <c r="F65" s="2">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="3">
+      <c r="A66" s="3" t="str">
         <f>[1]生产方式!C66</f>
-        <v>0</v>
+        <v>无浮空车生产</v>
       </c>
       <c r="B66" s="2">
         <f>([1]生产方式!$Q66*数据!A65)+([1]生产方式!$S66*数据!B65)+([1]生产方式!$U66*数据!C65)+([1]生产方式!$W66*数据!D65)+([1]生产方式!$Y66*数据!E65)</f>
@@ -5036,35 +5667,35 @@
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="3">
+      <c r="A67" s="3" t="str">
         <f>[1]生产方式!C67</f>
-        <v>0</v>
+        <v>浮空车生产</v>
       </c>
       <c r="B67" s="2">
         <f>([1]生产方式!$Q67*数据!A66)+([1]生产方式!$S67*数据!B66)+([1]生产方式!$U67*数据!C66)+([1]生产方式!$W67*数据!D66)+([1]生产方式!$Y67*数据!E66)</f>
-        <v>0</v>
+        <v>2150</v>
       </c>
       <c r="C67" s="2">
         <f>([1]生产方式!$AA67*数据!F66)+([1]生产方式!$AC67*数据!G66)</f>
-        <v>0</v>
+        <v>3600</v>
       </c>
       <c r="D67" s="2">
         <f t="shared" ref="D67:D130" si="2">C67-B67</f>
-        <v>0</v>
-      </c>
-      <c r="E67" s="2" t="e">
+        <v>1450</v>
+      </c>
+      <c r="E67" s="2">
         <f>D67*1000/([1]生产方式!$AE67+[1]生产方式!$AG67+[1]生产方式!$AI67)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F67" s="2" t="e">
+        <v>7250</v>
+      </c>
+      <c r="F67" s="2">
         <f t="shared" ref="F67:F130" si="3">C67/B67</f>
-        <v>#DIV/0!</v>
+        <v>1.67441860465116</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="3">
+      <c r="A68" s="3" t="str">
         <f>[1]生产方式!C68</f>
-        <v>0</v>
+        <v>无自动化</v>
       </c>
       <c r="B68" s="2">
         <f>([1]生产方式!$Q68*数据!A67)+([1]生产方式!$S68*数据!B67)+([1]生产方式!$U68*数据!C67)+([1]生产方式!$W68*数据!D67)+([1]生产方式!$Y68*数据!E67)</f>
@@ -5088,13 +5719,13 @@
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="3">
+      <c r="A69" s="3" t="str">
         <f>[1]生产方式!C69</f>
-        <v>0</v>
+        <v>基础魔偶</v>
       </c>
       <c r="B69" s="2">
         <f>([1]生产方式!$Q69*数据!A68)+([1]生产方式!$S69*数据!B68)+([1]生产方式!$U69*数据!C68)+([1]生产方式!$W69*数据!D68)+([1]生产方式!$Y69*数据!E68)</f>
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="C69" s="2">
         <f>([1]生产方式!$AA69*数据!F68)+([1]生产方式!$AC69*数据!G68)</f>
@@ -5102,25 +5733,25 @@
       </c>
       <c r="D69" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="2" t="e">
+        <v>-470</v>
+      </c>
+      <c r="E69" s="2">
         <f>D69*1000/([1]生产方式!$AE69+[1]生产方式!$AG69+[1]生产方式!$AI69)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F69" s="2" t="e">
+        <v>522.222222222222</v>
+      </c>
+      <c r="F69" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="3">
+      <c r="A70" s="3" t="str">
         <f>[1]生产方式!C70</f>
-        <v>0</v>
+        <v>智能魔偶</v>
       </c>
       <c r="B70" s="2">
         <f>([1]生产方式!$Q70*数据!A69)+([1]生产方式!$S70*数据!B69)+([1]生产方式!$U70*数据!C69)+([1]生产方式!$W70*数据!D69)+([1]生产方式!$Y70*数据!E69)</f>
-        <v>0</v>
+        <v>780</v>
       </c>
       <c r="C70" s="2">
         <f>([1]生产方式!$AA70*数据!F69)+([1]生产方式!$AC70*数据!G69)</f>
@@ -5128,25 +5759,25 @@
       </c>
       <c r="D70" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E70" s="2" t="e">
+        <v>-780</v>
+      </c>
+      <c r="E70" s="2">
         <f>D70*1000/([1]生产方式!$AE70+[1]生产方式!$AG70+[1]生产方式!$AI70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F70" s="2" t="e">
+        <v>433.333333333333</v>
+      </c>
+      <c r="F70" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="3">
+      <c r="A71" s="3" t="str">
         <f>[1]生产方式!C71</f>
-        <v>0</v>
+        <v>超智能魔偶</v>
       </c>
       <c r="B71" s="2">
         <f>([1]生产方式!$Q71*数据!A70)+([1]生产方式!$S71*数据!B70)+([1]生产方式!$U71*数据!C70)+([1]生产方式!$W71*数据!D70)+([1]生产方式!$Y71*数据!E70)</f>
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="C71" s="2">
         <f>([1]生产方式!$AA71*数据!F70)+([1]生产方式!$AC71*数据!G70)</f>
@@ -5154,25 +5785,25 @@
       </c>
       <c r="D71" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E71" s="2" t="e">
+        <v>-1090</v>
+      </c>
+      <c r="E71" s="2">
         <f>D71*1000/([1]生产方式!$AE71+[1]生产方式!$AG71+[1]生产方式!$AI71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F71" s="2" t="e">
+        <v>403.703703703704</v>
+      </c>
+      <c r="F71" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="3">
+      <c r="A72" s="3" t="str">
         <f>[1]生产方式!C72</f>
-        <v>0</v>
+        <v>魔偶流水线</v>
       </c>
       <c r="B72" s="2">
         <f>([1]生产方式!$Q72*数据!A71)+([1]生产方式!$S72*数据!B71)+([1]生产方式!$U72*数据!C71)+([1]生产方式!$W72*数据!D71)+([1]生产方式!$Y72*数据!E71)</f>
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C72" s="2">
         <f>([1]生产方式!$AA72*数据!F71)+([1]生产方式!$AC72*数据!G71)</f>
@@ -5180,15 +5811,15 @@
       </c>
       <c r="D72" s="2">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E72" s="2" t="e">
+        <v>-1170</v>
+      </c>
+      <c r="E72" s="2">
         <f>D72*1000/([1]生产方式!$AE72+[1]生产方式!$AG72+[1]生产方式!$AI72)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" s="2" t="e">
+        <v>325</v>
+      </c>
+      <c r="F72" s="2">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -19667,13 +20298,13 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" t="str">
+      <c r="A53">
         <f>IFERROR(VLOOKUP([1]生产方式!P54,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B53" t="str">
+        <v>40</v>
+      </c>
+      <c r="B53">
         <f>IFERROR(VLOOKUP([1]生产方式!R54,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C53" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!T54,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19687,9 +20318,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X54,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F53" t="str">
+      <c r="F53">
         <f>IFERROR(VLOOKUP([1]生产方式!Z54,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G53" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB54,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19697,13 +20328,13 @@
       </c>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" t="str">
+      <c r="A54">
         <f>IFERROR(VLOOKUP([1]生产方式!P55,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B54" t="str">
+        <v>50</v>
+      </c>
+      <c r="B54">
         <f>IFERROR(VLOOKUP([1]生产方式!R55,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="C54" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!T55,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19717,9 +20348,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X55,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F54" t="str">
+      <c r="F54">
         <f>IFERROR(VLOOKUP([1]生产方式!Z55,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G54" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB55,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19727,17 +20358,17 @@
       </c>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" t="str">
+      <c r="A55">
         <f>IFERROR(VLOOKUP([1]生产方式!P56,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B55" t="str">
+        <v>60</v>
+      </c>
+      <c r="B55">
         <f>IFERROR(VLOOKUP([1]生产方式!R56,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C55" t="str">
+        <v>150</v>
+      </c>
+      <c r="C55">
         <f>IFERROR(VLOOKUP([1]生产方式!T56,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D55" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V56,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19747,9 +20378,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X56,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F55" t="str">
+      <c r="F55">
         <f>IFERROR(VLOOKUP([1]生产方式!Z56,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G55" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB56,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19757,29 +20388,29 @@
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" t="str">
+      <c r="A56">
         <f>IFERROR(VLOOKUP([1]生产方式!P57,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B56" t="str">
+        <v>60</v>
+      </c>
+      <c r="B56">
         <f>IFERROR(VLOOKUP([1]生产方式!R57,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C56" t="str">
+        <v>150</v>
+      </c>
+      <c r="C56">
         <f>IFERROR(VLOOKUP([1]生产方式!T57,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D56" t="str">
+        <v>120</v>
+      </c>
+      <c r="D56">
         <f>IFERROR(VLOOKUP([1]生产方式!V57,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E56" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!X57,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F56" t="str">
+      <c r="F56">
         <f>IFERROR(VLOOKUP([1]生产方式!Z57,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="G56" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB57,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19817,17 +20448,17 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" t="str">
+      <c r="A58">
         <f>IFERROR(VLOOKUP([1]生产方式!P59,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B58" t="str">
+        <v>120</v>
+      </c>
+      <c r="B58">
         <f>IFERROR(VLOOKUP([1]生产方式!R59,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C58" t="str">
+        <v>150</v>
+      </c>
+      <c r="C58">
         <f>IFERROR(VLOOKUP([1]生产方式!T59,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D58" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V59,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19847,17 +20478,17 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" t="str">
+      <c r="A59">
         <f>IFERROR(VLOOKUP([1]生产方式!P60,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B59" t="str">
+        <v>120</v>
+      </c>
+      <c r="B59">
         <f>IFERROR(VLOOKUP([1]生产方式!R60,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C59" t="str">
+        <v>150</v>
+      </c>
+      <c r="C59">
         <f>IFERROR(VLOOKUP([1]生产方式!T60,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D59" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V60,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19877,17 +20508,17 @@
       </c>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" t="str">
+      <c r="A60">
         <f>IFERROR(VLOOKUP([1]生产方式!P61,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B60" t="str">
+        <v>120</v>
+      </c>
+      <c r="B60">
         <f>IFERROR(VLOOKUP([1]生产方式!R61,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C60" t="str">
+        <v>150</v>
+      </c>
+      <c r="C60">
         <f>IFERROR(VLOOKUP([1]生产方式!T61,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D60" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V61,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19907,25 +20538,25 @@
       </c>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" t="str">
+      <c r="A61">
         <f>IFERROR(VLOOKUP([1]生产方式!P62,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B61" t="str">
+        <v>120</v>
+      </c>
+      <c r="B61">
         <f>IFERROR(VLOOKUP([1]生产方式!R62,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C61" t="str">
+        <v>150</v>
+      </c>
+      <c r="C61">
         <f>IFERROR(VLOOKUP([1]生产方式!T62,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D61" t="str">
+        <v>40</v>
+      </c>
+      <c r="D61">
         <f>IFERROR(VLOOKUP([1]生产方式!V62,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="E61" t="str">
+        <v>30</v>
+      </c>
+      <c r="E61">
         <f>IFERROR(VLOOKUP([1]生产方式!X62,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F61" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!Z62,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19937,9 +20568,9 @@
       </c>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" t="str">
+      <c r="A62">
         <f>IFERROR(VLOOKUP([1]生产方式!P63,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B62" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!R63,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19957,9 +20588,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X63,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62">
         <f>IFERROR(VLOOKUP([1]生产方式!Z63,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G62" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB63,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19967,9 +20598,9 @@
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" t="str">
+      <c r="A63">
         <f>IFERROR(VLOOKUP([1]生产方式!P64,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B63" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!R64,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19987,9 +20618,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X64,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63">
         <f>IFERROR(VLOOKUP([1]生产方式!Z64,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G63" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB64,[1]数据表!$B:$C,2,0),"0")</f>
@@ -19997,9 +20628,9 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" t="str">
+      <c r="A64">
         <f>IFERROR(VLOOKUP([1]生产方式!P65,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B64" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!R65,[1]数据表!$B:$C,2,0),"0")</f>
@@ -20017,9 +20648,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X65,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F64" t="str">
+      <c r="F64">
         <f>IFERROR(VLOOKUP([1]生产方式!Z65,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="G64" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB65,[1]数据表!$B:$C,2,0),"0")</f>
@@ -20057,29 +20688,29 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" t="str">
+      <c r="A66">
         <f>IFERROR(VLOOKUP([1]生产方式!P67,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B66" t="str">
+        <v>150</v>
+      </c>
+      <c r="B66">
         <f>IFERROR(VLOOKUP([1]生产方式!R67,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C66" t="str">
+        <v>120</v>
+      </c>
+      <c r="C66">
         <f>IFERROR(VLOOKUP([1]生产方式!T67,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D66" t="str">
+        <v>100</v>
+      </c>
+      <c r="D66">
         <f>IFERROR(VLOOKUP([1]生产方式!V67,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="E66" t="str">
+        <v>40</v>
+      </c>
+      <c r="E66">
         <f>IFERROR(VLOOKUP([1]生产方式!X67,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="F66" t="str">
+        <v>20</v>
+      </c>
+      <c r="F66">
         <f>IFERROR(VLOOKUP([1]生产方式!Z67,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G66" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB67,[1]数据表!$B:$C,2,0),"0")</f>
@@ -20117,17 +20748,17 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" t="str">
+      <c r="A68">
         <f>IFERROR(VLOOKUP([1]生产方式!P69,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B68" t="str">
+        <v>120</v>
+      </c>
+      <c r="B68">
         <f>IFERROR(VLOOKUP([1]生产方式!R69,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C68" t="str">
+        <v>150</v>
+      </c>
+      <c r="C68">
         <f>IFERROR(VLOOKUP([1]生产方式!T69,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D68" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V69,[1]数据表!$B:$C,2,0),"0")</f>
@@ -20147,17 +20778,17 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" t="str">
+      <c r="A69">
         <f>IFERROR(VLOOKUP([1]生产方式!P70,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B69" t="str">
+        <v>120</v>
+      </c>
+      <c r="B69">
         <f>IFERROR(VLOOKUP([1]生产方式!R70,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C69" t="str">
+        <v>150</v>
+      </c>
+      <c r="C69">
         <f>IFERROR(VLOOKUP([1]生产方式!T70,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D69" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V70,[1]数据表!$B:$C,2,0),"0")</f>
@@ -20177,17 +20808,17 @@
       </c>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" t="str">
+      <c r="A70">
         <f>IFERROR(VLOOKUP([1]生产方式!P71,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B70" t="str">
+        <v>120</v>
+      </c>
+      <c r="B70">
         <f>IFERROR(VLOOKUP([1]生产方式!R71,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C70" t="str">
+        <v>150</v>
+      </c>
+      <c r="C70">
         <f>IFERROR(VLOOKUP([1]生产方式!T71,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D70" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V71,[1]数据表!$B:$C,2,0),"0")</f>
@@ -20207,25 +20838,25 @@
       </c>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" t="str">
+      <c r="A71">
         <f>IFERROR(VLOOKUP([1]生产方式!P72,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B71" t="str">
+        <v>120</v>
+      </c>
+      <c r="B71">
         <f>IFERROR(VLOOKUP([1]生产方式!R72,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C71" t="str">
+        <v>150</v>
+      </c>
+      <c r="C71">
         <f>IFERROR(VLOOKUP([1]生产方式!T72,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D71" t="str">
+        <v>40</v>
+      </c>
+      <c r="D71">
         <f>IFERROR(VLOOKUP([1]生产方式!V72,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="E71" t="str">
+        <v>30</v>
+      </c>
+      <c r="E71">
         <f>IFERROR(VLOOKUP([1]生产方式!X72,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F71" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!Z72,[1]数据表!$B:$C,2,0),"0")</f>

--- a/数值设定/生产方式效率显示表.xlsx
+++ b/数值设定/生产方式效率显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22102" windowHeight="12390"/>
+    <workbookView windowWidth="21562" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -69,23 +69,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,40 +84,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -144,9 +99,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,25 +114,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,8 +144,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +233,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,31 +329,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,25 +359,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -329,73 +389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,6 +425,45 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -441,8 +480,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -453,21 +494,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,42 +521,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -539,130 +539,130 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3222,6 +3222,61 @@
         <row r="72">
           <cell r="AG72">
             <v>400</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73" t="str">
+            <v>无飞行器生产</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74" t="str">
+            <v>蒸汽飞机生产</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75" t="str">
+            <v>空天母舰生产</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76" t="str">
+            <v>无机甲生产</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77" t="str">
+            <v>蒸汽机甲</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78" t="str">
+            <v>魔导机甲</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79" t="str">
+            <v>无自动化</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80" t="str">
+            <v>水管锅炉</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81" t="str">
+            <v>旋转阀蒸汽机</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82" t="str">
+            <v>流水线</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83" t="str">
+            <v>魔偶流水线</v>
           </cell>
         </row>
       </sheetData>
@@ -3944,7 +3999,7 @@
   <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -5823,9 +5878,9 @@
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="3">
+      <c r="A73" s="3" t="str">
         <f>[1]生产方式!C73</f>
-        <v>0</v>
+        <v>无飞行器生产</v>
       </c>
       <c r="B73" s="2">
         <f>([1]生产方式!$Q73*数据!A72)+([1]生产方式!$S73*数据!B72)+([1]生产方式!$U73*数据!C72)+([1]生产方式!$W73*数据!D72)+([1]生产方式!$Y73*数据!E72)</f>
@@ -5849,9 +5904,9 @@
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="3">
+      <c r="A74" s="3" t="str">
         <f>[1]生产方式!C74</f>
-        <v>0</v>
+        <v>蒸汽飞机生产</v>
       </c>
       <c r="B74" s="2">
         <f>([1]生产方式!$Q74*数据!A73)+([1]生产方式!$S74*数据!B73)+([1]生产方式!$U74*数据!C73)+([1]生产方式!$W74*数据!D73)+([1]生产方式!$Y74*数据!E73)</f>
@@ -5875,9 +5930,9 @@
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="3">
+      <c r="A75" s="3" t="str">
         <f>[1]生产方式!C75</f>
-        <v>0</v>
+        <v>空天母舰生产</v>
       </c>
       <c r="B75" s="2">
         <f>([1]生产方式!$Q75*数据!A74)+([1]生产方式!$S75*数据!B74)+([1]生产方式!$U75*数据!C74)+([1]生产方式!$W75*数据!D74)+([1]生产方式!$Y75*数据!E74)</f>
@@ -5901,9 +5956,9 @@
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="3">
+      <c r="A76" s="3" t="str">
         <f>[1]生产方式!C76</f>
-        <v>0</v>
+        <v>无机甲生产</v>
       </c>
       <c r="B76" s="2">
         <f>([1]生产方式!$Q76*数据!A75)+([1]生产方式!$S76*数据!B75)+([1]生产方式!$U76*数据!C75)+([1]生产方式!$W76*数据!D75)+([1]生产方式!$Y76*数据!E75)</f>
@@ -5927,9 +5982,9 @@
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="3">
+      <c r="A77" s="3" t="str">
         <f>[1]生产方式!C77</f>
-        <v>0</v>
+        <v>蒸汽机甲</v>
       </c>
       <c r="B77" s="2">
         <f>([1]生产方式!$Q77*数据!A76)+([1]生产方式!$S77*数据!B76)+([1]生产方式!$U77*数据!C76)+([1]生产方式!$W77*数据!D76)+([1]生产方式!$Y77*数据!E76)</f>
@@ -5953,9 +6008,9 @@
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="3">
+      <c r="A78" s="3" t="str">
         <f>[1]生产方式!C78</f>
-        <v>0</v>
+        <v>魔导机甲</v>
       </c>
       <c r="B78" s="2">
         <f>([1]生产方式!$Q78*数据!A77)+([1]生产方式!$S78*数据!B77)+([1]生产方式!$U78*数据!C77)+([1]生产方式!$W78*数据!D77)+([1]生产方式!$Y78*数据!E77)</f>
@@ -5979,9 +6034,9 @@
       </c>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="3">
+      <c r="A79" s="3" t="str">
         <f>[1]生产方式!C79</f>
-        <v>0</v>
+        <v>无自动化</v>
       </c>
       <c r="B79" s="2">
         <f>([1]生产方式!$Q79*数据!A78)+([1]生产方式!$S79*数据!B78)+([1]生产方式!$U79*数据!C78)+([1]生产方式!$W79*数据!D78)+([1]生产方式!$Y79*数据!E78)</f>
@@ -6005,9 +6060,9 @@
       </c>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="3">
-        <f>[1]生产方式!C80</f>
-        <v>0</v>
+      <c r="A80" s="3" t="e">
+        <f>[1]生产方式!#REF!</f>
+        <v>#REF!</v>
       </c>
       <c r="B80" s="2">
         <f>([1]生产方式!$Q80*数据!A79)+([1]生产方式!$S80*数据!B79)+([1]生产方式!$U80*数据!C79)+([1]生产方式!$W80*数据!D79)+([1]生产方式!$Y80*数据!E79)</f>
@@ -6031,9 +6086,9 @@
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="3">
-        <f>[1]生产方式!C81</f>
-        <v>0</v>
+      <c r="A81" s="3" t="str">
+        <f>[1]生产方式!C80</f>
+        <v>水管锅炉</v>
       </c>
       <c r="B81" s="2">
         <f>([1]生产方式!$Q81*数据!A80)+([1]生产方式!$S81*数据!B80)+([1]生产方式!$U81*数据!C80)+([1]生产方式!$W81*数据!D80)+([1]生产方式!$Y81*数据!E80)</f>
@@ -6057,9 +6112,9 @@
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="3">
-        <f>[1]生产方式!C82</f>
-        <v>0</v>
+      <c r="A82" s="3" t="str">
+        <f>[1]生产方式!C81</f>
+        <v>旋转阀蒸汽机</v>
       </c>
       <c r="B82" s="2">
         <f>([1]生产方式!$Q82*数据!A81)+([1]生产方式!$S82*数据!B81)+([1]生产方式!$U82*数据!C81)+([1]生产方式!$W82*数据!D81)+([1]生产方式!$Y82*数据!E81)</f>
@@ -6083,9 +6138,9 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="3">
-        <f>[1]生产方式!C83</f>
-        <v>0</v>
+      <c r="A83" s="3" t="str">
+        <f>[1]生产方式!C82</f>
+        <v>流水线</v>
       </c>
       <c r="B83" s="2">
         <f>([1]生产方式!$Q83*数据!A82)+([1]生产方式!$S83*数据!B82)+([1]生产方式!$U83*数据!C82)+([1]生产方式!$W83*数据!D82)+([1]生产方式!$Y83*数据!E82)</f>
@@ -6109,9 +6164,9 @@
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="3">
-        <f>[1]生产方式!C84</f>
-        <v>0</v>
+      <c r="A84" s="3" t="str">
+        <f>[1]生产方式!C83</f>
+        <v>魔偶流水线</v>
       </c>
       <c r="B84" s="2">
         <f>([1]生产方式!$Q84*数据!A83)+([1]生产方式!$S84*数据!B83)+([1]生产方式!$U84*数据!C83)+([1]生产方式!$W84*数据!D83)+([1]生产方式!$Y84*数据!E83)</f>

--- a/数值设定/生产方式效率显示表.xlsx
+++ b/数值设定/生产方式效率显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21420" windowHeight="12390"/>
+    <workbookView windowWidth="21630" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -70,6 +70,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -77,14 +84,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,52 +98,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -152,41 +106,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,8 +129,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,13 +240,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,7 +300,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,61 +348,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,19 +372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,43 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,30 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,17 +485,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -494,37 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +546,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -14271,7 +14271,7 @@
         <v>0</v>
       </c>
       <c r="D321" s="2">
-        <f>C321-B321</f>
+        <f t="shared" ref="D321:D341" si="10">C321-B321</f>
         <v>0</v>
       </c>
       <c r="E321" s="2" t="e">
@@ -14279,7 +14279,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F321" s="2" t="e">
-        <f>C321/B321</f>
+        <f t="shared" ref="F321:F341" si="11">C321/B321</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14297,7 +14297,7 @@
         <v>0</v>
       </c>
       <c r="D322" s="2">
-        <f>C322-B322</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E322" s="2" t="e">
@@ -14305,7 +14305,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F322" s="2" t="e">
-        <f>C322/B322</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14323,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="D323" s="2">
-        <f>C323-B323</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E323" s="2" t="e">
@@ -14331,7 +14331,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F323" s="2" t="e">
-        <f>C323/B323</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14349,7 +14349,7 @@
         <v>0</v>
       </c>
       <c r="D324" s="2">
-        <f>C324-B324</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E324" s="2" t="e">
@@ -14357,7 +14357,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F324" s="2" t="e">
-        <f>C324/B324</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14375,7 +14375,7 @@
         <v>0</v>
       </c>
       <c r="D325" s="2">
-        <f>C325-B325</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E325" s="2" t="e">
@@ -14383,7 +14383,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F325" s="2" t="e">
-        <f>C325/B325</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14401,7 +14401,7 @@
         <v>0</v>
       </c>
       <c r="D326" s="2">
-        <f>C326-B326</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E326" s="2" t="e">
@@ -14409,7 +14409,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F326" s="2" t="e">
-        <f>C326/B326</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14427,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="D327" s="2">
-        <f>C327-B327</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E327" s="2" t="e">
@@ -14435,7 +14435,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F327" s="2" t="e">
-        <f>C327/B327</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14453,7 +14453,7 @@
         <v>0</v>
       </c>
       <c r="D328" s="2">
-        <f>C328-B328</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E328" s="2" t="e">
@@ -14461,7 +14461,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F328" s="2" t="e">
-        <f>C328/B328</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14479,7 +14479,7 @@
         <v>0</v>
       </c>
       <c r="D329" s="2">
-        <f>C329-B329</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E329" s="2" t="e">
@@ -14487,7 +14487,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F329" s="2" t="e">
-        <f>C329/B329</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14505,7 +14505,7 @@
         <v>0</v>
       </c>
       <c r="D330" s="2">
-        <f>C330-B330</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E330" s="2" t="e">
@@ -14513,7 +14513,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F330" s="2" t="e">
-        <f>C330/B330</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14531,7 +14531,7 @@
         <v>0</v>
       </c>
       <c r="D331" s="2">
-        <f>C331-B331</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E331" s="2" t="e">
@@ -14539,7 +14539,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F331" s="2" t="e">
-        <f>C331/B331</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14557,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="D332" s="2">
-        <f>C332-B332</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E332" s="2" t="e">
@@ -14565,7 +14565,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F332" s="2" t="e">
-        <f>C332/B332</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14583,7 +14583,7 @@
         <v>0</v>
       </c>
       <c r="D333" s="2">
-        <f>C333-B333</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E333" s="2" t="e">
@@ -14591,7 +14591,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F333" s="2" t="e">
-        <f>C333/B333</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14609,7 +14609,7 @@
         <v>0</v>
       </c>
       <c r="D334" s="2">
-        <f>C334-B334</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E334" s="2" t="e">
@@ -14617,7 +14617,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F334" s="2" t="e">
-        <f>C334/B334</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="D335" s="2">
-        <f>C335-B335</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E335" s="2" t="e">
@@ -14643,7 +14643,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F335" s="2" t="e">
-        <f>C335/B335</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14661,7 +14661,7 @@
         <v>0</v>
       </c>
       <c r="D336" s="2">
-        <f>C336-B336</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E336" s="2" t="e">
@@ -14669,7 +14669,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F336" s="2" t="e">
-        <f>C336/B336</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14687,7 +14687,7 @@
         <v>0</v>
       </c>
       <c r="D337" s="2">
-        <f>C337-B337</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E337" s="2" t="e">
@@ -14695,7 +14695,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F337" s="2" t="e">
-        <f>C337/B337</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14713,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="D338" s="2">
-        <f>C338-B338</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E338" s="2" t="e">
@@ -14721,7 +14721,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F338" s="2" t="e">
-        <f>C338/B338</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14739,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="D339" s="2">
-        <f>C339-B339</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E339" s="2" t="e">
@@ -14747,7 +14747,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F339" s="2" t="e">
-        <f>C339/B339</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14765,7 +14765,7 @@
         <v>0</v>
       </c>
       <c r="D340" s="2">
-        <f>C340-B340</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E340" s="2" t="e">
@@ -14773,7 +14773,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F340" s="2" t="e">
-        <f>C340/B340</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14791,7 +14791,7 @@
         <v>0</v>
       </c>
       <c r="D341" s="2">
-        <f>C341-B341</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="E341" s="2" t="e">
@@ -14799,7 +14799,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="F341" s="2" t="e">
-        <f>C341/B341</f>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -14817,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="D342" s="2">
-        <f t="shared" ref="D323:D386" si="10">C342-B342</f>
+        <f t="shared" ref="D323:D386" si="12">C342-B342</f>
         <v>0</v>
       </c>
       <c r="E342" s="2" t="e">
@@ -14839,7 +14839,7 @@
         <v>0</v>
       </c>
       <c r="D343" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E343" s="2" t="e">
@@ -14861,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="D344" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E344" s="2" t="e">
@@ -14883,7 +14883,7 @@
         <v>0</v>
       </c>
       <c r="D345" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E345" s="2" t="e">
@@ -14905,7 +14905,7 @@
         <v>0</v>
       </c>
       <c r="D346" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E346" s="2" t="e">
@@ -14927,7 +14927,7 @@
         <v>0</v>
       </c>
       <c r="D347" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E347" s="2" t="e">
@@ -14949,7 +14949,7 @@
         <v>0</v>
       </c>
       <c r="D348" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E348" s="2" t="e">
@@ -14971,7 +14971,7 @@
         <v>0</v>
       </c>
       <c r="D349" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E349" s="2" t="e">
@@ -14993,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="D350" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E350" s="2" t="e">
@@ -15015,7 +15015,7 @@
         <v>0</v>
       </c>
       <c r="D351" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E351" s="2" t="e">
@@ -15037,7 +15037,7 @@
         <v>0</v>
       </c>
       <c r="D352" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E352" s="2" t="e">
@@ -15059,7 +15059,7 @@
         <v>0</v>
       </c>
       <c r="D353" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E353" s="2" t="e">
@@ -15081,7 +15081,7 @@
         <v>0</v>
       </c>
       <c r="D354" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E354" s="2" t="e">
@@ -15103,7 +15103,7 @@
         <v>0</v>
       </c>
       <c r="D355" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E355" s="2" t="e">
@@ -15125,7 +15125,7 @@
         <v>0</v>
       </c>
       <c r="D356" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E356" s="2" t="e">
@@ -15147,7 +15147,7 @@
         <v>0</v>
       </c>
       <c r="D357" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E357" s="2" t="e">
@@ -15169,7 +15169,7 @@
         <v>0</v>
       </c>
       <c r="D358" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E358" s="2" t="e">
@@ -15191,7 +15191,7 @@
         <v>0</v>
       </c>
       <c r="D359" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E359" s="2" t="e">
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="D360" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E360" s="2" t="e">
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="D361" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E361" s="2" t="e">
@@ -15257,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="D362" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E362" s="2" t="e">
@@ -15279,7 +15279,7 @@
         <v>0</v>
       </c>
       <c r="D363" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E363" s="2" t="e">
@@ -15301,7 +15301,7 @@
         <v>0</v>
       </c>
       <c r="D364" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E364" s="2" t="e">
@@ -15323,7 +15323,7 @@
         <v>0</v>
       </c>
       <c r="D365" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E365" s="2" t="e">
@@ -15345,7 +15345,7 @@
         <v>0</v>
       </c>
       <c r="D366" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E366" s="2" t="e">
@@ -15367,7 +15367,7 @@
         <v>0</v>
       </c>
       <c r="D367" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E367" s="2" t="e">
@@ -15389,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="D368" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E368" s="2" t="e">
@@ -15411,7 +15411,7 @@
         <v>0</v>
       </c>
       <c r="D369" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E369" s="2" t="e">
@@ -15433,7 +15433,7 @@
         <v>0</v>
       </c>
       <c r="D370" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E370" s="2" t="e">
@@ -15455,7 +15455,7 @@
         <v>0</v>
       </c>
       <c r="D371" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E371" s="2" t="e">
@@ -15477,7 +15477,7 @@
         <v>0</v>
       </c>
       <c r="D372" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E372" s="2" t="e">
@@ -15499,7 +15499,7 @@
         <v>0</v>
       </c>
       <c r="D373" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E373" s="2" t="e">
@@ -15521,7 +15521,7 @@
         <v>0</v>
       </c>
       <c r="D374" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E374" s="2" t="e">
@@ -15543,7 +15543,7 @@
         <v>0</v>
       </c>
       <c r="D375" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E375" s="2" t="e">
@@ -15565,7 +15565,7 @@
         <v>0</v>
       </c>
       <c r="D376" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E376" s="2" t="e">
@@ -15587,7 +15587,7 @@
         <v>0</v>
       </c>
       <c r="D377" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E377" s="2" t="e">
@@ -15609,7 +15609,7 @@
         <v>0</v>
       </c>
       <c r="D378" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E378" s="2" t="e">
@@ -15627,7 +15627,7 @@
         <v>0</v>
       </c>
       <c r="D379" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E379" s="2" t="e">
@@ -15645,7 +15645,7 @@
         <v>0</v>
       </c>
       <c r="D380" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E380" s="2" t="e">
@@ -15663,7 +15663,7 @@
         <v>0</v>
       </c>
       <c r="D381" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E381" s="2" t="e">
@@ -15681,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="D382" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E382" s="2" t="e">
@@ -15699,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="D383" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E383" s="2" t="e">
@@ -15717,7 +15717,7 @@
         <v>0</v>
       </c>
       <c r="D384" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E384" s="2" t="e">
@@ -15735,7 +15735,7 @@
         <v>0</v>
       </c>
       <c r="D385" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E385" s="2" t="e">
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="D386" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="E386" s="2" t="e">
@@ -15771,7 +15771,7 @@
         <v>0</v>
       </c>
       <c r="D387" s="2">
-        <f t="shared" ref="D387:D450" si="11">C387-B387</f>
+        <f t="shared" ref="D387:D450" si="13">C387-B387</f>
         <v>0</v>
       </c>
       <c r="E387" s="2" t="e">
@@ -15789,7 +15789,7 @@
         <v>0</v>
       </c>
       <c r="D388" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E388" s="2" t="e">
@@ -15807,7 +15807,7 @@
         <v>0</v>
       </c>
       <c r="D389" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E389" s="2" t="e">
@@ -15825,7 +15825,7 @@
         <v>0</v>
       </c>
       <c r="D390" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E390" s="2" t="e">
@@ -15843,7 +15843,7 @@
         <v>0</v>
       </c>
       <c r="D391" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E391" s="2" t="e">
@@ -15861,7 +15861,7 @@
         <v>0</v>
       </c>
       <c r="D392" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E392" s="2" t="e">
@@ -15879,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="D393" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E393" s="2" t="e">
@@ -15897,7 +15897,7 @@
         <v>0</v>
       </c>
       <c r="D394" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E394" s="2" t="e">
@@ -15915,7 +15915,7 @@
         <v>0</v>
       </c>
       <c r="D395" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E395" s="2" t="e">
@@ -15933,7 +15933,7 @@
         <v>0</v>
       </c>
       <c r="D396" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E396" s="2" t="e">
@@ -15951,7 +15951,7 @@
         <v>0</v>
       </c>
       <c r="D397" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E397" s="2" t="e">
@@ -15969,7 +15969,7 @@
         <v>0</v>
       </c>
       <c r="D398" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E398" s="2" t="e">
@@ -15987,7 +15987,7 @@
         <v>0</v>
       </c>
       <c r="D399" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E399" s="2" t="e">
@@ -16005,7 +16005,7 @@
         <v>0</v>
       </c>
       <c r="D400" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E400" s="2" t="e">
@@ -16023,7 +16023,7 @@
         <v>0</v>
       </c>
       <c r="D401" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E401" s="2" t="e">
@@ -16041,7 +16041,7 @@
         <v>0</v>
       </c>
       <c r="D402" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E402" s="2" t="e">
@@ -16059,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="D403" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E403" s="2" t="e">
@@ -16077,7 +16077,7 @@
         <v>0</v>
       </c>
       <c r="D404" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E404" s="2" t="e">
@@ -16095,7 +16095,7 @@
         <v>0</v>
       </c>
       <c r="D405" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E405" s="2" t="e">
@@ -16113,7 +16113,7 @@
         <v>0</v>
       </c>
       <c r="D406" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E406" s="2" t="e">
@@ -16131,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="D407" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E407" s="2" t="e">
@@ -16149,7 +16149,7 @@
         <v>0</v>
       </c>
       <c r="D408" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E408" s="2" t="e">
@@ -16167,7 +16167,7 @@
         <v>0</v>
       </c>
       <c r="D409" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E409" s="2" t="e">
@@ -16185,7 +16185,7 @@
         <v>0</v>
       </c>
       <c r="D410" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E410" s="2" t="e">
@@ -16203,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="D411" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E411" s="2" t="e">
@@ -16221,7 +16221,7 @@
         <v>0</v>
       </c>
       <c r="D412" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E412" s="2" t="e">
@@ -16239,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="D413" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E413" s="2" t="e">
@@ -16257,7 +16257,7 @@
         <v>0</v>
       </c>
       <c r="D414" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E414" s="2" t="e">
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="D415" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E415" s="2" t="e">
@@ -16293,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="D416" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E416" s="2" t="e">
@@ -16311,7 +16311,7 @@
         <v>0</v>
       </c>
       <c r="D417" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E417" s="2" t="e">
@@ -16329,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="D418" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E418" s="2" t="e">
@@ -16347,7 +16347,7 @@
         <v>0</v>
       </c>
       <c r="D419" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E419" s="2" t="e">
@@ -16365,7 +16365,7 @@
         <v>0</v>
       </c>
       <c r="D420" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E420" s="2" t="e">
@@ -16383,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="D421" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E421" s="2" t="e">
@@ -16401,7 +16401,7 @@
         <v>0</v>
       </c>
       <c r="D422" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E422" s="2" t="e">
@@ -16419,7 +16419,7 @@
         <v>0</v>
       </c>
       <c r="D423" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E423" s="2" t="e">
@@ -16437,7 +16437,7 @@
         <v>0</v>
       </c>
       <c r="D424" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E424" s="2" t="e">
@@ -16455,7 +16455,7 @@
         <v>0</v>
       </c>
       <c r="D425" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E425" s="2" t="e">
@@ -16473,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="D426" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E426" s="2" t="e">
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="D427" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E427" s="2" t="e">
@@ -16509,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="D428" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E428" s="2" t="e">
@@ -16527,7 +16527,7 @@
         <v>0</v>
       </c>
       <c r="D429" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E429" s="2" t="e">
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="D430" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E430" s="2" t="e">
@@ -16563,7 +16563,7 @@
         <v>0</v>
       </c>
       <c r="D431" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E431" s="2" t="e">
@@ -16581,7 +16581,7 @@
         <v>0</v>
       </c>
       <c r="D432" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E432" s="2" t="e">
@@ -16599,7 +16599,7 @@
         <v>0</v>
       </c>
       <c r="D433" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E433" s="2" t="e">
@@ -16617,7 +16617,7 @@
         <v>0</v>
       </c>
       <c r="D434" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E434" s="2" t="e">
@@ -16635,7 +16635,7 @@
         <v>0</v>
       </c>
       <c r="D435" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E435" s="2" t="e">
@@ -16653,7 +16653,7 @@
         <v>0</v>
       </c>
       <c r="D436" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E436" s="2" t="e">
@@ -16671,7 +16671,7 @@
         <v>0</v>
       </c>
       <c r="D437" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E437" s="2" t="e">
@@ -16689,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="D438" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E438" s="2" t="e">
@@ -16707,7 +16707,7 @@
         <v>0</v>
       </c>
       <c r="D439" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E439" s="2" t="e">
@@ -16725,7 +16725,7 @@
         <v>0</v>
       </c>
       <c r="D440" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E440" s="2" t="e">
@@ -16743,7 +16743,7 @@
         <v>0</v>
       </c>
       <c r="D441" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E441" s="2" t="e">
@@ -16761,7 +16761,7 @@
         <v>0</v>
       </c>
       <c r="D442" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E442" s="2" t="e">
@@ -16779,7 +16779,7 @@
         <v>0</v>
       </c>
       <c r="D443" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E443" s="2" t="e">
@@ -16797,7 +16797,7 @@
         <v>0</v>
       </c>
       <c r="D444" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E444" s="2" t="e">
@@ -16815,7 +16815,7 @@
         <v>0</v>
       </c>
       <c r="D445" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E445" s="2" t="e">
@@ -16833,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="D446" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E446" s="2" t="e">
@@ -16851,7 +16851,7 @@
         <v>0</v>
       </c>
       <c r="D447" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E447" s="2" t="e">
@@ -16869,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="D448" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E448" s="2" t="e">
@@ -16887,7 +16887,7 @@
         <v>0</v>
       </c>
       <c r="D449" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E449" s="2" t="e">
@@ -16905,7 +16905,7 @@
         <v>0</v>
       </c>
       <c r="D450" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="E450" s="2" t="e">
@@ -16923,7 +16923,7 @@
         <v>0</v>
       </c>
       <c r="D451" s="2">
-        <f t="shared" ref="D451:D502" si="12">C451-B451</f>
+        <f t="shared" ref="D451:D502" si="14">C451-B451</f>
         <v>0</v>
       </c>
       <c r="E451" s="2" t="e">
@@ -16941,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="D452" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E452" s="2" t="e">
@@ -16959,7 +16959,7 @@
         <v>0</v>
       </c>
       <c r="D453" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E453" s="2" t="e">
@@ -16977,7 +16977,7 @@
         <v>0</v>
       </c>
       <c r="D454" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E454" s="2" t="e">
@@ -16995,7 +16995,7 @@
         <v>0</v>
       </c>
       <c r="D455" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E455" s="2" t="e">
@@ -17013,7 +17013,7 @@
         <v>0</v>
       </c>
       <c r="D456" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E456" s="2" t="e">
@@ -17031,7 +17031,7 @@
         <v>0</v>
       </c>
       <c r="D457" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E457" s="2" t="e">
@@ -17049,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="D458" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E458" s="2" t="e">
@@ -17067,7 +17067,7 @@
         <v>0</v>
       </c>
       <c r="D459" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E459" s="2" t="e">
@@ -17085,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="D460" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E460" s="2" t="e">
@@ -17103,7 +17103,7 @@
         <v>0</v>
       </c>
       <c r="D461" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E461" s="2" t="e">
@@ -17121,7 +17121,7 @@
         <v>0</v>
       </c>
       <c r="D462" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E462" s="2" t="e">
@@ -17139,7 +17139,7 @@
         <v>0</v>
       </c>
       <c r="D463" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E463" s="2" t="e">
@@ -17157,7 +17157,7 @@
         <v>0</v>
       </c>
       <c r="D464" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E464" s="2" t="e">
@@ -17175,7 +17175,7 @@
         <v>0</v>
       </c>
       <c r="D465" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E465" s="2" t="e">
@@ -17193,7 +17193,7 @@
         <v>0</v>
       </c>
       <c r="D466" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E466" s="2" t="e">
@@ -17211,7 +17211,7 @@
         <v>0</v>
       </c>
       <c r="D467" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E467" s="2" t="e">
@@ -17229,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="D468" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E468" s="2" t="e">
@@ -17247,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="D469" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E469" s="2" t="e">
@@ -17265,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="D470" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E470" s="2" t="e">
@@ -17283,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="D471" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="E471" s="2" t="e">
@@ -17301,7 +17301,7 @@
         <v>0</v>
       </c>
       <c r="D472" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17315,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="D473" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17329,7 +17329,7 @@
         <v>0</v>
       </c>
       <c r="D474" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17343,7 +17343,7 @@
         <v>0</v>
       </c>
       <c r="D475" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17357,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="D476" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17371,7 +17371,7 @@
         <v>0</v>
       </c>
       <c r="D477" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17385,7 +17385,7 @@
         <v>0</v>
       </c>
       <c r="D478" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17399,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="D479" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="D480" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17427,7 +17427,7 @@
         <v>0</v>
       </c>
       <c r="D481" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17441,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="D482" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17455,7 +17455,7 @@
         <v>0</v>
       </c>
       <c r="D483" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17469,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="D484" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="D485" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17497,7 +17497,7 @@
         <v>0</v>
       </c>
       <c r="D486" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17511,7 +17511,7 @@
         <v>0</v>
       </c>
       <c r="D487" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17525,7 +17525,7 @@
         <v>0</v>
       </c>
       <c r="D488" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17539,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="D489" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17553,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="D490" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17567,7 +17567,7 @@
         <v>0</v>
       </c>
       <c r="D491" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17581,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="D492" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="D493" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17609,7 +17609,7 @@
         <v>0</v>
       </c>
       <c r="D494" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17623,7 +17623,7 @@
         <v>0</v>
       </c>
       <c r="D495" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17637,7 +17637,7 @@
         <v>0</v>
       </c>
       <c r="D496" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17651,7 +17651,7 @@
         <v>0</v>
       </c>
       <c r="D497" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17665,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="D498" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17679,7 +17679,7 @@
         <v>0</v>
       </c>
       <c r="D499" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
       <c r="D500" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17707,7 +17707,7 @@
         <v>0</v>
       </c>
       <c r="D501" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -17721,7 +17721,7 @@
         <v>0</v>
       </c>
       <c r="D502" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>

--- a/数值设定/生产方式效率显示表.xlsx
+++ b/数值设定/生产方式效率显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21630" windowHeight="12390"/>
+    <workbookView windowWidth="21525" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -66,6 +66,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -92,17 +100,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -114,34 +121,17 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,18 +143,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,14 +169,31 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,6 +246,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -264,66 +276,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -336,7 +288,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -360,25 +372,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,19 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,26 +431,41 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,17 +485,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,30 +523,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -534,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +546,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5093,7 +5093,7 @@
             <v>工具</v>
           </cell>
           <cell r="Q131">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="R131" t="str">
             <v>引擎</v>
@@ -5105,7 +5105,7 @@
             <v>煤炭</v>
           </cell>
           <cell r="U131">
-            <v>5</v>
+            <v>4</v>
           </cell>
         </row>
         <row r="131">
@@ -5133,7 +5133,7 @@
             <v>工具</v>
           </cell>
           <cell r="Q132">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="R132" t="str">
             <v>魔偶</v>
@@ -5168,7 +5168,7 @@
             <v>工具</v>
           </cell>
           <cell r="Q133">
-            <v>5</v>
+            <v>3</v>
           </cell>
           <cell r="R133" t="str">
             <v>魔偶</v>
@@ -5929,8 +5929,8 @@
   <sheetPr/>
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="D134" sqref="D134"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="G124" sqref="G124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -9350,7 +9350,7 @@
       </c>
       <c r="B132" s="2">
         <f>([1]生产方式!$Q131*数据!A131)+([1]生产方式!$S131*数据!B131)+([1]生产方式!$U131*数据!C131)+([1]生产方式!$W131*数据!D131)+([1]生产方式!$Y131*数据!E131)</f>
-        <v>410</v>
+        <v>300</v>
       </c>
       <c r="C132" s="2">
         <f>([1]生产方式!$AA131*数据!F131)+([1]生产方式!$AC131*数据!G131)</f>
@@ -9358,11 +9358,11 @@
       </c>
       <c r="D132" s="2">
         <f t="shared" si="4"/>
-        <v>-410</v>
+        <v>-300</v>
       </c>
       <c r="E132" s="2">
         <f>D132*1000/([1]生产方式!$AE131+[1]生产方式!$AG131+[1]生产方式!$AI131)</f>
-        <v>512.5</v>
+        <v>375</v>
       </c>
       <c r="F132" s="2">
         <f t="shared" si="5"/>
@@ -9376,7 +9376,7 @@
       </c>
       <c r="B133" s="2">
         <f>([1]生产方式!$Q132*数据!A132)+([1]生产方式!$S132*数据!B132)+([1]生产方式!$U132*数据!C132)+([1]生产方式!$W132*数据!D132)+([1]生产方式!$Y132*数据!E132)</f>
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="C133" s="2">
         <f>([1]生产方式!$AA132*数据!F132)+([1]生产方式!$AC132*数据!G132)</f>
@@ -9384,11 +9384,11 @@
       </c>
       <c r="D133" s="2">
         <f t="shared" si="4"/>
-        <v>-890</v>
+        <v>-810</v>
       </c>
       <c r="E133" s="2">
         <f>D133*1000/([1]生产方式!$AE132+[1]生产方式!$AG132+[1]生产方式!$AI132)</f>
-        <v>539.393939393939</v>
+        <v>490.909090909091</v>
       </c>
       <c r="F133" s="2">
         <f t="shared" si="5"/>
@@ -9402,7 +9402,7 @@
       </c>
       <c r="B134" s="2">
         <f>([1]生产方式!$Q133*数据!A133)+([1]生产方式!$S133*数据!B133)+([1]生产方式!$U133*数据!C133)+([1]生产方式!$W133*数据!D133)+([1]生产方式!$Y133*数据!E133)</f>
-        <v>950</v>
+        <v>870</v>
       </c>
       <c r="C134" s="2">
         <f>([1]生产方式!$AA133*数据!F133)+([1]生产方式!$AC133*数据!G133)</f>
@@ -9410,11 +9410,11 @@
       </c>
       <c r="D134" s="2">
         <f t="shared" si="4"/>
-        <v>-950</v>
+        <v>-870</v>
       </c>
       <c r="E134" s="2">
         <f>D134*1000/([1]生产方式!$AE133+[1]生产方式!$AG133+[1]生产方式!$AI133)</f>
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="F134" s="2">
         <f t="shared" si="5"/>

--- a/数值设定/生产方式效率显示表.xlsx
+++ b/数值设定/生产方式效率显示表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21525" windowHeight="12390"/>
+    <workbookView windowWidth="20842" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="计算" sheetId="1" r:id="rId1"/>
@@ -40,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -78,13 +78,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -98,18 +91,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -128,13 +121,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -145,7 +131,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,10 +153,33 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,17 +191,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,14 +200,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,13 +240,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,49 +270,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,7 +300,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,7 +324,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -348,7 +354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,13 +372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,25 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,7 +435,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,21 +451,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,7 +474,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,20 +511,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,16 +546,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -564,115 +564,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4782,7 +4782,7 @@
             <v>生铁</v>
           </cell>
           <cell r="Q120">
-            <v>5</v>
+            <v>3</v>
           </cell>
         </row>
         <row r="120">
@@ -4810,7 +4810,7 @@
             <v>生铁</v>
           </cell>
           <cell r="Q121">
-            <v>10</v>
+            <v>5</v>
           </cell>
           <cell r="R121" t="str">
             <v>引擎</v>
@@ -4867,7 +4867,7 @@
             <v>煤炭</v>
           </cell>
           <cell r="U123">
-            <v>3</v>
+            <v>2</v>
           </cell>
         </row>
         <row r="123">
@@ -4937,7 +4937,7 @@
             <v>工具</v>
           </cell>
           <cell r="U125">
-            <v>3</v>
+            <v>2</v>
           </cell>
           <cell r="V125" t="str">
             <v>煤炭</v>
@@ -4949,7 +4949,7 @@
             <v>引擎</v>
           </cell>
           <cell r="Y125">
-            <v>2</v>
+            <v>1</v>
           </cell>
         </row>
         <row r="125">
@@ -5007,6 +5007,11 @@
           </cell>
         </row>
         <row r="127">
+          <cell r="S127" t="str">
+            <v> </v>
+          </cell>
+        </row>
+        <row r="127">
           <cell r="Z127" t="str">
             <v>烈酒</v>
           </cell>
@@ -5208,6 +5213,338 @@
         <row r="133">
           <cell r="AI133">
             <v>150</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="C134" t="str">
+            <v>手工缝纫</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="P134" t="str">
+            <v>布料</v>
+          </cell>
+          <cell r="Q134">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="Z134" t="str">
+            <v>普通衣物</v>
+          </cell>
+          <cell r="AA134">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="AE134">
+            <v>4900</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="C135" t="str">
+            <v>染料工坊</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="P135" t="str">
+            <v>布料</v>
+          </cell>
+          <cell r="Q135">
+            <v>40</v>
+          </cell>
+          <cell r="R135" t="str">
+            <v>染料</v>
+          </cell>
+          <cell r="S135">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="Z135" t="str">
+            <v>普通衣物</v>
+          </cell>
+          <cell r="AA135">
+            <v>150</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="AE135">
+            <v>4900</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="C136" t="str">
+            <v>无奢侈衣物</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="C137" t="str">
+            <v>匠人缝纫</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="P137" t="str">
+            <v>丝绸</v>
+          </cell>
+          <cell r="Q137">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="Z137" t="str">
+            <v>奢侈服装</v>
+          </cell>
+          <cell r="AA137">
+            <v>30</v>
+          </cell>
+          <cell r="AB137" t="str">
+            <v>普通衣物</v>
+          </cell>
+          <cell r="AC137">
+            <v>-30</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="AE137">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="C138" t="str">
+            <v>弹性织物</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="P138" t="str">
+            <v>丝绸</v>
+          </cell>
+          <cell r="Q138">
+            <v>15</v>
+          </cell>
+          <cell r="R138" t="str">
+            <v>树胶</v>
+          </cell>
+          <cell r="S138">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="Z138" t="str">
+            <v>奢侈服装</v>
+          </cell>
+          <cell r="AA138">
+            <v>50</v>
+          </cell>
+          <cell r="AB138" t="str">
+            <v>普通衣物</v>
+          </cell>
+          <cell r="AC138">
+            <v>-50</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="AE138">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="C139" t="str">
+            <v>传统织机</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="C140" t="str">
+            <v>缝纫机</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="P140" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="Q140">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="AE140">
+            <v>-1000</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="AG140">
+            <v>400</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="AI140">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="C141" t="str">
+            <v>自动缝纫机</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="P141" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="Q141">
+            <v>8</v>
+          </cell>
+          <cell r="R141" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="S141">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="AE141">
+            <v>-2000</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="AG141">
+            <v>600</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="AI141">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="C142" t="str">
+            <v>无魔法自动化</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="C143" t="str">
+            <v>基础魔偶</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="P143" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="Q143">
+            <v>2</v>
+          </cell>
+          <cell r="R143" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S143">
+            <v>1</v>
+          </cell>
+          <cell r="T143" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U143">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="AE143">
+            <v>-1500</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="AG143">
+            <v>200</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="C144" t="str">
+            <v>智能魔偶</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="P144" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="Q144">
+            <v>4</v>
+          </cell>
+          <cell r="R144" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="S144">
+            <v>2</v>
+          </cell>
+          <cell r="T144" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="U144">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="AE144">
+            <v>-2900</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="AG144">
+            <v>300</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="C145" t="str">
+            <v>无魔导自动化</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="C146" t="str">
+            <v>魔偶流水线</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="P146" t="str">
+            <v>煤炭</v>
+          </cell>
+          <cell r="Q146">
+            <v>4</v>
+          </cell>
+          <cell r="R146" t="str">
+            <v>工具</v>
+          </cell>
+          <cell r="S146">
+            <v>4</v>
+          </cell>
+          <cell r="T146" t="str">
+            <v>魔偶</v>
+          </cell>
+          <cell r="U146">
+            <v>1</v>
+          </cell>
+          <cell r="V146" t="str">
+            <v>灵能水晶</v>
+          </cell>
+          <cell r="W146">
+            <v>1</v>
+          </cell>
+          <cell r="X146" t="str">
+            <v>树胶</v>
+          </cell>
+          <cell r="Y146">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="AE146">
+            <v>-600</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="AG146">
+            <v>-150</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="AI146">
+            <v>-150</v>
           </cell>
         </row>
       </sheetData>
@@ -5929,8 +6266,8 @@
   <sheetPr/>
   <dimension ref="A1:H999"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A95" workbookViewId="0">
-      <selection activeCell="G124" sqref="G124"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="K131" sqref="K131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -9038,7 +9375,7 @@
       </c>
       <c r="B120" s="2">
         <f>([1]生产方式!$Q120*数据!A119)+([1]生产方式!$S120*数据!B119)+([1]生产方式!$U120*数据!C119)+([1]生产方式!$W120*数据!D119)+([1]生产方式!$Y120*数据!E119)</f>
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="C120" s="2">
         <f>([1]生产方式!$AA120*数据!F119)+([1]生产方式!$AC120*数据!G119)</f>
@@ -9046,11 +9383,11 @@
       </c>
       <c r="D120" s="2">
         <f t="shared" si="2"/>
-        <v>-250</v>
+        <v>-150</v>
       </c>
       <c r="E120" s="2">
         <f>D120*1000/([1]生产方式!$AE120+[1]生产方式!$AG120+[1]生产方式!$AI120)</f>
-        <v>357.142857142857</v>
+        <v>214.285714285714</v>
       </c>
       <c r="F120" s="2">
         <f t="shared" si="3"/>
@@ -9064,7 +9401,7 @@
       </c>
       <c r="B121" s="2">
         <f>([1]生产方式!$Q121*数据!A120)+([1]生产方式!$S121*数据!B120)+([1]生产方式!$U121*数据!C120)+([1]生产方式!$W121*数据!D120)+([1]生产方式!$Y121*数据!E120)</f>
-        <v>590</v>
+        <v>340</v>
       </c>
       <c r="C121" s="2">
         <f>([1]生产方式!$AA121*数据!F120)+([1]生产方式!$AC121*数据!G120)</f>
@@ -9072,11 +9409,11 @@
       </c>
       <c r="D121" s="2">
         <f t="shared" si="2"/>
-        <v>-590</v>
+        <v>-340</v>
       </c>
       <c r="E121" s="2">
         <f>D121*1000/([1]生产方式!$AE121+[1]生产方式!$AG121+[1]生产方式!$AI121)</f>
-        <v>421.428571428571</v>
+        <v>242.857142857143</v>
       </c>
       <c r="F121" s="2">
         <f t="shared" si="3"/>
@@ -9116,7 +9453,7 @@
       </c>
       <c r="B123" s="2">
         <f>([1]生产方式!$Q123*数据!A122)+([1]生产方式!$S123*数据!B122)+([1]生产方式!$U123*数据!C122)+([1]生产方式!$W123*数据!D122)+([1]生产方式!$Y123*数据!E122)</f>
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="C123" s="2">
         <f>([1]生产方式!$AA123*数据!F122)+([1]生产方式!$AC123*数据!G122)</f>
@@ -9124,11 +9461,11 @@
       </c>
       <c r="D123" s="2">
         <f t="shared" si="2"/>
-        <v>-270</v>
+        <v>-240</v>
       </c>
       <c r="E123" s="2">
         <f>D123*1000/([1]生产方式!$AE123+[1]生产方式!$AG123+[1]生产方式!$AI123)</f>
-        <v>385.714285714286</v>
+        <v>342.857142857143</v>
       </c>
       <c r="F123" s="2">
         <f t="shared" si="3"/>
@@ -9168,7 +9505,7 @@
       </c>
       <c r="B125" s="2">
         <f>([1]生产方式!$Q125*数据!A124)+([1]生产方式!$S125*数据!B124)+([1]生产方式!$U125*数据!C124)+([1]生产方式!$W125*数据!D124)+([1]生产方式!$Y125*数据!E124)</f>
-        <v>570</v>
+        <v>470</v>
       </c>
       <c r="C125" s="2">
         <f>([1]生产方式!$AA125*数据!F124)+([1]生产方式!$AC125*数据!G124)</f>
@@ -9176,11 +9513,11 @@
       </c>
       <c r="D125" s="2">
         <f t="shared" si="2"/>
-        <v>-570</v>
+        <v>-470</v>
       </c>
       <c r="E125" s="2">
         <f>D125*1000/([1]生产方式!$AE125+[1]生产方式!$AG125+[1]生产方式!$AI125)</f>
-        <v>430.188679245283</v>
+        <v>354.716981132075</v>
       </c>
       <c r="F125" s="2">
         <f t="shared" si="3"/>
@@ -9244,25 +9581,25 @@
         <f>[1]生产方式!C127</f>
         <v>连续式蒸馏器</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="2" t="e">
         <f>([1]生产方式!$Q127*数据!A127)+([1]生产方式!$S127*数据!B127)+([1]生产方式!$U127*数据!C127)+([1]生产方式!$W127*数据!D127)+([1]生产方式!$Y127*数据!E127)</f>
-        <v>2400</v>
+        <v>#VALUE!</v>
       </c>
       <c r="C128" s="2">
         <f>([1]生产方式!$AA127*数据!F127)+([1]生产方式!$AC127*数据!G127)</f>
         <v>5800</v>
       </c>
-      <c r="D128" s="2">
+      <c r="D128" s="2" t="e">
         <f t="shared" si="2"/>
-        <v>3400</v>
-      </c>
-      <c r="E128" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E128" s="2" t="e">
         <f>D128*1000/([1]生产方式!$AE127+[1]生产方式!$AG127+[1]生产方式!$AI127)</f>
-        <v>772.727272727273</v>
-      </c>
-      <c r="F128" s="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F128" s="2" t="e">
         <f t="shared" si="3"/>
-        <v>2.41666666666667</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -9422,61 +9759,61 @@
       </c>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="3">
+      <c r="A135" s="3" t="str">
         <f>[1]生产方式!C134</f>
-        <v>0</v>
+        <v>手工缝纫</v>
       </c>
       <c r="B135" s="2">
         <f>([1]生产方式!$Q134*数据!A134)+([1]生产方式!$S134*数据!B134)+([1]生产方式!$U134*数据!C134)+([1]生产方式!$W134*数据!D134)+([1]生产方式!$Y134*数据!E134)</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C135" s="2">
         <f>([1]生产方式!$AA134*数据!F134)+([1]生产方式!$AC134*数据!G134)</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="D135" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E135" s="2" t="e">
+        <v>2200</v>
+      </c>
+      <c r="E135" s="2">
         <f>D135*1000/([1]生产方式!$AE134+[1]生产方式!$AG134+[1]生产方式!$AI134)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F135" s="2" t="e">
+        <v>448.979591836735</v>
+      </c>
+      <c r="F135" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="3">
+      <c r="A136" s="3" t="str">
         <f>[1]生产方式!C135</f>
-        <v>0</v>
+        <v>染料工坊</v>
       </c>
       <c r="B136" s="2">
         <f>([1]生产方式!$Q135*数据!A135)+([1]生产方式!$S135*数据!B135)+([1]生产方式!$U135*数据!C135)+([1]生产方式!$W135*数据!D135)+([1]生产方式!$Y135*数据!E135)</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="C136" s="2">
         <f>([1]生产方式!$AA135*数据!F135)+([1]生产方式!$AC135*数据!G135)</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="D136" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E136" s="2" t="e">
+        <v>3500</v>
+      </c>
+      <c r="E136" s="2">
         <f>D136*1000/([1]生产方式!$AE135+[1]生产方式!$AG135+[1]生产方式!$AI135)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F136" s="2" t="e">
+        <v>714.285714285714</v>
+      </c>
+      <c r="F136" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="3">
+      <c r="A137" s="3" t="str">
         <f>[1]生产方式!C136</f>
-        <v>0</v>
+        <v>无奢侈衣物</v>
       </c>
       <c r="B137" s="2">
         <f>([1]生产方式!$Q136*数据!A136)+([1]生产方式!$S136*数据!B136)+([1]生产方式!$U136*数据!C136)+([1]生产方式!$W136*数据!D136)+([1]生产方式!$Y136*数据!E136)</f>
@@ -9500,61 +9837,61 @@
       </c>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="3">
+      <c r="A138" s="3" t="str">
         <f>[1]生产方式!C137</f>
-        <v>0</v>
+        <v>匠人缝纫</v>
       </c>
       <c r="B138" s="2">
         <f>([1]生产方式!$Q137*数据!A137)+([1]生产方式!$S137*数据!B137)+([1]生产方式!$U137*数据!C137)+([1]生产方式!$W137*数据!D137)+([1]生产方式!$Y137*数据!E137)</f>
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C138" s="2">
         <f>([1]生产方式!$AA137*数据!F137)+([1]生产方式!$AC137*数据!G137)</f>
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="D138" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E138" s="2" t="e">
+        <v>300</v>
+      </c>
+      <c r="E138" s="2">
         <f>D138*1000/([1]生产方式!$AE137+[1]生产方式!$AG137+[1]生产方式!$AI137)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F138" s="2" t="e">
+        <v>3000</v>
+      </c>
+      <c r="F138" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="3">
+      <c r="A139" s="3" t="str">
         <f>[1]生产方式!C138</f>
-        <v>0</v>
+        <v>弹性织物</v>
       </c>
       <c r="B139" s="2">
         <f>([1]生产方式!$Q138*数据!A138)+([1]生产方式!$S138*数据!B138)+([1]生产方式!$U138*数据!C138)+([1]生产方式!$W138*数据!D138)+([1]生产方式!$Y138*数据!E138)</f>
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="C139" s="2">
         <f>([1]生产方式!$AA138*数据!F138)+([1]生产方式!$AC138*数据!G138)</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="D139" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E139" s="2" t="e">
+        <v>700</v>
+      </c>
+      <c r="E139" s="2">
         <f>D139*1000/([1]生产方式!$AE138+[1]生产方式!$AG138+[1]生产方式!$AI138)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F139" s="2" t="e">
+        <v>3500</v>
+      </c>
+      <c r="F139" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1.875</v>
       </c>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="3">
+      <c r="A140" s="3" t="str">
         <f>[1]生产方式!C139</f>
-        <v>0</v>
+        <v>传统织机</v>
       </c>
       <c r="B140" s="2">
         <f>([1]生产方式!$Q139*数据!A139)+([1]生产方式!$S139*数据!B139)+([1]生产方式!$U139*数据!C139)+([1]生产方式!$W139*数据!D139)+([1]生产方式!$Y139*数据!E139)</f>
@@ -9578,13 +9915,13 @@
       </c>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="3">
+      <c r="A141" s="3" t="str">
         <f>[1]生产方式!C140</f>
-        <v>0</v>
+        <v>缝纫机</v>
       </c>
       <c r="B141" s="2">
         <f>([1]生产方式!$Q140*数据!A140)+([1]生产方式!$S140*数据!B140)+([1]生产方式!$U140*数据!C140)+([1]生产方式!$W140*数据!D140)+([1]生产方式!$Y140*数据!E140)</f>
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="C141" s="2">
         <f>([1]生产方式!$AA140*数据!F140)+([1]生产方式!$AC140*数据!G140)</f>
@@ -9592,25 +9929,25 @@
       </c>
       <c r="D141" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E141" s="2" t="e">
+        <v>-240</v>
+      </c>
+      <c r="E141" s="2">
         <f>D141*1000/([1]生产方式!$AE140+[1]生产方式!$AG140+[1]生产方式!$AI140)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F141" s="2" t="e">
+        <v>480</v>
+      </c>
+      <c r="F141" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="3">
+      <c r="A142" s="3" t="str">
         <f>[1]生产方式!C141</f>
-        <v>0</v>
+        <v>自动缝纫机</v>
       </c>
       <c r="B142" s="2">
         <f>([1]生产方式!$Q141*数据!A141)+([1]生产方式!$S141*数据!B141)+([1]生产方式!$U141*数据!C141)+([1]生产方式!$W141*数据!D141)+([1]生产方式!$Y141*数据!E141)</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="C142" s="2">
         <f>([1]生产方式!$AA141*数据!F141)+([1]生产方式!$AC141*数据!G141)</f>
@@ -9618,21 +9955,21 @@
       </c>
       <c r="D142" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E142" s="2" t="e">
+        <v>-500</v>
+      </c>
+      <c r="E142" s="2">
         <f>D142*1000/([1]生产方式!$AE141+[1]生产方式!$AG141+[1]生产方式!$AI141)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F142" s="2" t="e">
+        <v>454.545454545455</v>
+      </c>
+      <c r="F142" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="3">
+      <c r="A143" s="3" t="str">
         <f>[1]生产方式!C142</f>
-        <v>0</v>
+        <v>无魔法自动化</v>
       </c>
       <c r="B143" s="2">
         <f>([1]生产方式!$Q142*数据!A142)+([1]生产方式!$S142*数据!B142)+([1]生产方式!$U142*数据!C142)+([1]生产方式!$W142*数据!D142)+([1]生产方式!$Y142*数据!E142)</f>
@@ -9656,13 +9993,13 @@
       </c>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="3">
+      <c r="A144" s="3" t="str">
         <f>[1]生产方式!C143</f>
-        <v>0</v>
+        <v>基础魔偶</v>
       </c>
       <c r="B144" s="2">
         <f>([1]生产方式!$Q143*数据!A143)+([1]生产方式!$S143*数据!B143)+([1]生产方式!$U143*数据!C143)+([1]生产方式!$W143*数据!D143)+([1]生产方式!$Y143*数据!E143)</f>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="C144" s="2">
         <f>([1]生产方式!$AA143*数据!F143)+([1]生产方式!$AC143*数据!G143)</f>
@@ -9670,25 +10007,25 @@
       </c>
       <c r="D144" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E144" s="2" t="e">
+        <v>-660</v>
+      </c>
+      <c r="E144" s="2">
         <f>D144*1000/([1]生产方式!$AE143+[1]生产方式!$AG143+[1]生产方式!$AI143)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F144" s="2" t="e">
+        <v>507.692307692308</v>
+      </c>
+      <c r="F144" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="3">
+      <c r="A145" s="3" t="str">
         <f>[1]生产方式!C144</f>
-        <v>0</v>
+        <v>智能魔偶</v>
       </c>
       <c r="B145" s="2">
         <f>([1]生产方式!$Q144*数据!A144)+([1]生产方式!$S144*数据!B144)+([1]生产方式!$U144*数据!C144)+([1]生产方式!$W144*数据!D144)+([1]生产方式!$Y144*数据!E144)</f>
-        <v>0</v>
+        <v>1320</v>
       </c>
       <c r="C145" s="2">
         <f>([1]生产方式!$AA144*数据!F144)+([1]生产方式!$AC144*数据!G144)</f>
@@ -9696,21 +10033,21 @@
       </c>
       <c r="D145" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E145" s="2" t="e">
+        <v>-1320</v>
+      </c>
+      <c r="E145" s="2">
         <f>D145*1000/([1]生产方式!$AE144+[1]生产方式!$AG144+[1]生产方式!$AI144)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F145" s="2" t="e">
+        <v>507.692307692308</v>
+      </c>
+      <c r="F145" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="3">
+      <c r="A146" s="3" t="str">
         <f>[1]生产方式!C145</f>
-        <v>0</v>
+        <v>无魔导自动化</v>
       </c>
       <c r="B146" s="2">
         <f>([1]生产方式!$Q145*数据!A145)+([1]生产方式!$S145*数据!B145)+([1]生产方式!$U145*数据!C145)+([1]生产方式!$W145*数据!D145)+([1]生产方式!$Y145*数据!E145)</f>
@@ -9734,13 +10071,13 @@
       </c>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="3">
+      <c r="A147" s="3" t="str">
         <f>[1]生产方式!C146</f>
-        <v>0</v>
+        <v>魔偶流水线</v>
       </c>
       <c r="B147" s="2">
         <f>([1]生产方式!$Q146*数据!A146)+([1]生产方式!$S146*数据!B146)+([1]生产方式!$U146*数据!C146)+([1]生产方式!$W146*数据!D146)+([1]生产方式!$Y146*数据!E146)</f>
-        <v>0</v>
+        <v>590</v>
       </c>
       <c r="C147" s="2">
         <f>([1]生产方式!$AA146*数据!F146)+([1]生产方式!$AC146*数据!G146)</f>
@@ -9748,15 +10085,15 @@
       </c>
       <c r="D147" s="2">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="E147" s="2" t="e">
+        <v>-590</v>
+      </c>
+      <c r="E147" s="2">
         <f>D147*1000/([1]生产方式!$AE146+[1]生产方式!$AG146+[1]生产方式!$AI146)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F147" s="2" t="e">
+        <v>655.555555555556</v>
+      </c>
+      <c r="F147" s="2">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -24715,9 +25052,9 @@
       </c>
     </row>
     <row r="134" spans="1:7">
-      <c r="A134" t="str">
+      <c r="A134">
         <f>IFERROR(VLOOKUP([1]生产方式!P134,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B134" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!R134,[1]数据表!$B:$C,2,0),"0")</f>
@@ -24735,9 +25072,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X134,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F134" t="str">
+      <c r="F134">
         <f>IFERROR(VLOOKUP([1]生产方式!Z134,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G134" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB134,[1]数据表!$B:$C,2,0),"0")</f>
@@ -24745,13 +25082,13 @@
       </c>
     </row>
     <row r="135" spans="1:7">
-      <c r="A135" t="str">
+      <c r="A135">
         <f>IFERROR(VLOOKUP([1]生产方式!P135,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B135" t="str">
+        <v>20</v>
+      </c>
+      <c r="B135">
         <f>IFERROR(VLOOKUP([1]生产方式!R135,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C135" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!T135,[1]数据表!$B:$C,2,0),"0")</f>
@@ -24765,9 +25102,9 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X135,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F135" t="str">
+      <c r="F135">
         <f>IFERROR(VLOOKUP([1]生产方式!Z135,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G135" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!AB135,[1]数据表!$B:$C,2,0),"0")</f>
@@ -24805,9 +25142,9 @@
       </c>
     </row>
     <row r="137" spans="1:7">
-      <c r="A137" t="str">
+      <c r="A137">
         <f>IFERROR(VLOOKUP([1]生产方式!P137,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B137" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!R137,[1]数据表!$B:$C,2,0),"0")</f>
@@ -24825,23 +25162,23 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X137,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F137" t="str">
+      <c r="F137">
         <f>IFERROR(VLOOKUP([1]生产方式!Z137,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="G137" t="str">
+        <v>60</v>
+      </c>
+      <c r="G137">
         <f>IFERROR(VLOOKUP([1]生产方式!AB137,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138" spans="1:7">
-      <c r="A138" t="str">
+      <c r="A138">
         <f>IFERROR(VLOOKUP([1]生产方式!P138,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B138" t="str">
+        <v>40</v>
+      </c>
+      <c r="B138">
         <f>IFERROR(VLOOKUP([1]生产方式!R138,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C138" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!T138,[1]数据表!$B:$C,2,0),"0")</f>
@@ -24855,13 +25192,13 @@
         <f>IFERROR(VLOOKUP([1]生产方式!X138,[1]数据表!$B:$C,2,0),"0")</f>
         <v>0</v>
       </c>
-      <c r="F138" t="str">
+      <c r="F138">
         <f>IFERROR(VLOOKUP([1]生产方式!Z138,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="G138" t="str">
+        <v>60</v>
+      </c>
+      <c r="G138">
         <f>IFERROR(VLOOKUP([1]生产方式!AB138,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -24895,9 +25232,9 @@
       </c>
     </row>
     <row r="140" spans="1:7">
-      <c r="A140" t="str">
+      <c r="A140">
         <f>IFERROR(VLOOKUP([1]生产方式!P140,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B140" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!R140,[1]数据表!$B:$C,2,0),"0")</f>
@@ -24925,13 +25262,13 @@
       </c>
     </row>
     <row r="141" spans="1:7">
-      <c r="A141" t="str">
+      <c r="A141">
         <f>IFERROR(VLOOKUP([1]生产方式!P141,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B141" t="str">
+        <v>40</v>
+      </c>
+      <c r="B141">
         <f>IFERROR(VLOOKUP([1]生产方式!R141,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C141" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!T141,[1]数据表!$B:$C,2,0),"0")</f>
@@ -24985,17 +25322,17 @@
       </c>
     </row>
     <row r="143" spans="1:7">
-      <c r="A143" t="str">
+      <c r="A143">
         <f>IFERROR(VLOOKUP([1]生产方式!P143,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B143" t="str">
+        <v>150</v>
+      </c>
+      <c r="B143">
         <f>IFERROR(VLOOKUP([1]生产方式!R143,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C143" t="str">
+        <v>120</v>
+      </c>
+      <c r="C143">
         <f>IFERROR(VLOOKUP([1]生产方式!T143,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D143" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V143,[1]数据表!$B:$C,2,0),"0")</f>
@@ -25015,17 +25352,17 @@
       </c>
     </row>
     <row r="144" spans="1:7">
-      <c r="A144" t="str">
+      <c r="A144">
         <f>IFERROR(VLOOKUP([1]生产方式!P144,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B144" t="str">
+        <v>150</v>
+      </c>
+      <c r="B144">
         <f>IFERROR(VLOOKUP([1]生产方式!R144,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C144" t="str">
+        <v>120</v>
+      </c>
+      <c r="C144">
         <f>IFERROR(VLOOKUP([1]生产方式!T144,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="D144" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!V144,[1]数据表!$B:$C,2,0),"0")</f>
@@ -25075,25 +25412,25 @@
       </c>
     </row>
     <row r="146" spans="1:7">
-      <c r="A146" t="str">
+      <c r="A146">
         <f>IFERROR(VLOOKUP([1]生产方式!P146,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="B146" t="str">
+        <v>30</v>
+      </c>
+      <c r="B146">
         <f>IFERROR(VLOOKUP([1]生产方式!R146,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="C146" t="str">
+        <v>40</v>
+      </c>
+      <c r="C146">
         <f>IFERROR(VLOOKUP([1]生产方式!T146,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="D146" t="str">
+        <v>150</v>
+      </c>
+      <c r="D146">
         <f>IFERROR(VLOOKUP([1]生产方式!V146,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
-      </c>
-      <c r="E146" t="str">
+        <v>120</v>
+      </c>
+      <c r="E146">
         <f>IFERROR(VLOOKUP([1]生产方式!X146,[1]数据表!$B:$C,2,0),"0")</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F146" t="str">
         <f>IFERROR(VLOOKUP([1]生产方式!Z146,[1]数据表!$B:$C,2,0),"0")</f>

--- a/数值设定/生产方式效率显示表.xlsx
+++ b/数值设定/生产方式效率显示表.xlsx
@@ -40,10 +40,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -69,9 +69,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,13 +92,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -99,7 +99,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -113,30 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
@@ -144,17 +120,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,8 +144,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +177,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,7 +207,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,7 +240,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,7 +252,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,145 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,11 +431,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -455,26 +461,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,6 +481,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +534,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,73 +546,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -621,58 +621,58 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -780,7 +780,7 @@
         </row>
         <row r="2">
           <cell r="C2" t="str">
-            <v>商人行会</v>
+            <v>轻_商人行会</v>
           </cell>
         </row>
         <row r="2">
@@ -814,7 +814,7 @@
         </row>
         <row r="3">
           <cell r="C3" t="str">
-            <v>教会所有</v>
+            <v>轻_教会所有</v>
           </cell>
         </row>
         <row r="3">
@@ -838,7 +838,7 @@
         </row>
         <row r="4">
           <cell r="C4" t="str">
-            <v>私人运营</v>
+            <v>轻_私人运营</v>
           </cell>
         </row>
         <row r="4">
@@ -872,7 +872,7 @@
         </row>
         <row r="5">
           <cell r="C5" t="str">
-            <v>公开交易</v>
+            <v>轻_公开交易</v>
           </cell>
         </row>
         <row r="5">
@@ -901,7 +901,7 @@
         </row>
         <row r="6">
           <cell r="C6" t="str">
-            <v>政府运营</v>
+            <v>轻_政府运营</v>
           </cell>
         </row>
         <row r="6">
@@ -925,7 +925,7 @@
         </row>
         <row r="7">
           <cell r="C7" t="str">
-            <v>初级工人合作社</v>
+            <v>轻_初级工人合作社</v>
           </cell>
         </row>
         <row r="7">
@@ -954,7 +954,7 @@
         </row>
         <row r="8">
           <cell r="C8" t="str">
-            <v>高级工人合作社</v>
+            <v>轻_高级工人合作社</v>
           </cell>
         </row>
         <row r="8">
@@ -983,7 +983,7 @@
         </row>
         <row r="9">
           <cell r="C9" t="str">
-            <v>法师所有</v>
+            <v>轻_法师所有</v>
           </cell>
         </row>
         <row r="9">
@@ -1002,7 +1002,7 @@
         </row>
         <row r="10">
           <cell r="C10" t="str">
-            <v>无科学基础生产</v>
+            <v>钢铁_无科学基础生产</v>
           </cell>
         </row>
         <row r="10">
@@ -1021,7 +1021,7 @@
         </row>
         <row r="11">
           <cell r="C11" t="str">
-            <v>高炉炼铁</v>
+            <v>钢铁_高炉炼铁</v>
           </cell>
         </row>
         <row r="11">
@@ -1053,7 +1053,7 @@
         </row>
         <row r="12">
           <cell r="C12" t="str">
-            <v>泡钢法</v>
+            <v>钢铁_泡钢法</v>
           </cell>
         </row>
         <row r="12">
@@ -1101,7 +1101,7 @@
         </row>
         <row r="13">
           <cell r="C13" t="str">
-            <v>贝塞麦转炉炼钢法</v>
+            <v>钢铁_贝塞麦转炉炼钢法</v>
           </cell>
         </row>
         <row r="13">
@@ -1149,7 +1149,7 @@
         </row>
         <row r="14">
           <cell r="C14" t="str">
-            <v>平炉炼钢法</v>
+            <v>钢铁_平炉炼钢法</v>
           </cell>
         </row>
         <row r="14">
@@ -1197,12 +1197,12 @@
         </row>
         <row r="15">
           <cell r="C15" t="str">
-            <v>无魔法基础生产</v>
+            <v>钢铁_无魔法基础生产</v>
           </cell>
         </row>
         <row r="16">
           <cell r="C16" t="str">
-            <v>冲击分离法</v>
+            <v>钢铁_冲击分离法</v>
           </cell>
         </row>
         <row r="16">
@@ -1251,7 +1251,7 @@
         </row>
         <row r="17">
           <cell r="C17" t="str">
-            <v>漂浮分离法</v>
+            <v>钢铁_漂浮分离法</v>
           </cell>
         </row>
         <row r="17">
@@ -1300,7 +1300,7 @@
         </row>
         <row r="18">
           <cell r="C18" t="str">
-            <v>魔能丝线分离法</v>
+            <v>钢铁_魔能丝线分离法</v>
           </cell>
         </row>
         <row r="18">
@@ -1349,12 +1349,12 @@
         </row>
         <row r="19">
           <cell r="C19" t="str">
-            <v>无科学自动化</v>
+            <v>钢铁_无科学自动化</v>
           </cell>
         </row>
         <row r="20">
           <cell r="C20" t="str">
-            <v>水管锅炉</v>
+            <v>钢铁_水管锅炉</v>
           </cell>
         </row>
         <row r="20">
@@ -1394,7 +1394,7 @@
         </row>
         <row r="21">
           <cell r="C21" t="str">
-            <v>旋转阀蒸汽机</v>
+            <v>钢铁_旋转阀蒸汽机</v>
           </cell>
         </row>
         <row r="21">
@@ -1434,12 +1434,12 @@
         </row>
         <row r="22">
           <cell r="C22" t="str">
-            <v>无魔法自动化</v>
+            <v>钢铁_无魔法自动化</v>
           </cell>
         </row>
         <row r="23">
           <cell r="C23" t="str">
-            <v>基础魔偶</v>
+            <v>钢铁_基础魔偶</v>
           </cell>
         </row>
         <row r="23">
@@ -1485,7 +1485,7 @@
         </row>
         <row r="24">
           <cell r="C24" t="str">
-            <v>智能魔偶</v>
+            <v>钢铁_智能魔偶</v>
           </cell>
         </row>
         <row r="24">
@@ -1531,7 +1531,7 @@
         </row>
         <row r="25">
           <cell r="C25" t="str">
-            <v>强智能魔偶</v>
+            <v>钢铁_强智能魔偶</v>
           </cell>
         </row>
         <row r="25">
@@ -1577,12 +1577,12 @@
         </row>
         <row r="26">
           <cell r="C26" t="str">
-            <v>无魔导自动化</v>
+            <v>钢铁_无魔导自动化</v>
           </cell>
         </row>
         <row r="27">
           <cell r="C27" t="str">
-            <v>魔偶流水线</v>
+            <v>钢铁_魔偶流水线</v>
           </cell>
         </row>
         <row r="27">
@@ -1634,7 +1634,7 @@
         </row>
         <row r="28">
           <cell r="C28" t="str">
-            <v>往复式蒸汽机</v>
+            <v>科动_往复式蒸汽机</v>
           </cell>
         </row>
         <row r="28">
@@ -1660,7 +1660,7 @@
         </row>
         <row r="29">
           <cell r="C29" t="str">
-            <v>旋转阀蒸汽机</v>
+            <v>科动_旋转阀蒸汽机</v>
           </cell>
         </row>
         <row r="29">
@@ -1708,7 +1708,7 @@
         </row>
         <row r="30">
           <cell r="C30" t="str">
-            <v>通用化蒸汽核心</v>
+            <v>科动_通用化蒸汽核心</v>
           </cell>
         </row>
         <row r="30">
@@ -1766,12 +1766,12 @@
         </row>
         <row r="31">
           <cell r="C31" t="str">
-            <v>无自动化</v>
+            <v>科动_无自动化</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32" t="str">
-            <v>水管锅炉</v>
+            <v>科动_水管锅炉</v>
           </cell>
         </row>
         <row r="32">
@@ -1805,7 +1805,7 @@
         </row>
         <row r="33">
           <cell r="C33" t="str">
-            <v>旋转阀蒸汽机</v>
+            <v>科动_旋转阀蒸汽机</v>
           </cell>
         </row>
         <row r="33">
@@ -1839,7 +1839,7 @@
         </row>
         <row r="34">
           <cell r="C34" t="str">
-            <v>流水线</v>
+            <v>科动_流水线</v>
           </cell>
         </row>
         <row r="34">
@@ -1879,7 +1879,7 @@
         </row>
         <row r="35">
           <cell r="C35" t="str">
-            <v>魔偶流水线</v>
+            <v>科动_魔偶流水线</v>
           </cell>
         </row>
         <row r="35">
@@ -1931,7 +1931,7 @@
         </row>
         <row r="36">
           <cell r="C36" t="str">
-            <v>基础魔偶生产</v>
+            <v>魔偶__基础魔偶生产</v>
           </cell>
         </row>
         <row r="36">
@@ -1979,7 +1979,7 @@
         </row>
         <row r="37">
           <cell r="C37" t="str">
-            <v>智能魔偶生产</v>
+            <v>魔偶__智能魔偶生产</v>
           </cell>
         </row>
         <row r="37">
@@ -2027,7 +2027,7 @@
         </row>
         <row r="38">
           <cell r="C38" t="str">
-            <v>超智能魔偶生产</v>
+            <v>魔偶__超智能魔偶生产</v>
           </cell>
         </row>
         <row r="38">
@@ -2085,12 +2085,12 @@
         </row>
         <row r="39">
           <cell r="C39" t="str">
-            <v>无自动化</v>
+            <v>魔偶__无自动化</v>
           </cell>
         </row>
         <row r="40">
           <cell r="C40" t="str">
-            <v>基础魔偶</v>
+            <v>魔偶__基础魔偶</v>
           </cell>
         </row>
         <row r="40">
@@ -2120,7 +2120,7 @@
         </row>
         <row r="41">
           <cell r="C41" t="str">
-            <v>智能魔偶</v>
+            <v>魔偶__智能魔偶</v>
           </cell>
         </row>
         <row r="41">
@@ -2155,7 +2155,7 @@
         </row>
         <row r="42">
           <cell r="C42" t="str">
-            <v>超智能魔偶</v>
+            <v>魔偶__超智能魔偶</v>
           </cell>
         </row>
         <row r="42">
@@ -2190,7 +2190,7 @@
         </row>
         <row r="43">
           <cell r="C43" t="str">
-            <v>魔偶流水线</v>
+            <v>魔偶__魔偶流水线</v>
           </cell>
         </row>
         <row r="43">
@@ -2237,7 +2237,7 @@
         </row>
         <row r="44">
           <cell r="C44" t="str">
-            <v>精炼</v>
+            <v>炼金_精炼</v>
           </cell>
         </row>
         <row r="44">
@@ -2285,7 +2285,7 @@
         </row>
         <row r="45">
           <cell r="C45" t="str">
-            <v>雌雄金属熔铸</v>
+            <v>炼金_雌雄金属熔铸</v>
           </cell>
         </row>
         <row r="45">
@@ -2333,7 +2333,7 @@
         </row>
         <row r="46">
           <cell r="C46" t="str">
-            <v>元素叠加传送</v>
+            <v>炼金_元素叠加传送</v>
           </cell>
         </row>
         <row r="46">
@@ -2381,12 +2381,12 @@
         </row>
         <row r="47">
           <cell r="C47" t="str">
-            <v>无自动化</v>
+            <v>炼金_无自动化</v>
           </cell>
         </row>
         <row r="48">
           <cell r="C48" t="str">
-            <v>基础魔偶</v>
+            <v>炼金_基础魔偶</v>
           </cell>
         </row>
         <row r="48">
@@ -2416,7 +2416,7 @@
         </row>
         <row r="49">
           <cell r="C49" t="str">
-            <v>智能魔偶</v>
+            <v>炼金_智能魔偶</v>
           </cell>
         </row>
         <row r="49">
@@ -2451,7 +2451,7 @@
         </row>
         <row r="50">
           <cell r="C50" t="str">
-            <v>超智能魔偶</v>
+            <v>炼金_超智能魔偶</v>
           </cell>
         </row>
         <row r="50">
@@ -2486,7 +2486,7 @@
         </row>
         <row r="51">
           <cell r="C51" t="str">
-            <v>魔偶流水线</v>
+            <v>炼金_魔偶流水线</v>
           </cell>
         </row>
         <row r="51">
@@ -2533,7 +2533,7 @@
         </row>
         <row r="52">
           <cell r="C52" t="str">
-            <v>养殖提取</v>
+            <v>泽洛提取_养殖提取</v>
           </cell>
         </row>
         <row r="52">
@@ -2569,7 +2569,7 @@
         </row>
         <row r="53">
           <cell r="C53" t="str">
-            <v>尸体榨取</v>
+            <v>泽洛提取_尸体榨取</v>
           </cell>
         </row>
         <row r="53">
@@ -2605,7 +2605,7 @@
         </row>
         <row r="54">
           <cell r="C54" t="str">
-            <v>标准法杖</v>
+            <v>泽洛提取_标准法杖</v>
           </cell>
         </row>
         <row r="54">
@@ -2642,7 +2642,7 @@
         </row>
         <row r="55">
           <cell r="C55" t="str">
-            <v>教国法铳</v>
+            <v>魔武_教国法铳</v>
           </cell>
         </row>
         <row r="55">
@@ -2679,7 +2679,7 @@
         </row>
         <row r="56">
           <cell r="C56" t="str">
-            <v>制式法铳</v>
+            <v>魔武_制式法铳</v>
           </cell>
         </row>
         <row r="56">
@@ -2722,7 +2722,7 @@
         </row>
         <row r="57">
           <cell r="C57" t="str">
-            <v>复式法铳</v>
+            <v>魔武_复式法铳</v>
           </cell>
         </row>
         <row r="57">
@@ -2771,12 +2771,12 @@
         </row>
         <row r="58">
           <cell r="C58" t="str">
-            <v>无自动化</v>
+            <v>魔武_无自动化</v>
           </cell>
         </row>
         <row r="59">
           <cell r="C59" t="str">
-            <v>基础魔偶</v>
+            <v>魔武_基础魔偶</v>
           </cell>
         </row>
         <row r="59">
@@ -2811,7 +2811,7 @@
         </row>
         <row r="60">
           <cell r="C60" t="str">
-            <v>智能魔偶</v>
+            <v>魔武_智能魔偶</v>
           </cell>
         </row>
         <row r="60">
@@ -2846,7 +2846,7 @@
         </row>
         <row r="61">
           <cell r="C61" t="str">
-            <v>超智能魔偶</v>
+            <v>魔武_超智能魔偶</v>
           </cell>
         </row>
         <row r="61">
@@ -2881,7 +2881,7 @@
         </row>
         <row r="62">
           <cell r="C62" t="str">
-            <v>魔偶流水线</v>
+            <v>魔武_魔偶流水线</v>
           </cell>
         </row>
         <row r="62">
@@ -2928,7 +2928,7 @@
         </row>
         <row r="63">
           <cell r="C63" t="str">
-            <v>灵能撞击法</v>
+            <v>魔装_灵能撞击法</v>
           </cell>
         </row>
         <row r="63">
@@ -2959,7 +2959,7 @@
         </row>
         <row r="64">
           <cell r="C64" t="str">
-            <v>灵能聚集法</v>
+            <v>魔装_灵能聚集法</v>
           </cell>
         </row>
         <row r="64">
@@ -2990,7 +2990,7 @@
         </row>
         <row r="65">
           <cell r="C65" t="str">
-            <v>灵能召唤法</v>
+            <v>魔装_灵能召唤法</v>
           </cell>
         </row>
         <row r="65">
@@ -3021,12 +3021,12 @@
         </row>
         <row r="66">
           <cell r="C66" t="str">
-            <v>无浮空车生产</v>
+            <v>魔装_无浮空车生产</v>
           </cell>
         </row>
         <row r="67">
           <cell r="C67" t="str">
-            <v>浮空车生产</v>
+            <v>魔装_浮空车生产</v>
           </cell>
         </row>
         <row r="67">
@@ -3079,12 +3079,12 @@
         </row>
         <row r="68">
           <cell r="C68" t="str">
-            <v>无自动化</v>
+            <v>魔装_无自动化</v>
           </cell>
         </row>
         <row r="69">
           <cell r="C69" t="str">
-            <v>基础魔偶</v>
+            <v>魔装_基础魔偶</v>
           </cell>
         </row>
         <row r="69">
@@ -3119,7 +3119,7 @@
         </row>
         <row r="70">
           <cell r="C70" t="str">
-            <v>智能魔偶</v>
+            <v>魔装_智能魔偶</v>
           </cell>
         </row>
         <row r="70">
@@ -3154,7 +3154,7 @@
         </row>
         <row r="71">
           <cell r="C71" t="str">
-            <v>超智能魔偶</v>
+            <v>魔装_超智能魔偶</v>
           </cell>
         </row>
         <row r="71">
@@ -3189,7 +3189,7 @@
         </row>
         <row r="72">
           <cell r="C72" t="str">
-            <v>魔偶流水线</v>
+            <v>魔装_魔偶流水线</v>
           </cell>
         </row>
         <row r="72">
@@ -3236,12 +3236,12 @@
         </row>
         <row r="73">
           <cell r="C73" t="str">
-            <v>无飞行器生产</v>
+            <v>科军_无飞行器生产</v>
           </cell>
         </row>
         <row r="74">
           <cell r="C74" t="str">
-            <v>蒸汽飞机生产</v>
+            <v>科军_蒸汽飞机生产</v>
           </cell>
         </row>
         <row r="74">
@@ -3283,7 +3283,7 @@
         </row>
         <row r="75">
           <cell r="C75" t="str">
-            <v>空天母舰生产</v>
+            <v>科军_空天母舰生产</v>
           </cell>
         </row>
         <row r="75">
@@ -3333,12 +3333,12 @@
         </row>
         <row r="76">
           <cell r="C76" t="str">
-            <v>无机甲生产</v>
+            <v>科军_无机甲生产</v>
           </cell>
         </row>
         <row r="77">
           <cell r="C77" t="str">
-            <v>蒸汽机甲</v>
+            <v>科军_蒸汽机甲</v>
           </cell>
         </row>
         <row r="77">
@@ -3380,7 +3380,7 @@
         </row>
         <row r="78">
           <cell r="C78" t="str">
-            <v>魔导机甲</v>
+            <v>科军_魔导机甲</v>
           </cell>
         </row>
         <row r="78">
@@ -3434,12 +3434,12 @@
         </row>
         <row r="79">
           <cell r="C79" t="str">
-            <v>无自动化</v>
+            <v>科军_无自动化</v>
           </cell>
         </row>
         <row r="80">
           <cell r="C80" t="str">
-            <v>水管锅炉</v>
+            <v>科军_水管锅炉</v>
           </cell>
         </row>
         <row r="80">
@@ -3473,7 +3473,7 @@
         </row>
         <row r="81">
           <cell r="C81" t="str">
-            <v>旋转阀蒸汽机</v>
+            <v>科军_旋转阀蒸汽机</v>
           </cell>
         </row>
         <row r="81">
@@ -3507,7 +3507,7 @@
         </row>
         <row r="82">
           <cell r="C82" t="str">
-            <v>流水线</v>
+            <v>科军_流水线</v>
           </cell>
         </row>
         <row r="82">
@@ -3547,7 +3547,7 @@
         </row>
         <row r="83">
           <cell r="C83" t="str">
-            <v>魔偶流水线</v>
+            <v>科军_魔偶流水线</v>
           </cell>
         </row>
         <row r="83">
@@ -3599,12 +3599,12 @@
         </row>
         <row r="84">
           <cell r="C84" t="str">
-            <v>无飞行器生产</v>
+            <v>魔军_无飞行器生产</v>
           </cell>
         </row>
         <row r="85">
           <cell r="C85" t="str">
-            <v>浮空平台生产</v>
+            <v>魔军_浮空平台生产</v>
           </cell>
         </row>
         <row r="85">
@@ -3647,7 +3647,7 @@
         </row>
         <row r="86">
           <cell r="C86" t="str">
-            <v>浮空城生产</v>
+            <v>魔军_浮空城生产</v>
           </cell>
         </row>
         <row r="86">
@@ -3690,12 +3690,12 @@
         </row>
         <row r="87">
           <cell r="C87" t="str">
-            <v>无机甲生产</v>
+            <v>魔军_无机甲生产</v>
           </cell>
         </row>
         <row r="88">
           <cell r="C88" t="str">
-            <v>魔能机甲</v>
+            <v>魔军_魔能机甲</v>
           </cell>
         </row>
         <row r="88">
@@ -3738,7 +3738,7 @@
         </row>
         <row r="89">
           <cell r="C89" t="str">
-            <v>魔导机甲</v>
+            <v>魔军_魔导机甲</v>
           </cell>
         </row>
         <row r="89">
@@ -3792,12 +3792,12 @@
         </row>
         <row r="90">
           <cell r="C90" t="str">
-            <v>无自动化</v>
+            <v>魔军_无自动化</v>
           </cell>
         </row>
         <row r="91">
           <cell r="C91" t="str">
-            <v>基础魔偶</v>
+            <v>魔军_基础魔偶</v>
           </cell>
         </row>
         <row r="91">
@@ -3832,7 +3832,7 @@
         </row>
         <row r="92">
           <cell r="C92" t="str">
-            <v>智能魔偶</v>
+            <v>魔军_智能魔偶</v>
           </cell>
         </row>
         <row r="92">
@@ -3867,7 +3867,7 @@
         </row>
         <row r="93">
           <cell r="C93" t="str">
-            <v>超智能魔偶</v>
+            <v>魔军_超智能魔偶</v>
           </cell>
         </row>
         <row r="93">
@@ -3902,7 +3902,7 @@
         </row>
         <row r="94">
           <cell r="C94" t="str">
-            <v>魔偶流水线</v>
+            <v>魔军_魔偶流水线</v>
           </cell>
         </row>
         <row r="94">
@@ -3954,7 +3954,7 @@
         </row>
         <row r="95">
           <cell r="C95" t="str">
-            <v>滑膛枪</v>
+            <v>科武_滑膛枪</v>
           </cell>
         </row>
         <row r="95">
@@ -4002,7 +4002,7 @@
         </row>
         <row r="96">
           <cell r="C96" t="str">
-            <v>来复枪</v>
+            <v>科武_来复枪</v>
           </cell>
         </row>
         <row r="96">
@@ -4060,7 +4060,7 @@
         </row>
         <row r="97">
           <cell r="C97" t="str">
-            <v>连发枪</v>
+            <v>科武_连发枪</v>
           </cell>
         </row>
         <row r="97">
@@ -4118,7 +4118,7 @@
         </row>
         <row r="98">
           <cell r="C98" t="str">
-            <v>栓动步枪</v>
+            <v>科武_栓动步枪</v>
           </cell>
         </row>
         <row r="98">
@@ -4171,12 +4171,12 @@
         </row>
         <row r="99">
           <cell r="C99" t="str">
-            <v>无火炮生产</v>
+            <v>科武_无火炮生产</v>
           </cell>
         </row>
         <row r="100">
           <cell r="C100" t="str">
-            <v>加农炮</v>
+            <v>科武_加农炮</v>
           </cell>
         </row>
         <row r="100">
@@ -4218,7 +4218,7 @@
         </row>
         <row r="101">
           <cell r="C101" t="str">
-            <v>滑膛炮</v>
+            <v>科武_滑膛炮</v>
           </cell>
         </row>
         <row r="101">
@@ -4260,7 +4260,7 @@
         </row>
         <row r="102">
           <cell r="C102" t="str">
-            <v>后膛炮</v>
+            <v>科武_后膛炮</v>
           </cell>
         </row>
         <row r="102">
@@ -4297,12 +4297,12 @@
         </row>
         <row r="103">
           <cell r="C103" t="str">
-            <v>无自动化</v>
+            <v>科武_无自动化</v>
           </cell>
         </row>
         <row r="104">
           <cell r="C104" t="str">
-            <v>水管锅炉</v>
+            <v>科武_水管锅炉</v>
           </cell>
         </row>
         <row r="104">
@@ -4326,7 +4326,7 @@
         </row>
         <row r="105">
           <cell r="C105" t="str">
-            <v>旋转阀蒸汽机</v>
+            <v>科武_旋转阀蒸汽机</v>
           </cell>
         </row>
         <row r="105">
@@ -4350,7 +4350,7 @@
         </row>
         <row r="106">
           <cell r="C106" t="str">
-            <v>流水线</v>
+            <v>科武_流水线</v>
           </cell>
         </row>
         <row r="106">
@@ -4390,7 +4390,7 @@
         </row>
         <row r="107">
           <cell r="C107" t="str">
-            <v>魔偶流水线</v>
+            <v>科武_魔偶流水线</v>
           </cell>
         </row>
         <row r="107">
@@ -4442,7 +4442,7 @@
         </row>
         <row r="108">
           <cell r="C108" t="str">
-            <v>商人行会</v>
+            <v>重_商人行会</v>
           </cell>
         </row>
         <row r="108">
@@ -4471,7 +4471,7 @@
         </row>
         <row r="109">
           <cell r="C109" t="str">
-            <v>教会所有</v>
+            <v>重_教会所有</v>
           </cell>
         </row>
         <row r="109">
@@ -4495,7 +4495,7 @@
         </row>
         <row r="110">
           <cell r="C110" t="str">
-            <v>私人运营</v>
+            <v>重_私人运营</v>
           </cell>
         </row>
         <row r="110">
@@ -4529,7 +4529,7 @@
         </row>
         <row r="111">
           <cell r="C111" t="str">
-            <v>公开交易</v>
+            <v>重_公开交易</v>
           </cell>
         </row>
         <row r="111">
@@ -4558,7 +4558,7 @@
         </row>
         <row r="112">
           <cell r="C112" t="str">
-            <v>政府运营</v>
+            <v>重_政府运营</v>
           </cell>
         </row>
         <row r="112">
@@ -4582,7 +4582,7 @@
         </row>
         <row r="113">
           <cell r="C113" t="str">
-            <v>初级工人合作社</v>
+            <v>重_初级工人合作社</v>
           </cell>
         </row>
         <row r="113">
@@ -4611,7 +4611,7 @@
         </row>
         <row r="114">
           <cell r="C114" t="str">
-            <v>高级工人合作社</v>
+            <v>重_高级工人合作社</v>
           </cell>
         </row>
         <row r="114">
@@ -4640,7 +4640,7 @@
         </row>
         <row r="115">
           <cell r="C115" t="str">
-            <v>法师所有</v>
+            <v>重_法师所有</v>
           </cell>
         </row>
         <row r="115">
@@ -4659,7 +4659,7 @@
         </row>
         <row r="116">
           <cell r="C116" t="str">
-            <v>面包房</v>
+            <v>食品_面包房</v>
           </cell>
         </row>
         <row r="116">
@@ -4685,7 +4685,7 @@
         </row>
         <row r="117">
           <cell r="C117" t="str">
-            <v>甜味剂</v>
+            <v>食品_甜味剂</v>
           </cell>
         </row>
         <row r="117">
@@ -4727,7 +4727,7 @@
         </row>
         <row r="118">
           <cell r="C118" t="str">
-            <v>烘焙粉</v>
+            <v>食品_烘焙粉</v>
           </cell>
         </row>
         <row r="118">
@@ -4769,12 +4769,12 @@
         </row>
         <row r="119">
           <cell r="C119" t="str">
-            <v>无罐装</v>
+            <v>食品_无罐装</v>
           </cell>
         </row>
         <row r="120">
           <cell r="C120" t="str">
-            <v>罐装</v>
+            <v>食品_罐装</v>
           </cell>
         </row>
         <row r="120">
@@ -4802,7 +4802,7 @@
         </row>
         <row r="121">
           <cell r="C121" t="str">
-            <v>真空罐装</v>
+            <v>食品_真空罐装</v>
           </cell>
         </row>
         <row r="121">
@@ -4842,12 +4842,12 @@
         </row>
         <row r="122">
           <cell r="C122" t="str">
-            <v>手工面团</v>
+            <v>食品_手工面团</v>
           </cell>
         </row>
         <row r="123">
           <cell r="C123" t="str">
-            <v>自动化面包房</v>
+            <v>食品_自动化面包房</v>
           </cell>
         </row>
         <row r="123">
@@ -4882,7 +4882,7 @@
         </row>
         <row r="124">
           <cell r="C124" t="str">
-            <v>魔偶面包房</v>
+            <v>食品_魔偶面包房</v>
           </cell>
         </row>
         <row r="124">
@@ -4917,7 +4917,7 @@
         </row>
         <row r="125">
           <cell r="C125" t="str">
-            <v>魔偶自动面包房</v>
+            <v>食品_魔偶自动面包房</v>
           </cell>
         </row>
         <row r="125">
@@ -4969,7 +4969,7 @@
         </row>
         <row r="126">
           <cell r="C126" t="str">
-            <v>罐馏器</v>
+            <v>酿酒_罐馏器</v>
           </cell>
         </row>
         <row r="126">
@@ -4995,7 +4995,7 @@
         </row>
         <row r="127">
           <cell r="C127" t="str">
-            <v>连续式蒸馏器</v>
+            <v>酿酒_连续式蒸馏器</v>
           </cell>
         </row>
         <row r="127">
@@ -5036,7 +5036,7 @@
         </row>
         <row r="128">
           <cell r="C128" t="str">
-            <v>金属瓶身</v>
+            <v>酿酒_金属瓶身</v>
           </cell>
         </row>
         <row r="128">
@@ -5057,7 +5057,7 @@
         </row>
         <row r="129">
           <cell r="C129" t="str">
-            <v>玻璃瓶身</v>
+            <v>酿酒_玻璃瓶身</v>
           </cell>
         </row>
         <row r="129">
@@ -5085,12 +5085,12 @@
         </row>
         <row r="130">
           <cell r="C130" t="str">
-            <v>无自动化</v>
+            <v>酿酒_无自动化</v>
           </cell>
         </row>
         <row r="131">
           <cell r="C131" t="str">
-            <v>自动蒸馏器</v>
+            <v>酿酒_自动蒸馏器</v>
           </cell>
         </row>
         <row r="131">
@@ -5130,7 +5130,7 @@
         </row>
         <row r="132">
           <cell r="C132" t="str">
-            <v>魔偶蒸馏</v>
+            <v>酿酒_魔偶蒸馏</v>
           </cell>
         </row>
         <row r="132">
@@ -5165,7 +5165,7 @@
         </row>
         <row r="133">
           <cell r="C133" t="str">
-            <v>魔偶自动蒸馏器</v>
+            <v>酿酒_魔偶自动蒸馏器</v>
           </cell>
         </row>
         <row r="133">
@@ -5217,7 +5217,7 @@
         </row>
         <row r="134">
           <cell r="C134" t="str">
-            <v>手工缝纫</v>
+            <v>纺织_手工缝纫</v>
           </cell>
         </row>
         <row r="134">
@@ -5243,7 +5243,7 @@
         </row>
         <row r="135">
           <cell r="C135" t="str">
-            <v>染料工坊</v>
+            <v>纺织_染料工坊</v>
           </cell>
         </row>
         <row r="135">
@@ -5275,12 +5275,12 @@
         </row>
         <row r="136">
           <cell r="C136" t="str">
-            <v>无奢侈衣物</v>
+            <v>纺织_无奢侈衣物</v>
           </cell>
         </row>
         <row r="137">
           <cell r="C137" t="str">
-            <v>匠人缝纫</v>
+            <v>纺织_匠人缝纫</v>
           </cell>
         </row>
         <row r="137">
@@ -5312,7 +5312,7 @@
         </row>
         <row r="138">
           <cell r="C138" t="str">
-            <v>弹性织物</v>
+            <v>纺织_弹性织物</v>
           </cell>
         </row>
         <row r="138">
@@ -5350,12 +5350,12 @@
         </row>
         <row r="139">
           <cell r="C139" t="str">
-            <v>传统织机</v>
+            <v>纺织_传统织机</v>
           </cell>
         </row>
         <row r="140">
           <cell r="C140" t="str">
-            <v>缝纫机</v>
+            <v>纺织_缝纫机</v>
           </cell>
         </row>
         <row r="140">
@@ -5383,7 +5383,7 @@
         </row>
         <row r="141">
           <cell r="C141" t="str">
-            <v>自动缝纫机</v>
+            <v>纺织_自动缝纫机</v>
           </cell>
         </row>
         <row r="141">
@@ -5417,12 +5417,12 @@
         </row>
         <row r="142">
           <cell r="C142" t="str">
-            <v>无魔法自动化</v>
+            <v>纺织_无魔法自动化</v>
           </cell>
         </row>
         <row r="143">
           <cell r="C143" t="str">
-            <v>基础魔偶</v>
+            <v>纺织_基础魔偶</v>
           </cell>
         </row>
         <row r="143">
@@ -5457,7 +5457,7 @@
         </row>
         <row r="144">
           <cell r="C144" t="str">
-            <v>智能魔偶</v>
+            <v>纺织_智能魔偶</v>
           </cell>
         </row>
         <row r="144">
@@ -5492,12 +5492,12 @@
         </row>
         <row r="145">
           <cell r="C145" t="str">
-            <v>无魔导自动化</v>
+            <v>纺织_无魔导自动化</v>
           </cell>
         </row>
         <row r="146">
           <cell r="C146" t="str">
-            <v>魔偶流水线</v>
+            <v>纺织_魔偶流水线</v>
           </cell>
         </row>
         <row r="146">
@@ -6267,7 +6267,7 @@
   <dimension ref="A1:H999"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="K131" sqref="K131"/>
+      <selection activeCell="N127" sqref="N127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6302,7 +6302,7 @@
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="str">
         <f>[1]生产方式!C2</f>
-        <v>商人行会</v>
+        <v>轻_商人行会</v>
       </c>
       <c r="B2" s="2">
         <f>([1]生产方式!$Q2*数据!A1)+([1]生产方式!$S2*数据!B1)+([1]生产方式!$U2*数据!C1)+([1]生产方式!$W2*数据!D1)+([1]生产方式!$Y2*数据!E1)</f>
@@ -6328,7 +6328,7 @@
     <row r="3" spans="1:6">
       <c r="A3" s="3" t="str">
         <f>[1]生产方式!C3</f>
-        <v>教会所有</v>
+        <v>轻_教会所有</v>
       </c>
       <c r="B3" s="2">
         <f>([1]生产方式!$Q3*数据!A2)+([1]生产方式!$S3*数据!B2)+([1]生产方式!$U3*数据!C2)+([1]生产方式!$W3*数据!D2)+([1]生产方式!$Y3*数据!E2)</f>
@@ -6354,7 +6354,7 @@
     <row r="4" spans="1:6">
       <c r="A4" s="3" t="str">
         <f>[1]生产方式!C4</f>
-        <v>私人运营</v>
+        <v>轻_私人运营</v>
       </c>
       <c r="B4" s="2">
         <f>([1]生产方式!$Q4*数据!A3)+([1]生产方式!$S4*数据!B3)+([1]生产方式!$U4*数据!C3)+([1]生产方式!$W4*数据!D3)+([1]生产方式!$Y4*数据!E3)</f>
@@ -6380,7 +6380,7 @@
     <row r="5" spans="1:6">
       <c r="A5" s="3" t="str">
         <f>[1]生产方式!C5</f>
-        <v>公开交易</v>
+        <v>轻_公开交易</v>
       </c>
       <c r="B5" s="2">
         <f>([1]生产方式!$Q5*数据!A4)+([1]生产方式!$S5*数据!B4)+([1]生产方式!$U5*数据!C4)+([1]生产方式!$W5*数据!D4)+([1]生产方式!$Y5*数据!E4)</f>
@@ -6406,7 +6406,7 @@
     <row r="6" spans="1:6">
       <c r="A6" s="3" t="str">
         <f>[1]生产方式!C6</f>
-        <v>政府运营</v>
+        <v>轻_政府运营</v>
       </c>
       <c r="B6" s="2">
         <f>([1]生产方式!$Q6*数据!A5)+([1]生产方式!$S6*数据!B5)+([1]生产方式!$U6*数据!C5)+([1]生产方式!$W6*数据!D5)+([1]生产方式!$Y6*数据!E5)</f>
@@ -6432,7 +6432,7 @@
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="str">
         <f>[1]生产方式!C7</f>
-        <v>初级工人合作社</v>
+        <v>轻_初级工人合作社</v>
       </c>
       <c r="B7" s="2">
         <f>([1]生产方式!$Q7*数据!A6)+([1]生产方式!$S7*数据!B6)+([1]生产方式!$U7*数据!C6)+([1]生产方式!$W7*数据!D6)+([1]生产方式!$Y7*数据!E6)</f>
@@ -6458,7 +6458,7 @@
     <row r="8" spans="1:6">
       <c r="A8" s="3" t="str">
         <f>[1]生产方式!C8</f>
-        <v>高级工人合作社</v>
+        <v>轻_高级工人合作社</v>
       </c>
       <c r="B8" s="2">
         <f>([1]生产方式!$Q8*数据!A7)+([1]生产方式!$S8*数据!B7)+([1]生产方式!$U8*数据!C7)+([1]生产方式!$W8*数据!D7)+([1]生产方式!$Y8*数据!E7)</f>
@@ -6484,7 +6484,7 @@
     <row r="9" spans="1:6">
       <c r="A9" s="3" t="str">
         <f>[1]生产方式!C9</f>
-        <v>法师所有</v>
+        <v>轻_法师所有</v>
       </c>
       <c r="B9" s="2">
         <f>([1]生产方式!$Q9*数据!A8)+([1]生产方式!$S9*数据!B8)+([1]生产方式!$U9*数据!C8)+([1]生产方式!$W9*数据!D8)+([1]生产方式!$Y9*数据!E8)</f>
@@ -6510,7 +6510,7 @@
     <row r="10" spans="1:6">
       <c r="A10" s="3" t="str">
         <f>[1]生产方式!C10</f>
-        <v>无科学基础生产</v>
+        <v>钢铁_无科学基础生产</v>
       </c>
       <c r="B10" s="2">
         <f>([1]生产方式!$Q10*数据!A9)+([1]生产方式!$S10*数据!B9)+([1]生产方式!$U10*数据!C9)+([1]生产方式!$W10*数据!D9)+([1]生产方式!$Y10*数据!E9)</f>
@@ -6536,7 +6536,7 @@
     <row r="11" spans="1:6">
       <c r="A11" s="3" t="str">
         <f>[1]生产方式!C11</f>
-        <v>高炉炼铁</v>
+        <v>钢铁_高炉炼铁</v>
       </c>
       <c r="B11" s="2">
         <f>([1]生产方式!$Q11*数据!A10)+([1]生产方式!$S11*数据!B10)+([1]生产方式!$U11*数据!C10)+([1]生产方式!$W11*数据!D10)+([1]生产方式!$Y11*数据!E10)</f>
@@ -6562,7 +6562,7 @@
     <row r="12" spans="1:6">
       <c r="A12" s="3" t="str">
         <f>[1]生产方式!C12</f>
-        <v>泡钢法</v>
+        <v>钢铁_泡钢法</v>
       </c>
       <c r="B12" s="2">
         <f>([1]生产方式!$Q12*数据!A11)+([1]生产方式!$S12*数据!B11)+([1]生产方式!$U12*数据!C11)+([1]生产方式!$W12*数据!D11)+([1]生产方式!$Y12*数据!E11)</f>
@@ -6588,7 +6588,7 @@
     <row r="13" spans="1:6">
       <c r="A13" s="3" t="str">
         <f>[1]生产方式!C13</f>
-        <v>贝塞麦转炉炼钢法</v>
+        <v>钢铁_贝塞麦转炉炼钢法</v>
       </c>
       <c r="B13" s="2">
         <f>([1]生产方式!$Q13*数据!A12)+([1]生产方式!$S13*数据!B12)+([1]生产方式!$U13*数据!C12)+([1]生产方式!$W13*数据!D12)+([1]生产方式!$Y13*数据!E12)</f>
@@ -6614,7 +6614,7 @@
     <row r="14" spans="1:6">
       <c r="A14" s="3" t="str">
         <f>[1]生产方式!C14</f>
-        <v>平炉炼钢法</v>
+        <v>钢铁_平炉炼钢法</v>
       </c>
       <c r="B14" s="2">
         <f>([1]生产方式!$Q14*数据!A13)+([1]生产方式!$S14*数据!B13)+([1]生产方式!$U14*数据!C13)+([1]生产方式!$W14*数据!D13)+([1]生产方式!$Y14*数据!E13)</f>
@@ -6640,7 +6640,7 @@
     <row r="15" spans="1:6">
       <c r="A15" s="3" t="str">
         <f>[1]生产方式!C15</f>
-        <v>无魔法基础生产</v>
+        <v>钢铁_无魔法基础生产</v>
       </c>
       <c r="B15" s="2">
         <f>([1]生产方式!$Q15*数据!A14)+([1]生产方式!$S15*数据!B14)+([1]生产方式!$U15*数据!C14)+([1]生产方式!$W15*数据!D14)+([1]生产方式!$Y15*数据!E14)</f>
@@ -6666,7 +6666,7 @@
     <row r="16" spans="1:6">
       <c r="A16" s="3" t="str">
         <f>[1]生产方式!C16</f>
-        <v>冲击分离法</v>
+        <v>钢铁_冲击分离法</v>
       </c>
       <c r="B16" s="2">
         <f>([1]生产方式!$Q16*数据!A15)+([1]生产方式!$S16*数据!B15)+([1]生产方式!$U16*数据!C15)+([1]生产方式!$W16*数据!D15)+([1]生产方式!$Y16*数据!E15)</f>
@@ -6692,7 +6692,7 @@
     <row r="17" spans="1:6">
       <c r="A17" s="3" t="str">
         <f>[1]生产方式!C17</f>
-        <v>漂浮分离法</v>
+        <v>钢铁_漂浮分离法</v>
       </c>
       <c r="B17" s="2">
         <f>([1]生产方式!$Q17*数据!A16)+([1]生产方式!$S17*数据!B16)+([1]生产方式!$U17*数据!C16)+([1]生产方式!$W17*数据!D16)+([1]生产方式!$Y17*数据!E16)</f>
@@ -6718,7 +6718,7 @@
     <row r="18" spans="1:6">
       <c r="A18" s="3" t="str">
         <f>[1]生产方式!C18</f>
-        <v>魔能丝线分离法</v>
+        <v>钢铁_魔能丝线分离法</v>
       </c>
       <c r="B18" s="2">
         <f>([1]生产方式!$Q18*数据!A17)+([1]生产方式!$S18*数据!B17)+([1]生产方式!$U18*数据!C17)+([1]生产方式!$W18*数据!D17)+([1]生产方式!$Y18*数据!E17)</f>
@@ -6744,7 +6744,7 @@
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="str">
         <f>[1]生产方式!C19</f>
-        <v>无科学自动化</v>
+        <v>钢铁_无科学自动化</v>
       </c>
       <c r="B19" s="2">
         <f>([1]生产方式!$Q19*数据!A18)+([1]生产方式!$S19*数据!B18)+([1]生产方式!$U19*数据!C18)+([1]生产方式!$W19*数据!D18)+([1]生产方式!$Y19*数据!E18)</f>
@@ -6770,7 +6770,7 @@
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="str">
         <f>[1]生产方式!C20</f>
-        <v>水管锅炉</v>
+        <v>钢铁_水管锅炉</v>
       </c>
       <c r="B20" s="2">
         <f>([1]生产方式!$Q20*数据!A19)+([1]生产方式!$S20*数据!B19)+([1]生产方式!$U20*数据!C19)+([1]生产方式!$W20*数据!D19)+([1]生产方式!$Y20*数据!E19)</f>
@@ -6796,7 +6796,7 @@
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="str">
         <f>[1]生产方式!C21</f>
-        <v>旋转阀蒸汽机</v>
+        <v>钢铁_旋转阀蒸汽机</v>
       </c>
       <c r="B21" s="2">
         <f>([1]生产方式!$Q21*数据!A20)+([1]生产方式!$S21*数据!B20)+([1]生产方式!$U21*数据!C20)+([1]生产方式!$W21*数据!D20)+([1]生产方式!$Y21*数据!E20)</f>
@@ -6822,7 +6822,7 @@
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="str">
         <f>[1]生产方式!C22</f>
-        <v>无魔法自动化</v>
+        <v>钢铁_无魔法自动化</v>
       </c>
       <c r="B22" s="2">
         <f>([1]生产方式!$Q22*数据!A21)+([1]生产方式!$S22*数据!B21)+([1]生产方式!$U22*数据!C21)+([1]生产方式!$W22*数据!D21)+([1]生产方式!$Y22*数据!E21)</f>
@@ -6848,7 +6848,7 @@
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="str">
         <f>[1]生产方式!C23</f>
-        <v>基础魔偶</v>
+        <v>钢铁_基础魔偶</v>
       </c>
       <c r="B23" s="2">
         <f>([1]生产方式!$Q23*数据!A22)+([1]生产方式!$S23*数据!B22)+([1]生产方式!$U23*数据!C22)+([1]生产方式!$W23*数据!D22)+([1]生产方式!$Y23*数据!E22)</f>
@@ -6874,7 +6874,7 @@
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="str">
         <f>[1]生产方式!C24</f>
-        <v>智能魔偶</v>
+        <v>钢铁_智能魔偶</v>
       </c>
       <c r="B24" s="2">
         <f>([1]生产方式!$Q24*数据!A23)+([1]生产方式!$S24*数据!B23)+([1]生产方式!$U24*数据!C23)+([1]生产方式!$W24*数据!D23)+([1]生产方式!$Y24*数据!E23)</f>
@@ -6900,7 +6900,7 @@
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="str">
         <f>[1]生产方式!C25</f>
-        <v>强智能魔偶</v>
+        <v>钢铁_强智能魔偶</v>
       </c>
       <c r="B25" s="2">
         <f>([1]生产方式!$Q25*数据!A24)+([1]生产方式!$S25*数据!B24)+([1]生产方式!$U25*数据!C24)+([1]生产方式!$W25*数据!D24)+([1]生产方式!$Y25*数据!E24)</f>
@@ -6926,7 +6926,7 @@
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="str">
         <f>[1]生产方式!C26</f>
-        <v>无魔导自动化</v>
+        <v>钢铁_无魔导自动化</v>
       </c>
       <c r="B26" s="2">
         <f>([1]生产方式!$Q26*数据!A25)+([1]生产方式!$S26*数据!B25)+([1]生产方式!$U26*数据!C25)+([1]生产方式!$W26*数据!D25)+([1]生产方式!$Y26*数据!E25)</f>
@@ -6952,7 +6952,7 @@
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="str">
         <f>[1]生产方式!C27</f>
-        <v>魔偶流水线</v>
+        <v>钢铁_魔偶流水线</v>
       </c>
       <c r="B27" s="2">
         <f>([1]生产方式!$Q27*数据!A26)+([1]生产方式!$S27*数据!B26)+([1]生产方式!$U27*数据!C26)+([1]生产方式!$W27*数据!D26)+([1]生产方式!$Y27*数据!E26)</f>
@@ -6978,7 +6978,7 @@
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="str">
         <f>[1]生产方式!C28</f>
-        <v>往复式蒸汽机</v>
+        <v>科动_往复式蒸汽机</v>
       </c>
       <c r="B28" s="2">
         <f>([1]生产方式!$Q28*数据!A27)+([1]生产方式!$S28*数据!B27)+([1]生产方式!$U28*数据!C27)+([1]生产方式!$W28*数据!D27)+([1]生产方式!$Y28*数据!E27)</f>
@@ -7004,7 +7004,7 @@
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="str">
         <f>[1]生产方式!C29</f>
-        <v>旋转阀蒸汽机</v>
+        <v>科动_旋转阀蒸汽机</v>
       </c>
       <c r="B29" s="2">
         <f>([1]生产方式!$Q29*数据!A28)+([1]生产方式!$S29*数据!B28)+([1]生产方式!$U29*数据!C28)+([1]生产方式!$W29*数据!D28)+([1]生产方式!$Y29*数据!E28)</f>
@@ -7030,7 +7030,7 @@
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="str">
         <f>[1]生产方式!C30</f>
-        <v>通用化蒸汽核心</v>
+        <v>科动_通用化蒸汽核心</v>
       </c>
       <c r="B30" s="2">
         <f>([1]生产方式!$Q30*数据!A29)+([1]生产方式!$S30*数据!B29)+([1]生产方式!$U30*数据!C29)+([1]生产方式!$W30*数据!D29)+([1]生产方式!$Y30*数据!E29)</f>
@@ -7056,7 +7056,7 @@
     <row r="31" spans="1:6">
       <c r="A31" s="3" t="str">
         <f>[1]生产方式!C31</f>
-        <v>无自动化</v>
+        <v>科动_无自动化</v>
       </c>
       <c r="B31" s="2">
         <f>([1]生产方式!$Q31*数据!A30)+([1]生产方式!$S31*数据!B30)+([1]生产方式!$U31*数据!C30)+([1]生产方式!$W31*数据!D30)+([1]生产方式!$Y31*数据!E30)</f>
@@ -7082,7 +7082,7 @@
     <row r="32" spans="1:6">
       <c r="A32" s="3" t="str">
         <f>[1]生产方式!C32</f>
-        <v>水管锅炉</v>
+        <v>科动_水管锅炉</v>
       </c>
       <c r="B32" s="2">
         <f>([1]生产方式!$Q32*数据!A31)+([1]生产方式!$S32*数据!B31)+([1]生产方式!$U32*数据!C31)+([1]生产方式!$W32*数据!D31)+([1]生产方式!$Y32*数据!E31)</f>
@@ -7108,7 +7108,7 @@
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="str">
         <f>[1]生产方式!C33</f>
-        <v>旋转阀蒸汽机</v>
+        <v>科动_旋转阀蒸汽机</v>
       </c>
       <c r="B33" s="2">
         <f>([1]生产方式!$Q33*数据!A32)+([1]生产方式!$S33*数据!B32)+([1]生产方式!$U33*数据!C32)+([1]生产方式!$W33*数据!D32)+([1]生产方式!$Y33*数据!E32)</f>
@@ -7134,7 +7134,7 @@
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="str">
         <f>[1]生产方式!C34</f>
-        <v>流水线</v>
+        <v>科动_流水线</v>
       </c>
       <c r="B34" s="2">
         <f>([1]生产方式!$Q34*数据!A33)+([1]生产方式!$S34*数据!B33)+([1]生产方式!$U34*数据!C33)+([1]生产方式!$W34*数据!D33)+([1]生产方式!$Y34*数据!E33)</f>
@@ -7160,7 +7160,7 @@
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="str">
         <f>[1]生产方式!C35</f>
-        <v>魔偶流水线</v>
+        <v>科动_魔偶流水线</v>
       </c>
       <c r="B35" s="2">
         <f>([1]生产方式!$Q35*数据!A34)+([1]生产方式!$S35*数据!B34)+([1]生产方式!$U35*数据!C34)+([1]生产方式!$W35*数据!D34)+([1]生产方式!$Y35*数据!E34)</f>
@@ -7186,7 +7186,7 @@
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="str">
         <f>[1]生产方式!C36</f>
-        <v>基础魔偶生产</v>
+        <v>魔偶__基础魔偶生产</v>
       </c>
       <c r="B36" s="2">
         <f>([1]生产方式!$Q36*数据!A35)+([1]生产方式!$S36*数据!B35)+([1]生产方式!$U36*数据!C35)+([1]生产方式!$W36*数据!D35)+([1]生产方式!$Y36*数据!E35)</f>
@@ -7212,7 +7212,7 @@
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="str">
         <f>[1]生产方式!C37</f>
-        <v>智能魔偶生产</v>
+        <v>魔偶__智能魔偶生产</v>
       </c>
       <c r="B37" s="2">
         <f>([1]生产方式!$Q37*数据!A36)+([1]生产方式!$S37*数据!B36)+([1]生产方式!$U37*数据!C36)+([1]生产方式!$W37*数据!D36)+([1]生产方式!$Y37*数据!E36)</f>
@@ -7238,7 +7238,7 @@
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="str">
         <f>[1]生产方式!C38</f>
-        <v>超智能魔偶生产</v>
+        <v>魔偶__超智能魔偶生产</v>
       </c>
       <c r="B38" s="2">
         <f>([1]生产方式!$Q38*数据!A37)+([1]生产方式!$S38*数据!B37)+([1]生产方式!$U38*数据!C37)+([1]生产方式!$W38*数据!D37)+([1]生产方式!$Y38*数据!E37)</f>
@@ -7264,7 +7264,7 @@
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="str">
         <f>[1]生产方式!C39</f>
-        <v>无自动化</v>
+        <v>魔偶__无自动化</v>
       </c>
       <c r="B39" s="2">
         <f>([1]生产方式!$Q39*数据!A38)+([1]生产方式!$S39*数据!B38)+([1]生产方式!$U39*数据!C38)+([1]生产方式!$W39*数据!D38)+([1]生产方式!$Y39*数据!E38)</f>
@@ -7290,7 +7290,7 @@
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="str">
         <f>[1]生产方式!C40</f>
-        <v>基础魔偶</v>
+        <v>魔偶__基础魔偶</v>
       </c>
       <c r="B40" s="2">
         <f>([1]生产方式!$Q40*数据!A39)+([1]生产方式!$S40*数据!B39)+([1]生产方式!$U40*数据!C39)+([1]生产方式!$W40*数据!D39)+([1]生产方式!$Y40*数据!E39)</f>
@@ -7316,7 +7316,7 @@
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="str">
         <f>[1]生产方式!C41</f>
-        <v>智能魔偶</v>
+        <v>魔偶__智能魔偶</v>
       </c>
       <c r="B41" s="2">
         <f>([1]生产方式!$Q41*数据!A40)+([1]生产方式!$S41*数据!B40)+([1]生产方式!$U41*数据!C40)+([1]生产方式!$W41*数据!D40)+([1]生产方式!$Y41*数据!E40)</f>
@@ -7342,7 +7342,7 @@
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="str">
         <f>[1]生产方式!C42</f>
-        <v>超智能魔偶</v>
+        <v>魔偶__超智能魔偶</v>
       </c>
       <c r="B42" s="2">
         <f>([1]生产方式!$Q42*数据!A41)+([1]生产方式!$S42*数据!B41)+([1]生产方式!$U42*数据!C41)+([1]生产方式!$W42*数据!D41)+([1]生产方式!$Y42*数据!E41)</f>
@@ -7368,7 +7368,7 @@
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="str">
         <f>[1]生产方式!C43</f>
-        <v>魔偶流水线</v>
+        <v>魔偶__魔偶流水线</v>
       </c>
       <c r="B43" s="2">
         <f>([1]生产方式!$Q43*数据!A42)+([1]生产方式!$S43*数据!B42)+([1]生产方式!$U43*数据!C42)+([1]生产方式!$W43*数据!D42)+([1]生产方式!$Y43*数据!E42)</f>
@@ -7394,7 +7394,7 @@
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="str">
         <f>[1]生产方式!C44</f>
-        <v>精炼</v>
+        <v>炼金_精炼</v>
       </c>
       <c r="B44" s="2">
         <f>([1]生产方式!$Q44*数据!A43)+([1]生产方式!$S44*数据!B43)+([1]生产方式!$U44*数据!C43)+([1]生产方式!$W44*数据!D43)+([1]生产方式!$Y44*数据!E43)</f>
@@ -7420,7 +7420,7 @@
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="str">
         <f>[1]生产方式!C45</f>
-        <v>雌雄金属熔铸</v>
+        <v>炼金_雌雄金属熔铸</v>
       </c>
       <c r="B45" s="2">
         <f>([1]生产方式!$Q45*数据!A44)+([1]生产方式!$S45*数据!B44)+([1]生产方式!$U45*数据!C44)+([1]生产方式!$W45*数据!D44)+([1]生产方式!$Y45*数据!E44)</f>
@@ -7446,7 +7446,7 @@
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="str">
         <f>[1]生产方式!C46</f>
-        <v>元素叠加传送</v>
+        <v>炼金_元素叠加传送</v>
       </c>
       <c r="B46" s="2">
         <f>([1]生产方式!$Q46*数据!A45)+([1]生产方式!$S46*数据!B45)+([1]生产方式!$U46*数据!C45)+([1]生产方式!$W46*数据!D45)+([1]生产方式!$Y46*数据!E45)</f>
@@ -7472,7 +7472,7 @@
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="str">
         <f>[1]生产方式!C47</f>
-        <v>无自动化</v>
+        <v>炼金_无自动化</v>
       </c>
       <c r="B47" s="2">
         <f>([1]生产方式!$Q47*数据!A46)+([1]生产方式!$S47*数据!B46)+([1]生产方式!$U47*数据!C46)+([1]生产方式!$W47*数据!D46)+([1]生产方式!$Y47*数据!E46)</f>
@@ -7498,7 +7498,7 @@
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="str">
         <f>[1]生产方式!C48</f>
-        <v>基础魔偶</v>
+        <v>炼金_基础魔偶</v>
       </c>
       <c r="B48" s="2">
         <f>([1]生产方式!$Q48*数据!A47)+([1]生产方式!$S48*数据!B47)+([1]生产方式!$U48*数据!C47)+([1]生产方式!$W48*数据!D47)+([1]生产方式!$Y48*数据!E47)</f>
@@ -7524,7 +7524,7 @@
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="str">
         <f>[1]生产方式!C49</f>
-        <v>智能魔偶</v>
+        <v>炼金_智能魔偶</v>
       </c>
       <c r="B49" s="2">
         <f>([1]生产方式!$Q49*数据!A48)+([1]生产方式!$S49*数据!B48)+([1]生产方式!$U49*数据!C48)+([1]生产方式!$W49*数据!D48)+([1]生产方式!$Y49*数据!E48)</f>
@@ -7550,7 +7550,7 @@
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="str">
         <f>[1]生产方式!C50</f>
-        <v>超智能魔偶</v>
+        <v>炼金_超智能魔偶</v>
       </c>
       <c r="B50" s="2">
         <f>([1]生产方式!$Q50*数据!A49)+([1]生产方式!$S50*数据!B49)+([1]生产方式!$U50*数据!C49)+([1]生产方式!$W50*数据!D49)+([1]生产方式!$Y50*数据!E49)</f>
@@ -7576,7 +7576,7 @@
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="str">
         <f>[1]生产方式!C51</f>
-        <v>魔偶流水线</v>
+        <v>炼金_魔偶流水线</v>
       </c>
       <c r="B51" s="2">
         <f>([1]生产方式!$Q51*数据!A50)+([1]生产方式!$S51*数据!B50)+([1]生产方式!$U51*数据!C50)+([1]生产方式!$W51*数据!D50)+([1]生产方式!$Y51*数据!E50)</f>
@@ -7602,7 +7602,7 @@
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="str">
         <f>[1]生产方式!C52</f>
-        <v>养殖提取</v>
+        <v>泽洛提取_养殖提取</v>
       </c>
       <c r="B52" s="2">
         <f>([1]生产方式!$Q52*数据!A51)+([1]生产方式!$S52*数据!B51)+([1]生产方式!$U52*数据!C51)+([1]生产方式!$W52*数据!D51)+([1]生产方式!$Y52*数据!E51)</f>
@@ -7628,7 +7628,7 @@
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="str">
         <f>[1]生产方式!C53</f>
-        <v>尸体榨取</v>
+        <v>泽洛提取_尸体榨取</v>
       </c>
       <c r="B53" s="2">
         <f>([1]生产方式!$Q53*数据!A52)+([1]生产方式!$S53*数据!B52)+([1]生产方式!$U53*数据!C52)+([1]生产方式!$W53*数据!D52)+([1]生产方式!$Y53*数据!E52)</f>
@@ -7654,7 +7654,7 @@
     <row r="54" spans="1:6">
       <c r="A54" s="3" t="str">
         <f>[1]生产方式!C54</f>
-        <v>标准法杖</v>
+        <v>泽洛提取_标准法杖</v>
       </c>
       <c r="B54" s="2">
         <f>([1]生产方式!$Q54*数据!A53)+([1]生产方式!$S54*数据!B53)+([1]生产方式!$U54*数据!C53)+([1]生产方式!$W54*数据!D53)+([1]生产方式!$Y54*数据!E53)</f>
@@ -7680,7 +7680,7 @@
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="str">
         <f>[1]生产方式!C55</f>
-        <v>教国法铳</v>
+        <v>魔武_教国法铳</v>
       </c>
       <c r="B55" s="2">
         <f>([1]生产方式!$Q55*数据!A54)+([1]生产方式!$S55*数据!B54)+([1]生产方式!$U55*数据!C54)+([1]生产方式!$W55*数据!D54)+([1]生产方式!$Y55*数据!E54)</f>
@@ -7706,7 +7706,7 @@
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="str">
         <f>[1]生产方式!C56</f>
-        <v>制式法铳</v>
+        <v>魔武_制式法铳</v>
       </c>
       <c r="B56" s="2">
         <f>([1]生产方式!$Q56*数据!A55)+([1]生产方式!$S56*数据!B55)+([1]生产方式!$U56*数据!C55)+([1]生产方式!$W56*数据!D55)+([1]生产方式!$Y56*数据!E55)</f>
@@ -7732,7 +7732,7 @@
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="str">
         <f>[1]生产方式!C57</f>
-        <v>复式法铳</v>
+        <v>魔武_复式法铳</v>
       </c>
       <c r="B57" s="2">
         <f>([1]生产方式!$Q57*数据!A56)+([1]生产方式!$S57*数据!B56)+([1]生产方式!$U57*数据!C56)+([1]生产方式!$W57*数据!D56)+([1]生产方式!$Y57*数据!E56)</f>
@@ -7758,7 +7758,7 @@
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="str">
         <f>[1]生产方式!C58</f>
-        <v>无自动化</v>
+        <v>魔武_无自动化</v>
       </c>
       <c r="B58" s="2">
         <f>([1]生产方式!$Q58*数据!A57)+([1]生产方式!$S58*数据!B57)+([1]生产方式!$U58*数据!C57)+([1]生产方式!$W58*数据!D57)+([1]生产方式!$Y58*数据!E57)</f>
@@ -7784,7 +7784,7 @@
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="str">
         <f>[1]生产方式!C59</f>
-        <v>基础魔偶</v>
+        <v>魔武_基础魔偶</v>
       </c>
       <c r="B59" s="2">
         <f>([1]生产方式!$Q59*数据!A58)+([1]生产方式!$S59*数据!B58)+([1]生产方式!$U59*数据!C58)+([1]生产方式!$W59*数据!D58)+([1]生产方式!$Y59*数据!E58)</f>
@@ -7810,7 +7810,7 @@
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="str">
         <f>[1]生产方式!C60</f>
-        <v>智能魔偶</v>
+        <v>魔武_智能魔偶</v>
       </c>
       <c r="B60" s="2">
         <f>([1]生产方式!$Q60*数据!A59)+([1]生产方式!$S60*数据!B59)+([1]生产方式!$U60*数据!C59)+([1]生产方式!$W60*数据!D59)+([1]生产方式!$Y60*数据!E59)</f>
@@ -7836,7 +7836,7 @@
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="str">
         <f>[1]生产方式!C61</f>
-        <v>超智能魔偶</v>
+        <v>魔武_超智能魔偶</v>
       </c>
       <c r="B61" s="2">
         <f>([1]生产方式!$Q61*数据!A60)+([1]生产方式!$S61*数据!B60)+([1]生产方式!$U61*数据!C60)+([1]生产方式!$W61*数据!D60)+([1]生产方式!$Y61*数据!E60)</f>
@@ -7862,7 +7862,7 @@
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="str">
         <f>[1]生产方式!C62</f>
-        <v>魔偶流水线</v>
+        <v>魔武_魔偶流水线</v>
       </c>
       <c r="B62" s="2">
         <f>([1]生产方式!$Q62*数据!A61)+([1]生产方式!$S62*数据!B61)+([1]生产方式!$U62*数据!C61)+([1]生产方式!$W62*数据!D61)+([1]生产方式!$Y62*数据!E61)</f>
@@ -7888,7 +7888,7 @@
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="str">
         <f>[1]生产方式!C63</f>
-        <v>灵能撞击法</v>
+        <v>魔装_灵能撞击法</v>
       </c>
       <c r="B63" s="2">
         <f>([1]生产方式!$Q63*数据!A62)+([1]生产方式!$S63*数据!B62)+([1]生产方式!$U63*数据!C62)+([1]生产方式!$W63*数据!D62)+([1]生产方式!$Y63*数据!E62)</f>
@@ -7914,7 +7914,7 @@
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="str">
         <f>[1]生产方式!C64</f>
-        <v>灵能聚集法</v>
+        <v>魔装_灵能聚集法</v>
       </c>
       <c r="B64" s="2">
         <f>([1]生产方式!$Q64*数据!A63)+([1]生产方式!$S64*数据!B63)+([1]生产方式!$U64*数据!C63)+([1]生产方式!$W64*数据!D63)+([1]生产方式!$Y64*数据!E63)</f>
@@ -7940,7 +7940,7 @@
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="str">
         <f>[1]生产方式!C65</f>
-        <v>灵能召唤法</v>
+        <v>魔装_灵能召唤法</v>
       </c>
       <c r="B65" s="2">
         <f>([1]生产方式!$Q65*数据!A64)+([1]生产方式!$S65*数据!B64)+([1]生产方式!$U65*数据!C64)+([1]生产方式!$W65*数据!D64)+([1]生产方式!$Y65*数据!E64)</f>
@@ -7966,7 +7966,7 @@
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="str">
         <f>[1]生产方式!C66</f>
-        <v>无浮空车生产</v>
+        <v>魔装_无浮空车生产</v>
       </c>
       <c r="B66" s="2">
         <f>([1]生产方式!$Q66*数据!A65)+([1]生产方式!$S66*数据!B65)+([1]生产方式!$U66*数据!C65)+([1]生产方式!$W66*数据!D65)+([1]生产方式!$Y66*数据!E65)</f>
@@ -7992,7 +7992,7 @@
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="str">
         <f>[1]生产方式!C67</f>
-        <v>浮空车生产</v>
+        <v>魔装_浮空车生产</v>
       </c>
       <c r="B67" s="2">
         <f>([1]生产方式!$Q67*数据!A66)+([1]生产方式!$S67*数据!B66)+([1]生产方式!$U67*数据!C66)+([1]生产方式!$W67*数据!D66)+([1]生产方式!$Y67*数据!E66)</f>
@@ -8018,7 +8018,7 @@
     <row r="68" spans="1:6">
       <c r="A68" s="3" t="str">
         <f>[1]生产方式!C68</f>
-        <v>无自动化</v>
+        <v>魔装_无自动化</v>
       </c>
       <c r="B68" s="2">
         <f>([1]生产方式!$Q68*数据!A67)+([1]生产方式!$S68*数据!B67)+([1]生产方式!$U68*数据!C67)+([1]生产方式!$W68*数据!D67)+([1]生产方式!$Y68*数据!E67)</f>
@@ -8044,7 +8044,7 @@
     <row r="69" spans="1:6">
       <c r="A69" s="3" t="str">
         <f>[1]生产方式!C69</f>
-        <v>基础魔偶</v>
+        <v>魔装_基础魔偶</v>
       </c>
       <c r="B69" s="2">
         <f>([1]生产方式!$Q69*数据!A68)+([1]生产方式!$S69*数据!B68)+([1]生产方式!$U69*数据!C68)+([1]生产方式!$W69*数据!D68)+([1]生产方式!$Y69*数据!E68)</f>
@@ -8070,7 +8070,7 @@
     <row r="70" ht="15.75" spans="1:8">
       <c r="A70" s="3" t="str">
         <f>[1]生产方式!C70</f>
-        <v>智能魔偶</v>
+        <v>魔装_智能魔偶</v>
       </c>
       <c r="B70" s="2">
         <f>([1]生产方式!$Q70*数据!A69)+([1]生产方式!$S70*数据!B69)+([1]生产方式!$U70*数据!C69)+([1]生产方式!$W70*数据!D69)+([1]生产方式!$Y70*数据!E69)</f>
@@ -8097,7 +8097,7 @@
     <row r="71" spans="1:6">
       <c r="A71" s="3" t="str">
         <f>[1]生产方式!C71</f>
-        <v>超智能魔偶</v>
+        <v>魔装_超智能魔偶</v>
       </c>
       <c r="B71" s="2">
         <f>([1]生产方式!$Q71*数据!A70)+([1]生产方式!$S71*数据!B70)+([1]生产方式!$U71*数据!C70)+([1]生产方式!$W71*数据!D70)+([1]生产方式!$Y71*数据!E70)</f>
@@ -8123,7 +8123,7 @@
     <row r="72" spans="1:6">
       <c r="A72" s="3" t="str">
         <f>[1]生产方式!C72</f>
-        <v>魔偶流水线</v>
+        <v>魔装_魔偶流水线</v>
       </c>
       <c r="B72" s="2">
         <f>([1]生产方式!$Q72*数据!A71)+([1]生产方式!$S72*数据!B71)+([1]生产方式!$U72*数据!C71)+([1]生产方式!$W72*数据!D71)+([1]生产方式!$Y72*数据!E71)</f>
@@ -8149,7 +8149,7 @@
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="str">
         <f>[1]生产方式!C73</f>
-        <v>无飞行器生产</v>
+        <v>科军_无飞行器生产</v>
       </c>
       <c r="B73" s="2">
         <f>([1]生产方式!$Q73*数据!A72)+([1]生产方式!$S73*数据!B72)+([1]生产方式!$U73*数据!C72)+([1]生产方式!$W73*数据!D72)+([1]生产方式!$Y73*数据!E72)</f>
@@ -8175,7 +8175,7 @@
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="str">
         <f>[1]生产方式!C74</f>
-        <v>蒸汽飞机生产</v>
+        <v>科军_蒸汽飞机生产</v>
       </c>
       <c r="B74" s="2">
         <f>([1]生产方式!$Q74*数据!A73)+([1]生产方式!$S74*数据!B73)+([1]生产方式!$U74*数据!C73)+([1]生产方式!$W74*数据!D73)+([1]生产方式!$Y74*数据!E73)</f>
@@ -8201,7 +8201,7 @@
     <row r="75" spans="1:6">
       <c r="A75" s="3" t="str">
         <f>[1]生产方式!C75</f>
-        <v>空天母舰生产</v>
+        <v>科军_空天母舰生产</v>
       </c>
       <c r="B75" s="2">
         <f>([1]生产方式!$Q75*数据!A74)+([1]生产方式!$S75*数据!B74)+([1]生产方式!$U75*数据!C74)+([1]生产方式!$W75*数据!D74)+([1]生产方式!$Y75*数据!E74)</f>
@@ -8227,7 +8227,7 @@
     <row r="76" spans="1:6">
       <c r="A76" s="3" t="str">
         <f>[1]生产方式!C76</f>
-        <v>无机甲生产</v>
+        <v>科军_无机甲生产</v>
       </c>
       <c r="B76" s="2">
         <f>([1]生产方式!$Q76*数据!A75)+([1]生产方式!$S76*数据!B75)+([1]生产方式!$U76*数据!C75)+([1]生产方式!$W76*数据!D75)+([1]生产方式!$Y76*数据!E75)</f>
@@ -8253,7 +8253,7 @@
     <row r="77" spans="1:6">
       <c r="A77" s="3" t="str">
         <f>[1]生产方式!C77</f>
-        <v>蒸汽机甲</v>
+        <v>科军_蒸汽机甲</v>
       </c>
       <c r="B77" s="2">
         <f>([1]生产方式!$Q77*数据!A76)+([1]生产方式!$S77*数据!B76)+([1]生产方式!$U77*数据!C76)+([1]生产方式!$W77*数据!D76)+([1]生产方式!$Y77*数据!E76)</f>
@@ -8279,7 +8279,7 @@
     <row r="78" spans="1:6">
       <c r="A78" s="3" t="str">
         <f>[1]生产方式!C78</f>
-        <v>魔导机甲</v>
+        <v>科军_魔导机甲</v>
       </c>
       <c r="B78" s="2">
         <f>([1]生产方式!$Q78*数据!A77)+([1]生产方式!$S78*数据!B77)+([1]生产方式!$U78*数据!C77)+([1]生产方式!$W78*数据!D77)+([1]生产方式!$Y78*数据!E77)</f>
@@ -8305,7 +8305,7 @@
     <row r="79" spans="1:6">
       <c r="A79" s="3" t="str">
         <f>[1]生产方式!C79</f>
-        <v>无自动化</v>
+        <v>科军_无自动化</v>
       </c>
       <c r="B79" s="2">
         <f>([1]生产方式!$Q79*数据!A78)+([1]生产方式!$S79*数据!B78)+([1]生产方式!$U79*数据!C78)+([1]生产方式!$W79*数据!D78)+([1]生产方式!$Y79*数据!E78)</f>
@@ -8331,7 +8331,7 @@
     <row r="80" spans="1:6">
       <c r="A80" s="3" t="str">
         <f>[1]生产方式!C80</f>
-        <v>水管锅炉</v>
+        <v>科军_水管锅炉</v>
       </c>
       <c r="B80" s="2">
         <f>([1]生产方式!$Q80*数据!A79)+([1]生产方式!$S80*数据!B79)+([1]生产方式!$U80*数据!C79)+([1]生产方式!$W80*数据!D79)+([1]生产方式!$Y80*数据!E79)</f>
@@ -8357,7 +8357,7 @@
     <row r="81" spans="1:6">
       <c r="A81" s="3" t="str">
         <f>[1]生产方式!C81</f>
-        <v>旋转阀蒸汽机</v>
+        <v>科军_旋转阀蒸汽机</v>
       </c>
       <c r="B81" s="2">
         <f>([1]生产方式!$Q81*数据!A80)+([1]生产方式!$S81*数据!B80)+([1]生产方式!$U81*数据!C80)+([1]生产方式!$W81*数据!D80)+([1]生产方式!$Y81*数据!E80)</f>
@@ -8383,7 +8383,7 @@
     <row r="82" spans="1:6">
       <c r="A82" s="3" t="str">
         <f>[1]生产方式!C82</f>
-        <v>流水线</v>
+        <v>科军_流水线</v>
       </c>
       <c r="B82" s="2">
         <f>([1]生产方式!$Q82*数据!A81)+([1]生产方式!$S82*数据!B81)+([1]生产方式!$U82*数据!C81)+([1]生产方式!$W82*数据!D81)+([1]生产方式!$Y82*数据!E81)</f>
@@ -8409,7 +8409,7 @@
     <row r="83" spans="1:6">
       <c r="A83" s="3" t="str">
         <f>[1]生产方式!C83</f>
-        <v>魔偶流水线</v>
+        <v>科军_魔偶流水线</v>
       </c>
       <c r="B83" s="2">
         <f>([1]生产方式!$Q83*数据!A82)+([1]生产方式!$S83*数据!B82)+([1]生产方式!$U83*数据!C82)+([1]生产方式!$W83*数据!D82)+([1]生产方式!$Y83*数据!E82)</f>
@@ -8435,7 +8435,7 @@
     <row r="84" spans="1:6">
       <c r="A84" s="3" t="str">
         <f>[1]生产方式!C84</f>
-        <v>无飞行器生产</v>
+        <v>魔军_无飞行器生产</v>
       </c>
       <c r="B84" s="2">
         <f>([1]生产方式!$Q84*数据!A83)+([1]生产方式!$S84*数据!B83)+([1]生产方式!$U84*数据!C83)+([1]生产方式!$W84*数据!D83)+([1]生产方式!$Y84*数据!E83)</f>
@@ -8461,7 +8461,7 @@
     <row r="85" spans="1:6">
       <c r="A85" s="3" t="str">
         <f>[1]生产方式!C85</f>
-        <v>浮空平台生产</v>
+        <v>魔军_浮空平台生产</v>
       </c>
       <c r="B85" s="2">
         <f>([1]生产方式!$Q85*数据!A84)+([1]生产方式!$S85*数据!B84)+([1]生产方式!$U85*数据!C84)+([1]生产方式!$W85*数据!D84)+([1]生产方式!$Y85*数据!E84)</f>
@@ -8487,7 +8487,7 @@
     <row r="86" spans="1:6">
       <c r="A86" s="3" t="str">
         <f>[1]生产方式!C86</f>
-        <v>浮空城生产</v>
+        <v>魔军_浮空城生产</v>
       </c>
       <c r="B86" s="2">
         <f>([1]生产方式!$Q86*数据!A85)+([1]生产方式!$S86*数据!B85)+([1]生产方式!$U86*数据!C85)+([1]生产方式!$W86*数据!D85)+([1]生产方式!$Y86*数据!E85)</f>
@@ -8513,7 +8513,7 @@
     <row r="87" spans="1:6">
       <c r="A87" s="3" t="str">
         <f>[1]生产方式!C87</f>
-        <v>无机甲生产</v>
+        <v>魔军_无机甲生产</v>
       </c>
       <c r="B87" s="2">
         <f>([1]生产方式!$Q87*数据!A86)+([1]生产方式!$S87*数据!B86)+([1]生产方式!$U87*数据!C86)+([1]生产方式!$W87*数据!D86)+([1]生产方式!$Y87*数据!E86)</f>
@@ -8539,7 +8539,7 @@
     <row r="88" spans="1:6">
       <c r="A88" s="3" t="str">
         <f>[1]生产方式!C88</f>
-        <v>魔能机甲</v>
+        <v>魔军_魔能机甲</v>
       </c>
       <c r="B88" s="2">
         <f>([1]生产方式!$Q88*数据!A87)+([1]生产方式!$S88*数据!B87)+([1]生产方式!$U88*数据!C87)+([1]生产方式!$W88*数据!D87)+([1]生产方式!$Y88*数据!E87)</f>
@@ -8565,7 +8565,7 @@
     <row r="89" spans="1:6">
       <c r="A89" s="3" t="str">
         <f>[1]生产方式!C89</f>
-        <v>魔导机甲</v>
+        <v>魔军_魔导机甲</v>
       </c>
       <c r="B89" s="2">
         <f>([1]生产方式!$Q89*数据!A88)+([1]生产方式!$S89*数据!B88)+([1]生产方式!$U89*数据!C88)+([1]生产方式!$W89*数据!D88)+([1]生产方式!$Y89*数据!E88)</f>
@@ -8591,7 +8591,7 @@
     <row r="90" spans="1:6">
       <c r="A90" s="3" t="str">
         <f>[1]生产方式!C90</f>
-        <v>无自动化</v>
+        <v>魔军_无自动化</v>
       </c>
       <c r="B90" s="2">
         <f>([1]生产方式!$Q90*数据!A89)+([1]生产方式!$S90*数据!B89)+([1]生产方式!$U90*数据!C89)+([1]生产方式!$W90*数据!D89)+([1]生产方式!$Y90*数据!E89)</f>
@@ -8617,7 +8617,7 @@
     <row r="91" spans="1:6">
       <c r="A91" s="3" t="str">
         <f>[1]生产方式!C91</f>
-        <v>基础魔偶</v>
+        <v>魔军_基础魔偶</v>
       </c>
       <c r="B91" s="2">
         <f>([1]生产方式!$Q91*数据!A90)+([1]生产方式!$S91*数据!B90)+([1]生产方式!$U91*数据!C90)+([1]生产方式!$W91*数据!D90)+([1]生产方式!$Y91*数据!E90)</f>
@@ -8643,7 +8643,7 @@
     <row r="92" spans="1:6">
       <c r="A92" s="3" t="str">
         <f>[1]生产方式!C92</f>
-        <v>智能魔偶</v>
+        <v>魔军_智能魔偶</v>
       </c>
       <c r="B92" s="2">
         <f>([1]生产方式!$Q92*数据!A91)+([1]生产方式!$S92*数据!B91)+([1]生产方式!$U92*数据!C91)+([1]生产方式!$W92*数据!D91)+([1]生产方式!$Y92*数据!E91)</f>
@@ -8669,7 +8669,7 @@
     <row r="93" spans="1:6">
       <c r="A93" s="3" t="str">
         <f>[1]生产方式!C93</f>
-        <v>超智能魔偶</v>
+        <v>魔军_超智能魔偶</v>
       </c>
       <c r="B93" s="2">
         <f>([1]生产方式!$Q93*数据!A92)+([1]生产方式!$S93*数据!B92)+([1]生产方式!$U93*数据!C92)+([1]生产方式!$W93*数据!D92)+([1]生产方式!$Y93*数据!E92)</f>
@@ -8695,7 +8695,7 @@
     <row r="94" spans="1:6">
       <c r="A94" s="3" t="str">
         <f>[1]生产方式!C94</f>
-        <v>魔偶流水线</v>
+        <v>魔军_魔偶流水线</v>
       </c>
       <c r="B94" s="2">
         <f>([1]生产方式!$Q94*数据!A93)+([1]生产方式!$S94*数据!B93)+([1]生产方式!$U94*数据!C93)+([1]生产方式!$W94*数据!D93)+([1]生产方式!$Y94*数据!E93)</f>
@@ -8721,7 +8721,7 @@
     <row r="95" spans="1:6">
       <c r="A95" s="3" t="str">
         <f>[1]生产方式!C95</f>
-        <v>滑膛枪</v>
+        <v>科武_滑膛枪</v>
       </c>
       <c r="B95" s="2">
         <f>([1]生产方式!$Q95*数据!A94)+([1]生产方式!$S95*数据!B94)+([1]生产方式!$U95*数据!C94)+([1]生产方式!$W95*数据!D94)+([1]生产方式!$Y95*数据!E94)</f>
@@ -8747,7 +8747,7 @@
     <row r="96" spans="1:6">
       <c r="A96" s="3" t="str">
         <f>[1]生产方式!C96</f>
-        <v>来复枪</v>
+        <v>科武_来复枪</v>
       </c>
       <c r="B96" s="2">
         <f>([1]生产方式!$Q96*数据!A95)+([1]生产方式!$S96*数据!B95)+([1]生产方式!$U96*数据!C95)+([1]生产方式!$W96*数据!D95)+([1]生产方式!$Y96*数据!E95)</f>
@@ -8773,7 +8773,7 @@
     <row r="97" spans="1:6">
       <c r="A97" s="3" t="str">
         <f>[1]生产方式!C97</f>
-        <v>连发枪</v>
+        <v>科武_连发枪</v>
       </c>
       <c r="B97" s="2">
         <f>([1]生产方式!$Q97*数据!A96)+([1]生产方式!$S97*数据!B96)+([1]生产方式!$U97*数据!C96)+([1]生产方式!$W97*数据!D96)+([1]生产方式!$Y97*数据!E96)</f>
@@ -8799,7 +8799,7 @@
     <row r="98" spans="1:6">
       <c r="A98" s="3" t="str">
         <f>[1]生产方式!C98</f>
-        <v>栓动步枪</v>
+        <v>科武_栓动步枪</v>
       </c>
       <c r="B98" s="2">
         <f>([1]生产方式!$Q98*数据!A97)+([1]生产方式!$S98*数据!B97)+([1]生产方式!$U98*数据!C97)+([1]生产方式!$W98*数据!D97)+([1]生产方式!$Y98*数据!E97)</f>
@@ -8825,7 +8825,7 @@
     <row r="99" spans="1:6">
       <c r="A99" s="3" t="str">
         <f>[1]生产方式!C99</f>
-        <v>无火炮生产</v>
+        <v>科武_无火炮生产</v>
       </c>
       <c r="B99" s="2">
         <f>([1]生产方式!$Q99*数据!A98)+([1]生产方式!$S99*数据!B98)+([1]生产方式!$U99*数据!C98)+([1]生产方式!$W99*数据!D98)+([1]生产方式!$Y99*数据!E98)</f>
@@ -8851,7 +8851,7 @@
     <row r="100" spans="1:6">
       <c r="A100" s="3" t="str">
         <f>[1]生产方式!C100</f>
-        <v>加农炮</v>
+        <v>科武_加农炮</v>
       </c>
       <c r="B100" s="2">
         <f>([1]生产方式!$Q100*数据!A99)+([1]生产方式!$S100*数据!B99)+([1]生产方式!$U100*数据!C99)+([1]生产方式!$W100*数据!D99)+([1]生产方式!$Y100*数据!E99)</f>
@@ -8877,7 +8877,7 @@
     <row r="101" spans="1:6">
       <c r="A101" s="3" t="str">
         <f>[1]生产方式!C101</f>
-        <v>滑膛炮</v>
+        <v>科武_滑膛炮</v>
       </c>
       <c r="B101" s="2">
         <f>([1]生产方式!$Q101*数据!A100)+([1]生产方式!$S101*数据!B100)+([1]生产方式!$U101*数据!C100)+([1]生产方式!$W101*数据!D100)+([1]生产方式!$Y101*数据!E100)</f>
@@ -8903,7 +8903,7 @@
     <row r="102" spans="1:6">
       <c r="A102" s="3" t="str">
         <f>[1]生产方式!C102</f>
-        <v>后膛炮</v>
+        <v>科武_后膛炮</v>
       </c>
       <c r="B102" s="2">
         <f>([1]生产方式!$Q102*数据!A101)+([1]生产方式!$S102*数据!B101)+([1]生产方式!$U102*数据!C101)+([1]生产方式!$W102*数据!D101)+([1]生产方式!$Y102*数据!E101)</f>
@@ -8929,7 +8929,7 @@
     <row r="103" spans="1:6">
       <c r="A103" s="3" t="str">
         <f>[1]生产方式!C103</f>
-        <v>无自动化</v>
+        <v>科武_无自动化</v>
       </c>
       <c r="B103" s="2">
         <f>([1]生产方式!$Q103*数据!A102)+([1]生产方式!$S103*数据!B102)+([1]生产方式!$U103*数据!C102)+([1]生产方式!$W103*数据!D102)+([1]生产方式!$Y103*数据!E102)</f>
@@ -8955,7 +8955,7 @@
     <row r="104" spans="1:6">
       <c r="A104" s="3" t="str">
         <f>[1]生产方式!C104</f>
-        <v>水管锅炉</v>
+        <v>科武_水管锅炉</v>
       </c>
       <c r="B104" s="2">
         <f>([1]生产方式!$Q104*数据!A103)+([1]生产方式!$S104*数据!B103)+([1]生产方式!$U104*数据!C103)+([1]生产方式!$W104*数据!D103)+([1]生产方式!$Y104*数据!E103)</f>
@@ -8981,7 +8981,7 @@
     <row r="105" spans="1:6">
       <c r="A105" s="3" t="str">
         <f>[1]生产方式!C105</f>
-        <v>旋转阀蒸汽机</v>
+        <v>科武_旋转阀蒸汽机</v>
       </c>
       <c r="B105" s="2">
         <f>([1]生产方式!$Q105*数据!A104)+([1]生产方式!$S105*数据!B104)+([1]生产方式!$U105*数据!C104)+([1]生产方式!$W105*数据!D104)+([1]生产方式!$Y105*数据!E104)</f>
@@ -9007,7 +9007,7 @@
     <row r="106" spans="1:6">
       <c r="A106" s="3" t="str">
         <f>[1]生产方式!C106</f>
-        <v>流水线</v>
+        <v>科武_流水线</v>
       </c>
       <c r="B106" s="2">
         <f>([1]生产方式!$Q106*数据!A105)+([1]生产方式!$S106*数据!B105)+([1]生产方式!$U106*数据!C105)+([1]生产方式!$W106*数据!D105)+([1]生产方式!$Y106*数据!E105)</f>
@@ -9033,7 +9033,7 @@
     <row r="107" spans="1:6">
       <c r="A107" s="3" t="str">
         <f>[1]生产方式!C107</f>
-        <v>魔偶流水线</v>
+        <v>科武_魔偶流水线</v>
       </c>
       <c r="B107" s="2">
         <f>([1]生产方式!$Q107*数据!A106)+([1]生产方式!$S107*数据!B106)+([1]生产方式!$U107*数据!C106)+([1]生产方式!$W107*数据!D106)+([1]生产方式!$Y107*数据!E106)</f>
@@ -9059,7 +9059,7 @@
     <row r="108" spans="1:6">
       <c r="A108" s="3" t="str">
         <f>[1]生产方式!C108</f>
-        <v>商人行会</v>
+        <v>重_商人行会</v>
       </c>
       <c r="B108" s="2">
         <f>([1]生产方式!$Q108*数据!A107)+([1]生产方式!$S108*数据!B107)+([1]生产方式!$U108*数据!C107)+([1]生产方式!$W108*数据!D107)+([1]生产方式!$Y108*数据!E107)</f>
@@ -9085,7 +9085,7 @@
     <row r="109" spans="1:6">
       <c r="A109" s="3" t="str">
         <f>[1]生产方式!C109</f>
-        <v>教会所有</v>
+        <v>重_教会所有</v>
       </c>
       <c r="B109" s="2">
         <f>([1]生产方式!$Q109*数据!A108)+([1]生产方式!$S109*数据!B108)+([1]生产方式!$U109*数据!C108)+([1]生产方式!$W109*数据!D108)+([1]生产方式!$Y109*数据!E108)</f>
@@ -9111,7 +9111,7 @@
     <row r="110" spans="1:6">
       <c r="A110" s="3" t="str">
         <f>[1]生产方式!C110</f>
-        <v>私人运营</v>
+        <v>重_私人运营</v>
       </c>
       <c r="B110" s="2">
         <f>([1]生产方式!$Q110*数据!A109)+([1]生产方式!$S110*数据!B109)+([1]生产方式!$U110*数据!C109)+([1]生产方式!$W110*数据!D109)+([1]生产方式!$Y110*数据!E109)</f>
@@ -9137,7 +9137,7 @@
     <row r="111" spans="1:6">
       <c r="A111" s="3" t="str">
         <f>[1]生产方式!C111</f>
-        <v>公开交易</v>
+        <v>重_公开交易</v>
       </c>
       <c r="B111" s="2">
         <f>([1]生产方式!$Q111*数据!A110)+([1]生产方式!$S111*数据!B110)+([1]生产方式!$U111*数据!C110)+([1]生产方式!$W111*数据!D110)+([1]生产方式!$Y111*数据!E110)</f>
@@ -9163,7 +9163,7 @@
     <row r="112" spans="1:6">
       <c r="A112" s="3" t="str">
         <f>[1]生产方式!C112</f>
-        <v>政府运营</v>
+        <v>重_政府运营</v>
       </c>
       <c r="B112" s="2">
         <f>([1]生产方式!$Q112*数据!A111)+([1]生产方式!$S112*数据!B111)+([1]生产方式!$U112*数据!C111)+([1]生产方式!$W112*数据!D111)+([1]生产方式!$Y112*数据!E111)</f>
@@ -9189,7 +9189,7 @@
     <row r="113" spans="1:6">
       <c r="A113" s="3" t="str">
         <f>[1]生产方式!C113</f>
-        <v>初级工人合作社</v>
+        <v>重_初级工人合作社</v>
       </c>
       <c r="B113" s="2">
         <f>([1]生产方式!$Q113*数据!A112)+([1]生产方式!$S113*数据!B112)+([1]生产方式!$U113*数据!C112)+([1]生产方式!$W113*数据!D112)+([1]生产方式!$Y113*数据!E112)</f>
@@ -9215,7 +9215,7 @@
     <row r="114" spans="1:6">
       <c r="A114" s="3" t="str">
         <f>[1]生产方式!C114</f>
-        <v>高级工人合作社</v>
+        <v>重_高级工人合作社</v>
       </c>
       <c r="B114" s="2">
         <f>([1]生产方式!$Q114*数据!A113)+([1]生产方式!$S114*数据!B113)+([1]生产方式!$U114*数据!C113)+([1]生产方式!$W114*数据!D113)+([1]生产方式!$Y114*数据!E113)</f>
@@ -9241,7 +9241,7 @@
     <row r="115" spans="1:6">
       <c r="A115" s="3" t="str">
         <f>[1]生产方式!C115</f>
-        <v>法师所有</v>
+        <v>重_法师所有</v>
       </c>
       <c r="B115" s="2">
         <f>([1]生产方式!$Q115*数据!A114)+([1]生产方式!$S115*数据!B114)+([1]生产方式!$U115*数据!C114)+([1]生产方式!$W115*数据!D114)+([1]生产方式!$Y115*数据!E114)</f>
@@ -9267,7 +9267,7 @@
     <row r="116" spans="1:6">
       <c r="A116" s="3" t="str">
         <f>[1]生产方式!C116</f>
-        <v>面包房</v>
+        <v>食品_面包房</v>
       </c>
       <c r="B116" s="2">
         <f>([1]生产方式!$Q116*数据!A115)+([1]生产方式!$S116*数据!B115)+([1]生产方式!$U116*数据!C115)+([1]生产方式!$W116*数据!D115)+([1]生产方式!$Y116*数据!E115)</f>
@@ -9293,7 +9293,7 @@
     <row r="117" spans="1:6">
       <c r="A117" s="3" t="str">
         <f>[1]生产方式!C117</f>
-        <v>甜味剂</v>
+        <v>食品_甜味剂</v>
       </c>
       <c r="B117" s="2">
         <f>([1]生产方式!$Q117*数据!A116)+([1]生产方式!$S117*数据!B116)+([1]生产方式!$U117*数据!C116)+([1]生产方式!$W117*数据!D116)+([1]生产方式!$Y117*数据!E116)</f>
@@ -9319,7 +9319,7 @@
     <row r="118" spans="1:6">
       <c r="A118" s="3" t="str">
         <f>[1]生产方式!C118</f>
-        <v>烘焙粉</v>
+        <v>食品_烘焙粉</v>
       </c>
       <c r="B118" s="2">
         <f>([1]生产方式!$Q118*数据!A117)+([1]生产方式!$S118*数据!B117)+([1]生产方式!$U118*数据!C117)+([1]生产方式!$W118*数据!D117)+([1]生产方式!$Y118*数据!E117)</f>
@@ -9345,7 +9345,7 @@
     <row r="119" spans="1:6">
       <c r="A119" s="3" t="str">
         <f>[1]生产方式!C119</f>
-        <v>无罐装</v>
+        <v>食品_无罐装</v>
       </c>
       <c r="B119" s="2">
         <f>([1]生产方式!$Q119*数据!A118)+([1]生产方式!$S119*数据!B118)+([1]生产方式!$U119*数据!C118)+([1]生产方式!$W119*数据!D118)+([1]生产方式!$Y119*数据!E118)</f>
@@ -9371,7 +9371,7 @@
     <row r="120" spans="1:6">
       <c r="A120" s="3" t="str">
         <f>[1]生产方式!C120</f>
-        <v>罐装</v>
+        <v>食品_罐装</v>
       </c>
       <c r="B120" s="2">
         <f>([1]生产方式!$Q120*数据!A119)+([1]生产方式!$S120*数据!B119)+([1]生产方式!$U120*数据!C119)+([1]生产方式!$W120*数据!D119)+([1]生产方式!$Y120*数据!E119)</f>
@@ -9397,7 +9397,7 @@
     <row r="121" spans="1:6">
       <c r="A121" s="3" t="str">
         <f>[1]生产方式!C121</f>
-        <v>真空罐装</v>
+        <v>食品_真空罐装</v>
       </c>
       <c r="B121" s="2">
         <f>([1]生产方式!$Q121*数据!A120)+([1]生产方式!$S121*数据!B120)+([1]生产方式!$U121*数据!C120)+([1]生产方式!$W121*数据!D120)+([1]生产方式!$Y121*数据!E120)</f>
@@ -9423,7 +9423,7 @@
     <row r="122" spans="1:6">
       <c r="A122" s="3" t="str">
         <f>[1]生产方式!C122</f>
-        <v>手工面团</v>
+        <v>食品_手工面团</v>
       </c>
       <c r="B122" s="2">
         <f>([1]生产方式!$Q122*数据!A121)+([1]生产方式!$S122*数据!B121)+([1]生产方式!$U122*数据!C121)+([1]生产方式!$W122*数据!D121)+([1]生产方式!$Y122*数据!E121)</f>
@@ -9449,7 +9449,7 @@
     <row r="123" spans="1:6">
       <c r="A123" s="3" t="str">
         <f>[1]生产方式!C123</f>
-        <v>自动化面包房</v>
+        <v>食品_自动化面包房</v>
       </c>
       <c r="B123" s="2">
         <f>([1]生产方式!$Q123*数据!A122)+([1]生产方式!$S123*数据!B122)+([1]生产方式!$U123*数据!C122)+([1]生产方式!$W123*数据!D122)+([1]生产方式!$Y123*数据!E122)</f>
@@ -9475,7 +9475,7 @@
     <row r="124" spans="1:6">
       <c r="A124" s="3" t="str">
         <f>[1]生产方式!C124</f>
-        <v>魔偶面包房</v>
+        <v>食品_魔偶面包房</v>
       </c>
       <c r="B124" s="2">
         <f>([1]生产方式!$Q124*数据!A123)+([1]生产方式!$S124*数据!B123)+([1]生产方式!$U124*数据!C123)+([1]生产方式!$W124*数据!D123)+([1]生产方式!$Y124*数据!E123)</f>
@@ -9501,7 +9501,7 @@
     <row r="125" spans="1:6">
       <c r="A125" s="3" t="str">
         <f>[1]生产方式!C125</f>
-        <v>魔偶自动面包房</v>
+        <v>食品_魔偶自动面包房</v>
       </c>
       <c r="B125" s="2">
         <f>([1]生产方式!$Q125*数据!A124)+([1]生产方式!$S125*数据!B124)+([1]生产方式!$U125*数据!C124)+([1]生产方式!$W125*数据!D124)+([1]生产方式!$Y125*数据!E124)</f>
@@ -9553,7 +9553,7 @@
     <row r="127" spans="1:6">
       <c r="A127" s="3" t="str">
         <f>[1]生产方式!C126</f>
-        <v>罐馏器</v>
+        <v>酿酒_罐馏器</v>
       </c>
       <c r="B127" s="2">
         <f>([1]生产方式!$Q126*数据!A126)+([1]生产方式!$S126*数据!B126)+([1]生产方式!$U126*数据!C126)+([1]生产方式!$W126*数据!D126)+([1]生产方式!$Y126*数据!E126)</f>
@@ -9579,7 +9579,7 @@
     <row r="128" spans="1:6">
       <c r="A128" s="3" t="str">
         <f>[1]生产方式!C127</f>
-        <v>连续式蒸馏器</v>
+        <v>酿酒_连续式蒸馏器</v>
       </c>
       <c r="B128" s="2" t="e">
         <f>([1]生产方式!$Q127*数据!A127)+([1]生产方式!$S127*数据!B127)+([1]生产方式!$U127*数据!C127)+([1]生产方式!$W127*数据!D127)+([1]生产方式!$Y127*数据!E127)</f>
@@ -9605,7 +9605,7 @@
     <row r="129" spans="1:6">
       <c r="A129" s="3" t="str">
         <f>[1]生产方式!C128</f>
-        <v>金属瓶身</v>
+        <v>酿酒_金属瓶身</v>
       </c>
       <c r="B129" s="2">
         <f>([1]生产方式!$Q128*数据!A128)+([1]生产方式!$S128*数据!B128)+([1]生产方式!$U128*数据!C128)+([1]生产方式!$W128*数据!D128)+([1]生产方式!$Y128*数据!E128)</f>
@@ -9631,7 +9631,7 @@
     <row r="130" spans="1:6">
       <c r="A130" s="3" t="str">
         <f>[1]生产方式!C129</f>
-        <v>玻璃瓶身</v>
+        <v>酿酒_玻璃瓶身</v>
       </c>
       <c r="B130" s="2">
         <f>([1]生产方式!$Q129*数据!A129)+([1]生产方式!$S129*数据!B129)+([1]生产方式!$U129*数据!C129)+([1]生产方式!$W129*数据!D129)+([1]生产方式!$Y129*数据!E129)</f>
@@ -9657,7 +9657,7 @@
     <row r="131" spans="1:6">
       <c r="A131" s="3" t="str">
         <f>[1]生产方式!C130</f>
-        <v>无自动化</v>
+        <v>酿酒_无自动化</v>
       </c>
       <c r="B131" s="2">
         <f>([1]生产方式!$Q130*数据!A130)+([1]生产方式!$S130*数据!B130)+([1]生产方式!$U130*数据!C130)+([1]生产方式!$W130*数据!D130)+([1]生产方式!$Y130*数据!E130)</f>
@@ -9683,7 +9683,7 @@
     <row r="132" spans="1:6">
       <c r="A132" s="3" t="str">
         <f>[1]生产方式!C131</f>
-        <v>自动蒸馏器</v>
+        <v>酿酒_自动蒸馏器</v>
       </c>
       <c r="B132" s="2">
         <f>([1]生产方式!$Q131*数据!A131)+([1]生产方式!$S131*数据!B131)+([1]生产方式!$U131*数据!C131)+([1]生产方式!$W131*数据!D131)+([1]生产方式!$Y131*数据!E131)</f>
@@ -9709,7 +9709,7 @@
     <row r="133" spans="1:6">
       <c r="A133" s="3" t="str">
         <f>[1]生产方式!C132</f>
-        <v>魔偶蒸馏</v>
+        <v>酿酒_魔偶蒸馏</v>
       </c>
       <c r="B133" s="2">
         <f>([1]生产方式!$Q132*数据!A132)+([1]生产方式!$S132*数据!B132)+([1]生产方式!$U132*数据!C132)+([1]生产方式!$W132*数据!D132)+([1]生产方式!$Y132*数据!E132)</f>
@@ -9735,7 +9735,7 @@
     <row r="134" spans="1:6">
       <c r="A134" s="3" t="str">
         <f>[1]生产方式!C133</f>
-        <v>魔偶自动蒸馏器</v>
+        <v>酿酒_魔偶自动蒸馏器</v>
       </c>
       <c r="B134" s="2">
         <f>([1]生产方式!$Q133*数据!A133)+([1]生产方式!$S133*数据!B133)+([1]生产方式!$U133*数据!C133)+([1]生产方式!$W133*数据!D133)+([1]生产方式!$Y133*数据!E133)</f>
@@ -9761,7 +9761,7 @@
     <row r="135" spans="1:6">
       <c r="A135" s="3" t="str">
         <f>[1]生产方式!C134</f>
-        <v>手工缝纫</v>
+        <v>纺织_手工缝纫</v>
       </c>
       <c r="B135" s="2">
         <f>([1]生产方式!$Q134*数据!A134)+([1]生产方式!$S134*数据!B134)+([1]生产方式!$U134*数据!C134)+([1]生产方式!$W134*数据!D134)+([1]生产方式!$Y134*数据!E134)</f>
@@ -9787,7 +9787,7 @@
     <row r="136" spans="1:6">
       <c r="A136" s="3" t="str">
         <f>[1]生产方式!C135</f>
-        <v>染料工坊</v>
+        <v>纺织_染料工坊</v>
       </c>
       <c r="B136" s="2">
         <f>([1]生产方式!$Q135*数据!A135)+([1]生产方式!$S135*数据!B135)+([1]生产方式!$U135*数据!C135)+([1]生产方式!$W135*数据!D135)+([1]生产方式!$Y135*数据!E135)</f>
@@ -9813,7 +9813,7 @@
     <row r="137" spans="1:6">
       <c r="A137" s="3" t="str">
         <f>[1]生产方式!C136</f>
-        <v>无奢侈衣物</v>
+        <v>纺织_无奢侈衣物</v>
       </c>
       <c r="B137" s="2">
         <f>([1]生产方式!$Q136*数据!A136)+([1]生产方式!$S136*数据!B136)+([1]生产方式!$U136*数据!C136)+([1]生产方式!$W136*数据!D136)+([1]生产方式!$Y136*数据!E136)</f>
@@ -9839,7 +9839,7 @@
     <row r="138" spans="1:6">
       <c r="A138" s="3" t="str">
         <f>[1]生产方式!C137</f>
-        <v>匠人缝纫</v>
+        <v>纺织_匠人缝纫</v>
       </c>
       <c r="B138" s="2">
         <f>([1]生产方式!$Q137*数据!A137)+([1]生产方式!$S137*数据!B137)+([1]生产方式!$U137*数据!C137)+([1]生产方式!$W137*数据!D137)+([1]生产方式!$Y137*数据!E137)</f>
@@ -9865,7 +9865,7 @@
     <row r="139" spans="1:6">
       <c r="A139" s="3" t="str">
         <f>[1]生产方式!C138</f>
-        <v>弹性织物</v>
+        <v>纺织_弹性织物</v>
       </c>
       <c r="B139" s="2">
         <f>([1]生产方式!$Q138*数据!A138)+([1]生产方式!$S138*数据!B138)+([1]生产方式!$U138*数据!C138)+([1]生产方式!$W138*数据!D138)+([1]生产方式!$Y138*数据!E138)</f>
@@ -9891,7 +9891,7 @@
     <row r="140" spans="1:6">
       <c r="A140" s="3" t="str">
         <f>[1]生产方式!C139</f>
-        <v>传统织机</v>
+        <v>纺织_传统织机</v>
       </c>
       <c r="B140" s="2">
         <f>([1]生产方式!$Q139*数据!A139)+([1]生产方式!$S139*数据!B139)+([1]生产方式!$U139*数据!C139)+([1]生产方式!$W139*数据!D139)+([1]生产方式!$Y139*数据!E139)</f>
@@ -9917,7 +9917,7 @@
     <row r="141" spans="1:6">
       <c r="A141" s="3" t="str">
         <f>[1]生产方式!C140</f>
-        <v>缝纫机</v>
+        <v>纺织_缝纫机</v>
       </c>
       <c r="B141" s="2">
         <f>([1]生产方式!$Q140*数据!A140)+([1]生产方式!$S140*数据!B140)+([1]生产方式!$U140*数据!C140)+([1]生产方式!$W140*数据!D140)+([1]生产方式!$Y140*数据!E140)</f>
@@ -9943,7 +9943,7 @@
     <row r="142" spans="1:6">
       <c r="A142" s="3" t="str">
         <f>[1]生产方式!C141</f>
-        <v>自动缝纫机</v>
+        <v>纺织_自动缝纫机</v>
       </c>
       <c r="B142" s="2">
         <f>([1]生产方式!$Q141*数据!A141)+([1]生产方式!$S141*数据!B141)+([1]生产方式!$U141*数据!C141)+([1]生产方式!$W141*数据!D141)+([1]生产方式!$Y141*数据!E141)</f>
@@ -9969,7 +9969,7 @@
     <row r="143" spans="1:6">
       <c r="A143" s="3" t="str">
         <f>[1]生产方式!C142</f>
-        <v>无魔法自动化</v>
+        <v>纺织_无魔法自动化</v>
       </c>
       <c r="B143" s="2">
         <f>([1]生产方式!$Q142*数据!A142)+([1]生产方式!$S142*数据!B142)+([1]生产方式!$U142*数据!C142)+([1]生产方式!$W142*数据!D142)+([1]生产方式!$Y142*数据!E142)</f>
@@ -9995,7 +9995,7 @@
     <row r="144" spans="1:6">
       <c r="A144" s="3" t="str">
         <f>[1]生产方式!C143</f>
-        <v>基础魔偶</v>
+        <v>纺织_基础魔偶</v>
       </c>
       <c r="B144" s="2">
         <f>([1]生产方式!$Q143*数据!A143)+([1]生产方式!$S143*数据!B143)+([1]生产方式!$U143*数据!C143)+([1]生产方式!$W143*数据!D143)+([1]生产方式!$Y143*数据!E143)</f>
@@ -10021,7 +10021,7 @@
     <row r="145" spans="1:6">
       <c r="A145" s="3" t="str">
         <f>[1]生产方式!C144</f>
-        <v>智能魔偶</v>
+        <v>纺织_智能魔偶</v>
       </c>
       <c r="B145" s="2">
         <f>([1]生产方式!$Q144*数据!A144)+([1]生产方式!$S144*数据!B144)+([1]生产方式!$U144*数据!C144)+([1]生产方式!$W144*数据!D144)+([1]生产方式!$Y144*数据!E144)</f>
@@ -10047,7 +10047,7 @@
     <row r="146" spans="1:6">
       <c r="A146" s="3" t="str">
         <f>[1]生产方式!C145</f>
-        <v>无魔导自动化</v>
+        <v>纺织_无魔导自动化</v>
       </c>
       <c r="B146" s="2">
         <f>([1]生产方式!$Q145*数据!A145)+([1]生产方式!$S145*数据!B145)+([1]生产方式!$U145*数据!C145)+([1]生产方式!$W145*数据!D145)+([1]生产方式!$Y145*数据!E145)</f>
@@ -10073,7 +10073,7 @@
     <row r="147" spans="1:6">
       <c r="A147" s="3" t="str">
         <f>[1]生产方式!C146</f>
-        <v>魔偶流水线</v>
+        <v>纺织_魔偶流水线</v>
       </c>
       <c r="B147" s="2">
         <f>([1]生产方式!$Q146*数据!A146)+([1]生产方式!$S146*数据!B146)+([1]生产方式!$U146*数据!C146)+([1]生产方式!$W146*数据!D146)+([1]生产方式!$Y146*数据!E146)</f>
